--- a/Misc/FEC_EcositePredictor/reference/FEC_EcositePredictor.xlsx
+++ b/Misc/FEC_EcositePredictor/reference/FEC_EcositePredictor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\git\p2t_ArcMap10_Tools\Misc\FEC_EcositePredictor\reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF143C2-6192-407D-BE21-7F115F22CD27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99D7A4A-1AC3-458F-ACBB-43029740D9F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{81CC09A0-CCBA-490A-882D-74783881A46D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{81CC09A0-CCBA-490A-882D-74783881A46D}"/>
   </bookViews>
   <sheets>
     <sheet name="Central Ontario FEC" sheetId="1" r:id="rId1"/>
@@ -37,6 +37,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={C85DBCD6-18B6-4261-A6AC-DBD344816A20}</author>
+    <author>tc={030EB0EE-1CB5-4423-8EAF-3ED500C1FC44}</author>
+    <author>tc={55A9BCD1-1BE8-4055-B4CE-3AF7EAE06849}</author>
+  </authors>
+  <commentList>
+    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{C85DBCD6-18B6-4261-A6AC-DBD344816A20}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    QR+OW+OB</t>
+      </text>
+    </comment>
+    <comment ref="AG3" authorId="1" shapeId="0" xr:uid="{030EB0EE-1CB5-4423-8EAF-3ED500C1FC44}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    SC but turn the values to 1, 2 or 3</t>
+      </text>
+    </comment>
+    <comment ref="N5" authorId="2" shapeId="0" xr:uid="{55A9BCD1-1BE8-4055-B4CE-3AF7EAE06849}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    J4 is AW+CH not AB+EW</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="156">
   <si>
@@ -148,9 +184,6 @@
     <t>BE</t>
   </si>
   <si>
-    <t>OR</t>
-  </si>
-  <si>
     <t>MS</t>
   </si>
   <si>
@@ -508,13 +541,16 @@
   </si>
   <si>
     <t>FEC NAME</t>
+  </si>
+  <si>
+    <t>Oak</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -561,6 +597,12 @@
       <color theme="1"/>
       <name val="Daytona"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2596,6 +2638,12 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Kim, Daniel (MNR)" id="{58E23E94-745B-476D-AAC4-4B4D22141E06}" userId="S::Daniel.Kim2@ontario.ca::6a941af3-110c-4c3c-b425-309817122f3e" providerId="AD"/>
+</personList>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2891,15 +2939,29 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="G3" dT="2024-12-16T14:07:46.63" personId="{58E23E94-745B-476D-AAC4-4B4D22141E06}" id="{C85DBCD6-18B6-4261-A6AC-DBD344816A20}">
+    <text>QR+OW+OB</text>
+  </threadedComment>
+  <threadedComment ref="AG3" dT="2024-12-16T13:57:00.04" personId="{58E23E94-745B-476D-AAC4-4B4D22141E06}" id="{030EB0EE-1CB5-4423-8EAF-3ED500C1FC44}">
+    <text>SC but turn the values to 1, 2 or 3</text>
+  </threadedComment>
+  <threadedComment ref="N5" dT="2024-12-16T13:59:57.37" personId="{58E23E94-745B-476D-AAC4-4B4D22141E06}" id="{55A9BCD1-1BE8-4055-B4CE-3AF7EAE06849}">
+    <text>J4 is AW+CH not AB+EW</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B514C5FF-EF35-48A4-A3CD-10618138AC7D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B514C5FF-EF35-48A4-A3CD-10618138AC7D}">
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="B2:CP85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AN25" sqref="AN25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3028,90 +3090,90 @@
         <v>35</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="W3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="X3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="Y3" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="Z3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="AA3" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AB3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AC3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AC3" s="3" t="s">
+      <c r="AD3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AE3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AE3" s="3" t="s">
+      <c r="AF3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AF3" s="3" t="s">
+      <c r="AG3" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="AG3" s="3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="4" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -3203,7 +3265,7 @@
     </row>
     <row r="5" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" s="8">
         <f>C4</f>
@@ -5887,106 +5949,106 @@
         <v>0</v>
       </c>
       <c r="C34" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="J34" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="K34" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="L34" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="M34" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="N34" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="O34" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="P34" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q34" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="R34" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="S34" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="T34" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="U34" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="V34" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="W34" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="X34" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y34" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z34" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA34" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB34" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC34" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD34" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE34" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF34" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG34" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH34" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="I34" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="J34" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="K34" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="L34" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="M34" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="N34" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="O34" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="P34" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q34" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="R34" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="S34" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="T34" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="U34" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="V34" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="W34" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="X34" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y34" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z34" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA34" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB34" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC34" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD34" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE34" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF34" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG34" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH34" s="14" t="s">
+      <c r="AJ34" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="AJ34" s="15" t="s">
+      <c r="AK34" s="15" t="s">
         <v>67</v>
-      </c>
-      <c r="AK34" s="15" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="35" spans="2:37" x14ac:dyDescent="0.25">
@@ -6122,10 +6184,10 @@
         <v>65.1911165480481</v>
       </c>
       <c r="AJ35" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK35" s="19" t="s">
         <v>69</v>
-      </c>
-      <c r="AK35" s="19" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="36" spans="2:37" x14ac:dyDescent="0.25">
@@ -6261,10 +6323,10 @@
         <v>-318.97210623138238</v>
       </c>
       <c r="AJ36" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK36" s="19" t="s">
         <v>71</v>
-      </c>
-      <c r="AK36" s="19" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="37" spans="2:37" x14ac:dyDescent="0.25">
@@ -6400,10 +6462,10 @@
         <v>53.78180921763736</v>
       </c>
       <c r="AJ37" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK37" s="19" t="s">
         <v>73</v>
-      </c>
-      <c r="AK37" s="19" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="38" spans="2:37" x14ac:dyDescent="0.25">
@@ -6539,10 +6601,10 @@
         <v>65.954230106248232</v>
       </c>
       <c r="AJ38" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK38" s="19" t="s">
         <v>75</v>
-      </c>
-      <c r="AK38" s="19" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="39" spans="2:37" x14ac:dyDescent="0.25">
@@ -6678,10 +6740,10 @@
         <v>46.988224844585673</v>
       </c>
       <c r="AJ39" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK39" s="19" t="s">
         <v>77</v>
-      </c>
-      <c r="AK39" s="19" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="40" spans="2:37" x14ac:dyDescent="0.25">
@@ -6817,10 +6879,10 @@
         <v>56.208465760547128</v>
       </c>
       <c r="AJ40" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK40" s="19" t="s">
         <v>79</v>
-      </c>
-      <c r="AK40" s="19" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="41" spans="2:37" x14ac:dyDescent="0.25">
@@ -6956,10 +7018,10 @@
         <v>58.927795657300578</v>
       </c>
       <c r="AJ41" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK41" s="19" t="s">
         <v>81</v>
-      </c>
-      <c r="AK41" s="19" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="42" spans="2:37" x14ac:dyDescent="0.25">
@@ -7095,10 +7157,10 @@
         <v>60.800163610039078</v>
       </c>
       <c r="AJ42" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK42" s="19" t="s">
         <v>83</v>
-      </c>
-      <c r="AK42" s="19" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="43" spans="2:37" x14ac:dyDescent="0.25">
@@ -7234,10 +7296,10 @@
         <v>72.411227375899557</v>
       </c>
       <c r="AJ43" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK43" s="19" t="s">
         <v>85</v>
-      </c>
-      <c r="AK43" s="19" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="44" spans="2:37" x14ac:dyDescent="0.25">
@@ -7373,10 +7435,10 @@
         <v>65.454584271852539</v>
       </c>
       <c r="AJ44" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK44" s="19" t="s">
         <v>87</v>
-      </c>
-      <c r="AK44" s="19" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="45" spans="2:37" x14ac:dyDescent="0.25">
@@ -7512,10 +7574,10 @@
         <v>67.313652475759142</v>
       </c>
       <c r="AJ45" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK45" s="19" t="s">
         <v>89</v>
-      </c>
-      <c r="AK45" s="19" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="46" spans="2:37" x14ac:dyDescent="0.25">
@@ -7651,10 +7713,10 @@
         <v>65.837910867986608</v>
       </c>
       <c r="AJ46" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK46" s="19" t="s">
         <v>91</v>
-      </c>
-      <c r="AK46" s="19" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="47" spans="2:37" x14ac:dyDescent="0.25">
@@ -7790,10 +7852,10 @@
         <v>61.22410213483721</v>
       </c>
       <c r="AJ47" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK47" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="AK47" s="19" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="48" spans="2:37" x14ac:dyDescent="0.25">
@@ -7929,10 +7991,10 @@
         <v>45.2151622744734</v>
       </c>
       <c r="AJ48" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK48" s="19" t="s">
         <v>95</v>
-      </c>
-      <c r="AK48" s="19" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="49" spans="2:94" x14ac:dyDescent="0.25">
@@ -8068,10 +8130,10 @@
         <v>62.989231628623415</v>
       </c>
       <c r="AJ49" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK49" s="19" t="s">
         <v>97</v>
-      </c>
-      <c r="AK49" s="19" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="50" spans="2:94" x14ac:dyDescent="0.25">
@@ -8207,10 +8269,10 @@
         <v>16.065230548732501</v>
       </c>
       <c r="AJ50" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK50" s="19" t="s">
         <v>99</v>
-      </c>
-      <c r="AK50" s="19" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="51" spans="2:94" x14ac:dyDescent="0.25">
@@ -8346,10 +8408,10 @@
         <v>71.652186026259983</v>
       </c>
       <c r="AJ51" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK51" s="19" t="s">
         <v>101</v>
-      </c>
-      <c r="AK51" s="19" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="52" spans="2:94" x14ac:dyDescent="0.25">
@@ -8485,10 +8547,10 @@
         <v>92.460907307605481</v>
       </c>
       <c r="AJ52" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK52" s="19" t="s">
         <v>103</v>
-      </c>
-      <c r="AK52" s="19" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="53" spans="2:94" x14ac:dyDescent="0.25">
@@ -8624,10 +8686,10 @@
         <v>42.476107681155128</v>
       </c>
       <c r="AJ53" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK53" s="19" t="s">
         <v>105</v>
-      </c>
-      <c r="AK53" s="19" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="54" spans="2:94" x14ac:dyDescent="0.25">
@@ -8763,10 +8825,10 @@
         <v>110.84018840898702</v>
       </c>
       <c r="AJ54" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK54" s="19" t="s">
         <v>107</v>
-      </c>
-      <c r="AK54" s="19" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="55" spans="2:94" x14ac:dyDescent="0.25">
@@ -8902,10 +8964,10 @@
         <v>-17.656448559923739</v>
       </c>
       <c r="AJ55" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK55" s="19" t="s">
         <v>109</v>
-      </c>
-      <c r="AK55" s="19" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="56" spans="2:94" x14ac:dyDescent="0.25">
@@ -9041,10 +9103,10 @@
         <v>4.8082557829230552</v>
       </c>
       <c r="AJ56" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK56" s="19" t="s">
         <v>111</v>
-      </c>
-      <c r="AK56" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="57" spans="2:94" x14ac:dyDescent="0.25">
@@ -9180,10 +9242,10 @@
         <v>56.646690123903454</v>
       </c>
       <c r="AJ57" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK57" s="19" t="s">
         <v>113</v>
-      </c>
-      <c r="AK57" s="19" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="58" spans="2:94" x14ac:dyDescent="0.25">
@@ -9319,10 +9381,10 @@
         <v>55.93473091283559</v>
       </c>
       <c r="AJ58" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="AK58" s="19" t="s">
         <v>115</v>
-      </c>
-      <c r="AK58" s="19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="59" spans="2:94" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9458,129 +9520,129 @@
         <v>53.169545146753933</v>
       </c>
       <c r="AJ59" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK59" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="AK59" s="19" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="60" spans="2:94" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="BJ60" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="BK60" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="BK60" s="23" t="s">
+      <c r="BL60" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="BL60" s="23" t="s">
+      <c r="BM60" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="BM60" s="23" t="s">
+      <c r="BN60" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="BN60" s="23" t="s">
+      <c r="BO60" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="BO60" s="23" t="s">
+      <c r="BP60" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="BP60" s="23" t="s">
+      <c r="BQ60" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="BQ60" s="23" t="s">
+      <c r="BR60" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="BR60" s="23" t="s">
+      <c r="BS60" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="BS60" s="23" t="s">
+      <c r="BT60" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="BT60" s="23" t="s">
+      <c r="BU60" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="BU60" s="23" t="s">
+      <c r="BV60" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="BV60" s="23" t="s">
+      <c r="BW60" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="BW60" s="23" t="s">
+      <c r="BX60" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="BX60" s="23" t="s">
+      <c r="BY60" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="BY60" s="23" t="s">
+      <c r="BZ60" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="BZ60" s="23" t="s">
+      <c r="CA60" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="CA60" s="23" t="s">
+      <c r="CB60" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="CB60" s="23" t="s">
+      <c r="CC60" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="CC60" s="23" t="s">
+      <c r="CD60" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="CD60" s="23" t="s">
+      <c r="CE60" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="CE60" s="23" t="s">
+      <c r="CF60" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="CF60" s="23" t="s">
+      <c r="CG60" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="CG60" s="23" t="s">
+      <c r="CH60" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="CH60" s="23" t="s">
+      <c r="CI60" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="CI60" s="23" t="s">
+      <c r="CJ60" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="CJ60" s="23" t="s">
+      <c r="CK60" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="CK60" s="23" t="s">
+      <c r="CL60" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="CL60" s="23" t="s">
+      <c r="CM60" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="CM60" s="23" t="s">
+      <c r="CN60" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="CN60" s="23" t="s">
+      <c r="CO60" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="CO60" s="23" t="s">
+      <c r="CP60" s="23" t="s">
         <v>150</v>
-      </c>
-      <c r="CP60" s="23" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="61" spans="2:94" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B61" s="26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C61" s="27"/>
       <c r="D61" s="28"/>
       <c r="E61" s="35" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F61" s="36"/>
       <c r="G61" s="35" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H61" s="36"/>
       <c r="I61" s="35" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J61" s="36"/>
       <c r="BJ61" s="24">
@@ -12150,6 +12212,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -14731,10 +14794,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>67</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -14742,7 +14805,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -14750,7 +14813,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -14758,7 +14821,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -14766,7 +14829,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -14774,7 +14837,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -14782,7 +14845,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -14790,7 +14853,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -14798,7 +14861,7 @@
         <v>18</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -14806,7 +14869,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -14814,7 +14877,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -14822,7 +14885,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -14830,7 +14893,7 @@
         <v>22</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -14838,7 +14901,7 @@
         <v>23</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -14846,7 +14909,7 @@
         <v>24</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -14854,7 +14917,7 @@
         <v>25</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -14862,7 +14925,7 @@
         <v>26</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -14870,7 +14933,7 @@
         <v>27</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -14878,7 +14941,7 @@
         <v>28</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -14886,7 +14949,7 @@
         <v>29</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -14894,7 +14957,7 @@
         <v>30</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -14902,7 +14965,7 @@
         <v>31</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -14910,7 +14973,7 @@
         <v>32</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -14918,7 +14981,7 @@
         <v>33</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -14926,7 +14989,7 @@
         <v>34</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14934,7 +14997,7 @@
         <v>35</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/Misc/FEC_EcositePredictor/reference/FEC_EcositePredictor.xlsx
+++ b/Misc/FEC_EcositePredictor/reference/FEC_EcositePredictor.xlsx
@@ -5,17 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\git\p2t_ArcMap10_Tools\Misc\FEC_EcositePredictor\reference\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ontariogov-my.sharepoint.com/personal/glen_watt_ontario_ca/Documents/Laptop_Feb2024/OLD_GROWTH/Dawn_B/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99D7A4A-1AC3-458F-ACBB-43029740D9F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="344" documentId="8_{A14C0133-3C12-4172-A6DC-864A58E6BE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D75E0097-21C7-46F8-9E7F-D193925BABD2}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{81CC09A0-CCBA-490A-882D-74783881A46D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{81CC09A0-CCBA-490A-882D-74783881A46D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Central Ontario FEC" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="User Entry" sheetId="2" r:id="rId1"/>
+    <sheet name="Central Ontario FEC" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,44 +36,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={C85DBCD6-18B6-4261-A6AC-DBD344816A20}</author>
-    <author>tc={030EB0EE-1CB5-4423-8EAF-3ED500C1FC44}</author>
-    <author>tc={55A9BCD1-1BE8-4055-B4CE-3AF7EAE06849}</author>
-  </authors>
-  <commentList>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{C85DBCD6-18B6-4261-A6AC-DBD344816A20}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    QR+OW+OB</t>
-      </text>
-    </comment>
-    <comment ref="AG3" authorId="1" shapeId="0" xr:uid="{030EB0EE-1CB5-4423-8EAF-3ED500C1FC44}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    SC but turn the values to 1, 2 or 3</t>
-      </text>
-    </comment>
-    <comment ref="N5" authorId="2" shapeId="0" xr:uid="{55A9BCD1-1BE8-4055-B4CE-3AF7EAE06849}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    J4 is AW+CH not AB+EW</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="165">
   <si>
     <t>Ecosite_Num</t>
   </si>
@@ -182,6 +145,9 @@
   </si>
   <si>
     <t>BE</t>
+  </si>
+  <si>
+    <t>OR</t>
   </si>
   <si>
     <t>MS</t>
@@ -543,14 +509,38 @@
     <t>FEC NAME</t>
   </si>
   <si>
-    <t>Oak</t>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>MR</t>
+  </si>
+  <si>
+    <t>BY</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>AW</t>
+  </si>
+  <si>
+    <t>EW</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>Species Composition (SpComp)  - used  in the FEC Predictor equations for FECProb</t>
+  </si>
+  <si>
+    <t>SITE CLASS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -599,13 +589,23 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -648,8 +648,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -933,13 +939,154 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -994,6 +1141,60 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2638,12 +2839,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Kim, Daniel (MNR)" id="{58E23E94-745B-476D-AAC4-4B4D22141E06}" userId="S::Daniel.Kim2@ontario.ca::6a941af3-110c-4c3c-b425-309817122f3e" providerId="AD"/>
-</personList>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2939,29 +3134,313 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="G3" dT="2024-12-16T14:07:46.63" personId="{58E23E94-745B-476D-AAC4-4B4D22141E06}" id="{C85DBCD6-18B6-4261-A6AC-DBD344816A20}">
-    <text>QR+OW+OB</text>
-  </threadedComment>
-  <threadedComment ref="AG3" dT="2024-12-16T13:57:00.04" personId="{58E23E94-745B-476D-AAC4-4B4D22141E06}" id="{030EB0EE-1CB5-4423-8EAF-3ED500C1FC44}">
-    <text>SC but turn the values to 1, 2 or 3</text>
-  </threadedComment>
-  <threadedComment ref="N5" dT="2024-12-16T13:59:57.37" personId="{58E23E94-745B-476D-AAC4-4B4D22141E06}" id="{55A9BCD1-1BE8-4055-B4CE-3AF7EAE06849}">
-    <text>J4 is AW+CH not AB+EW</text>
-  </threadedComment>
-</ThreadedComments>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3BAB770-D548-4A89-9CE4-B3603514F2DA}">
+  <dimension ref="B1:Z9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="25" max="25" width="3.42578125" customWidth="1"/>
+    <col min="26" max="26" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="49"/>
+      <c r="Z2" s="39" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="K3" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="O3" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q3" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="S3" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="T3" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="U3" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="V3" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="W3" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="X3" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z3" s="40"/>
+    </row>
+    <row r="4" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="29">
+        <v>0</v>
+      </c>
+      <c r="C4" s="30">
+        <v>0</v>
+      </c>
+      <c r="D4" s="30">
+        <v>0</v>
+      </c>
+      <c r="E4" s="30">
+        <v>0</v>
+      </c>
+      <c r="F4" s="30">
+        <v>0</v>
+      </c>
+      <c r="G4" s="30">
+        <v>0</v>
+      </c>
+      <c r="H4" s="30">
+        <v>10</v>
+      </c>
+      <c r="I4" s="30">
+        <v>0</v>
+      </c>
+      <c r="J4" s="30">
+        <v>90</v>
+      </c>
+      <c r="K4" s="30">
+        <v>0</v>
+      </c>
+      <c r="L4" s="30">
+        <v>0</v>
+      </c>
+      <c r="M4" s="30">
+        <v>0</v>
+      </c>
+      <c r="N4" s="30">
+        <v>0</v>
+      </c>
+      <c r="O4" s="30">
+        <v>0</v>
+      </c>
+      <c r="P4" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="30">
+        <v>0</v>
+      </c>
+      <c r="R4" s="30">
+        <v>0</v>
+      </c>
+      <c r="S4" s="30">
+        <v>0</v>
+      </c>
+      <c r="T4" s="30">
+        <v>0</v>
+      </c>
+      <c r="U4" s="30">
+        <v>0</v>
+      </c>
+      <c r="V4" s="30">
+        <v>0</v>
+      </c>
+      <c r="W4" s="33">
+        <v>0</v>
+      </c>
+      <c r="X4" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="2:26" ht="22.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K8" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="L8" s="42"/>
+      <c r="M8" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="N8" s="42"/>
+    </row>
+    <row r="9" spans="2:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K9" s="44">
+        <f>'Central Ontario FEC'!G62</f>
+        <v>32</v>
+      </c>
+      <c r="L9" s="45"/>
+      <c r="M9" s="46" t="str">
+        <f>'Central Ontario FEC'!I62</f>
+        <v>CeSbL</v>
+      </c>
+      <c r="N9" s="45"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="B2:X2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B514C5FF-EF35-48A4-A3CD-10618138AC7D}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B514C5FF-EF35-48A4-A3CD-10618138AC7D}">
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="B2:CP85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y5" sqref="Y5"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3090,165 +3569,189 @@
         <v>35</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>155</v>
+        <v>36</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AD3" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF3" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG3" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
       </c>
       <c r="D4" s="6">
+        <f>'User Entry'!M4</f>
         <v>0</v>
       </c>
       <c r="E4" s="6">
+        <f>'User Entry'!P4</f>
         <v>0</v>
       </c>
       <c r="F4" s="6">
+        <f>'User Entry'!O4</f>
         <v>0</v>
       </c>
       <c r="G4" s="6">
+        <f>'User Entry'!V4</f>
         <v>0</v>
       </c>
       <c r="H4" s="6">
-        <v>5</v>
+        <f>'User Entry'!N4</f>
+        <v>0</v>
       </c>
       <c r="I4" s="6">
+        <f>'User Entry'!Q4</f>
         <v>0</v>
       </c>
       <c r="J4" s="6">
+        <f>'User Entry'!S4+'User Entry'!U4</f>
         <v>0</v>
       </c>
       <c r="K4" s="6">
+        <f>'User Entry'!W4</f>
         <v>0</v>
       </c>
       <c r="L4" s="6">
-        <v>5</v>
+        <f>'User Entry'!K4</f>
+        <v>0</v>
       </c>
       <c r="M4" s="6">
+        <f>'User Entry'!L4</f>
         <v>0</v>
       </c>
       <c r="N4" s="6">
+        <f>'User Entry'!R4+'User Entry'!T4</f>
         <v>0</v>
       </c>
       <c r="O4" s="6">
+        <f>'User Entry'!B4</f>
         <v>0</v>
       </c>
       <c r="P4" s="6">
+        <f>'User Entry'!C4</f>
         <v>0</v>
       </c>
       <c r="Q4" s="6">
-        <v>5</v>
+        <f>'User Entry'!D4</f>
+        <v>0</v>
       </c>
       <c r="R4" s="6">
+        <f>'User Entry'!F4</f>
         <v>0</v>
       </c>
       <c r="S4" s="6">
+        <f>'User Entry'!G4</f>
         <v>0</v>
       </c>
       <c r="T4" s="6">
-        <v>5</v>
+        <f>'User Entry'!E4</f>
+        <v>0</v>
       </c>
       <c r="U4" s="6">
-        <v>80</v>
+        <f>'User Entry'!H4</f>
+        <v>10</v>
       </c>
       <c r="V4" s="6">
+        <f>'User Entry'!I4</f>
         <v>0</v>
       </c>
       <c r="W4" s="6">
-        <v>0</v>
+        <f>'User Entry'!J4</f>
+        <v>90</v>
       </c>
       <c r="X4" s="6">
+        <f>D4+E4+F4</f>
         <v>0</v>
       </c>
       <c r="Y4" s="6">
+        <f>G4+H4+I4+J4+K4+N4</f>
         <v>0</v>
       </c>
       <c r="Z4" s="6">
-        <v>10</v>
+        <f>L4+M4</f>
+        <v>0</v>
       </c>
       <c r="AA4" s="6">
-        <v>85</v>
+        <f>O4+P4+Q4+R4+S4+T4+U4+V4+W4</f>
+        <v>100</v>
       </c>
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
@@ -3256,16 +3759,17 @@
       <c r="AE4" s="6"/>
       <c r="AF4" s="6"/>
       <c r="AG4" s="6">
-        <v>1</v>
+        <f>'User Entry'!Z4</f>
+        <v>2</v>
       </c>
       <c r="AP4" s="25">
         <f>SUM(D4:M4,O4:V4)</f>
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C5" s="8">
         <f>C4</f>
@@ -3289,7 +3793,7 @@
       </c>
       <c r="H5" s="8">
         <f t="shared" si="0"/>
-        <v>2.2360679774997898</v>
+        <v>0</v>
       </c>
       <c r="I5" s="8">
         <f t="shared" si="0"/>
@@ -3305,14 +3809,14 @@
       </c>
       <c r="L5" s="8">
         <f t="shared" si="0"/>
-        <v>2.2360679774997898</v>
+        <v>0</v>
       </c>
       <c r="M5" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N5" s="8">
-        <f>IF(AND(O4&lt;30,P4&lt;20,G4&lt;20, K4&lt;20),J4^0.5,0)</f>
+        <f>IF(AND(O4&lt;30,P4&lt;20,G4&lt;20, K4&lt;20),N4^0.5,0)</f>
         <v>0</v>
       </c>
       <c r="O5" s="8">
@@ -3325,7 +3829,7 @@
       </c>
       <c r="Q5" s="8">
         <f t="shared" si="0"/>
-        <v>2.2360679774997898</v>
+        <v>0</v>
       </c>
       <c r="R5" s="8">
         <f t="shared" si="0"/>
@@ -3337,11 +3841,11 @@
       </c>
       <c r="T5" s="8">
         <f t="shared" si="0"/>
-        <v>2.2360679774997898</v>
+        <v>0</v>
       </c>
       <c r="U5" s="8">
         <f t="shared" si="0"/>
-        <v>8.9442719099991592</v>
+        <v>3.1622776601683795</v>
       </c>
       <c r="V5" s="8">
         <f t="shared" si="0"/>
@@ -3349,7 +3853,7 @@
       </c>
       <c r="W5" s="8">
         <f>IF(OR(O4&gt;10,P4&gt;10,Q4&gt;10,G4&gt;10,K4&gt;10),0,W4^0.5)</f>
-        <v>0</v>
+        <v>9.4868329805051381</v>
       </c>
       <c r="X5" s="8">
         <f t="shared" si="0"/>
@@ -3361,11 +3865,11 @@
       </c>
       <c r="Z5" s="8">
         <f t="shared" si="0"/>
-        <v>3.1622776601683795</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="8">
         <f t="shared" si="0"/>
-        <v>9.2195444572928871</v>
+        <v>10</v>
       </c>
       <c r="AB5" s="8">
         <f>IF(P4&gt;=50,1,0)</f>
@@ -3389,7 +3893,7 @@
       </c>
       <c r="AG5" s="8">
         <f>IF(AG4&lt;=1,1,IF(AG4=2,2,IF(AG4&gt;=3,3)))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:42" x14ac:dyDescent="0.25">
@@ -5949,106 +6453,106 @@
         <v>0</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I34" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J34" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K34" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L34" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M34" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N34" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O34" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P34" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q34" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R34" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S34" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T34" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U34" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V34" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W34" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="X34" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Y34" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Z34" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AA34" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AB34" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC34" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AD34" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AE34" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AF34" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AG34" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AH34" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AJ34" s="15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AK34" s="15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="2:37" x14ac:dyDescent="0.25">
@@ -6077,7 +6581,7 @@
       </c>
       <c r="H35" s="8">
         <f t="shared" si="1"/>
-        <v>-3.6363831877292578</v>
+        <v>0</v>
       </c>
       <c r="I35" s="8">
         <f t="shared" si="1"/>
@@ -6093,7 +6597,7 @@
       </c>
       <c r="L35" s="8">
         <f t="shared" si="1"/>
-        <v>3.9273627136413056</v>
+        <v>0</v>
       </c>
       <c r="M35" s="8">
         <f t="shared" si="1"/>
@@ -6113,7 +6617,7 @@
       </c>
       <c r="Q35" s="8">
         <f t="shared" si="1"/>
-        <v>9.2415124262482067</v>
+        <v>0</v>
       </c>
       <c r="R35" s="8">
         <f t="shared" si="1"/>
@@ -6125,11 +6629,11 @@
       </c>
       <c r="T35" s="8">
         <f t="shared" si="1"/>
-        <v>7.5812543136343873</v>
+        <v>0</v>
       </c>
       <c r="U35" s="8">
         <f t="shared" si="1"/>
-        <v>-63.578389132408823</v>
+        <v>-22.478355046221687</v>
       </c>
       <c r="V35" s="8">
         <f t="shared" si="1"/>
@@ -6137,7 +6641,7 @@
       </c>
       <c r="W35" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.3363718094343273</v>
       </c>
       <c r="X35" s="8">
         <f t="shared" si="1"/>
@@ -6149,11 +6653,11 @@
       </c>
       <c r="Z35" s="8">
         <f t="shared" si="1"/>
-        <v>38.545856214760626</v>
+        <v>0</v>
       </c>
       <c r="AA35" s="8">
         <f t="shared" si="1"/>
-        <v>241.58811319990167</v>
+        <v>262.03910000000002</v>
       </c>
       <c r="AB35" s="8">
         <f t="shared" si="1"/>
@@ -6177,17 +6681,17 @@
       </c>
       <c r="AG35" s="17">
         <f t="shared" si="1"/>
-        <v>30.567209999999999</v>
+        <v>61.134419999999999</v>
       </c>
       <c r="AH35" s="18">
         <f>SUM(C35:AG35)</f>
-        <v>65.1911165480481</v>
+        <v>110.98611676321266</v>
       </c>
       <c r="AJ35" s="19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AK35" s="19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="2:37" x14ac:dyDescent="0.25">
@@ -6216,7 +6720,7 @@
       </c>
       <c r="H36" s="8">
         <f t="shared" si="2"/>
-        <v>-6.2203386211684659</v>
+        <v>0</v>
       </c>
       <c r="I36" s="8">
         <f t="shared" si="2"/>
@@ -6232,7 +6736,7 @@
       </c>
       <c r="L36" s="8">
         <f t="shared" si="2"/>
-        <v>5.5691509047609769</v>
+        <v>0</v>
       </c>
       <c r="M36" s="8">
         <f t="shared" si="2"/>
@@ -6252,7 +6756,7 @@
       </c>
       <c r="Q36" s="8">
         <f t="shared" si="2"/>
-        <v>6.0989424906700016</v>
+        <v>0</v>
       </c>
       <c r="R36" s="8">
         <f t="shared" si="2"/>
@@ -6264,11 +6768,11 @@
       </c>
       <c r="T36" s="8">
         <f t="shared" si="1"/>
-        <v>11.848790048692736</v>
+        <v>0</v>
       </c>
       <c r="U36" s="8">
         <f t="shared" si="1"/>
-        <v>-84.18751213927159</v>
+        <v>-29.764780362451862</v>
       </c>
       <c r="V36" s="8">
         <f t="shared" si="1"/>
@@ -6276,7 +6780,7 @@
       </c>
       <c r="W36" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.0165424117613115</v>
       </c>
       <c r="X36" s="8">
         <f t="shared" si="1"/>
@@ -6288,11 +6792,11 @@
       </c>
       <c r="Z36" s="8">
         <f t="shared" si="1"/>
-        <v>36.453883051452834</v>
+        <v>0</v>
       </c>
       <c r="AA36" s="8">
         <f t="shared" si="1"/>
-        <v>285.69542803348111</v>
+        <v>309.8802</v>
       </c>
       <c r="AB36" s="8">
         <f t="shared" si="1"/>
@@ -6316,17 +6820,17 @@
       </c>
       <c r="AG36" s="17">
         <f t="shared" si="1"/>
-        <v>26.47364</v>
+        <v>52.947279999999999</v>
       </c>
       <c r="AH36" s="18">
         <f t="shared" ref="AH36:AH59" si="3">SUM(C36:AG36)</f>
-        <v>-318.97210623138238</v>
+        <v>-262.62484795069059</v>
       </c>
       <c r="AJ36" s="19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AK36" s="19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="2:37" x14ac:dyDescent="0.25">
@@ -6355,7 +6859,7 @@
       </c>
       <c r="H37" s="8">
         <f t="shared" si="1"/>
-        <v>-4.5299606728977251</v>
+        <v>0</v>
       </c>
       <c r="I37" s="8">
         <f t="shared" si="1"/>
@@ -6371,7 +6875,7 @@
       </c>
       <c r="L37" s="8">
         <f t="shared" si="1"/>
-        <v>-0.17948917655390811</v>
+        <v>0</v>
       </c>
       <c r="M37" s="8">
         <f t="shared" si="1"/>
@@ -6391,7 +6895,7 @@
       </c>
       <c r="Q37" s="8">
         <f t="shared" si="1"/>
-        <v>16.384229088135335</v>
+        <v>0</v>
       </c>
       <c r="R37" s="8">
         <f t="shared" si="1"/>
@@ -6403,11 +6907,11 @@
       </c>
       <c r="T37" s="8">
         <f t="shared" si="1"/>
-        <v>13.901276845239794</v>
+        <v>0</v>
       </c>
       <c r="U37" s="8">
         <f t="shared" si="1"/>
-        <v>-63.004524646663278</v>
+        <v>-22.275463311545288</v>
       </c>
       <c r="V37" s="8">
         <f t="shared" si="1"/>
@@ -6415,7 +6919,7 @@
       </c>
       <c r="W37" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18.868741588245889</v>
       </c>
       <c r="X37" s="8">
         <f t="shared" si="1"/>
@@ -6427,11 +6931,11 @@
       </c>
       <c r="Z37" s="8">
         <f t="shared" si="1"/>
-        <v>38.500857003656428</v>
+        <v>0</v>
       </c>
       <c r="AA37" s="8">
         <f t="shared" si="1"/>
-        <v>235.87725077672073</v>
+        <v>255.84479999999999</v>
       </c>
       <c r="AB37" s="8">
         <f t="shared" si="1"/>
@@ -6455,17 +6959,17 @@
       </c>
       <c r="AG37" s="17">
         <f t="shared" si="1"/>
-        <v>36.457509999999999</v>
+        <v>72.915019999999998</v>
       </c>
       <c r="AH37" s="18">
         <f t="shared" si="3"/>
-        <v>53.78180921763736</v>
+        <v>105.7277582767006</v>
       </c>
       <c r="AJ37" s="19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK37" s="19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="2:37" x14ac:dyDescent="0.25">
@@ -6494,7 +6998,7 @@
       </c>
       <c r="H38" s="8">
         <f t="shared" si="1"/>
-        <v>-5.2538653199335066</v>
+        <v>0</v>
       </c>
       <c r="I38" s="8">
         <f t="shared" si="1"/>
@@ -6510,7 +7014,7 @@
       </c>
       <c r="L38" s="8">
         <f t="shared" si="1"/>
-        <v>3.6101093889936355</v>
+        <v>0</v>
       </c>
       <c r="M38" s="8">
         <f t="shared" si="1"/>
@@ -6530,7 +7034,7 @@
       </c>
       <c r="Q38" s="8">
         <f t="shared" si="1"/>
-        <v>5.4209219585325155</v>
+        <v>0</v>
       </c>
       <c r="R38" s="8">
         <f t="shared" si="1"/>
@@ -6542,11 +7046,11 @@
       </c>
       <c r="T38" s="8">
         <f t="shared" si="1"/>
-        <v>3.8711926860465109</v>
+        <v>0</v>
       </c>
       <c r="U38" s="8">
         <f t="shared" si="1"/>
-        <v>-44.296059420675334</v>
+        <v>-15.661021998100891</v>
       </c>
       <c r="V38" s="8">
         <f t="shared" si="1"/>
@@ -6554,7 +7058,7 @@
       </c>
       <c r="W38" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.474004562556317</v>
       </c>
       <c r="X38" s="8">
         <f t="shared" si="1"/>
@@ -6566,11 +7070,11 @@
       </c>
       <c r="Z38" s="8">
         <f t="shared" si="1"/>
-        <v>47.011463247690983</v>
+        <v>0</v>
       </c>
       <c r="AA38" s="8">
         <f t="shared" si="1"/>
-        <v>246.94798756559345</v>
+        <v>267.85270000000003</v>
       </c>
       <c r="AB38" s="8">
         <f t="shared" si="1"/>
@@ -6594,17 +7098,17 @@
       </c>
       <c r="AG38" s="17">
         <f t="shared" si="1"/>
-        <v>30.20553</v>
+        <v>60.411059999999999</v>
       </c>
       <c r="AH38" s="18">
         <f t="shared" si="3"/>
-        <v>65.954230106248232</v>
+        <v>97.513692564455454</v>
       </c>
       <c r="AJ38" s="19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK38" s="19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="2:37" x14ac:dyDescent="0.25">
@@ -6633,7 +7137,7 @@
       </c>
       <c r="H39" s="8">
         <f t="shared" si="1"/>
-        <v>-1.6243468608951723</v>
+        <v>0</v>
       </c>
       <c r="I39" s="8">
         <f t="shared" si="1"/>
@@ -6649,7 +7153,7 @@
       </c>
       <c r="L39" s="8">
         <f t="shared" si="1"/>
-        <v>-0.61465036565514231</v>
+        <v>0</v>
       </c>
       <c r="M39" s="8">
         <f t="shared" si="1"/>
@@ -6669,7 +7173,7 @@
       </c>
       <c r="Q39" s="8">
         <f t="shared" si="1"/>
-        <v>28.218641219732746</v>
+        <v>0</v>
       </c>
       <c r="R39" s="8">
         <f t="shared" si="1"/>
@@ -6681,11 +7185,11 @@
       </c>
       <c r="T39" s="8">
         <f t="shared" si="1"/>
-        <v>21.454356702357686</v>
+        <v>0</v>
       </c>
       <c r="U39" s="8">
         <f t="shared" si="1"/>
-        <v>-86.524382061197059</v>
+        <v>-30.590988646724053</v>
       </c>
       <c r="V39" s="8">
         <f t="shared" si="1"/>
@@ -6693,7 +7197,7 @@
       </c>
       <c r="W39" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>25.900856535045321</v>
       </c>
       <c r="X39" s="8">
         <f t="shared" si="1"/>
@@ -6705,11 +7209,11 @@
       </c>
       <c r="Z39" s="8">
         <f t="shared" si="1"/>
-        <v>32.39301257137101</v>
+        <v>0</v>
       </c>
       <c r="AA39" s="8">
         <f t="shared" si="1"/>
-        <v>261.02042363887159</v>
+        <v>283.1164</v>
       </c>
       <c r="AB39" s="8">
         <f t="shared" si="1"/>
@@ -6733,17 +7237,17 @@
       </c>
       <c r="AG39" s="17">
         <f t="shared" si="1"/>
-        <v>33.236789999999999</v>
+        <v>66.473579999999998</v>
       </c>
       <c r="AH39" s="18">
         <f t="shared" si="3"/>
-        <v>46.988224844585673</v>
+        <v>104.32822788832127</v>
       </c>
       <c r="AJ39" s="19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK39" s="19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="2:37" x14ac:dyDescent="0.25">
@@ -6772,7 +7276,7 @@
       </c>
       <c r="H40" s="8">
         <f t="shared" si="1"/>
-        <v>-3.6174884133193852</v>
+        <v>0</v>
       </c>
       <c r="I40" s="8">
         <f t="shared" si="1"/>
@@ -6788,7 +7292,7 @@
       </c>
       <c r="L40" s="8">
         <f t="shared" si="1"/>
-        <v>-0.39509085094443791</v>
+        <v>0</v>
       </c>
       <c r="M40" s="8">
         <f t="shared" si="1"/>
@@ -6808,7 +7312,7 @@
       </c>
       <c r="Q40" s="8">
         <f t="shared" si="1"/>
-        <v>8.1010059543244388</v>
+        <v>0</v>
       </c>
       <c r="R40" s="8">
         <f t="shared" si="1"/>
@@ -6820,11 +7324,11 @@
       </c>
       <c r="T40" s="8">
         <f t="shared" si="1"/>
-        <v>36.198921863951973</v>
+        <v>0</v>
       </c>
       <c r="U40" s="8">
         <f t="shared" si="1"/>
-        <v>-74.868385793524368</v>
+        <v>-26.469971645545829</v>
       </c>
       <c r="V40" s="8">
         <f t="shared" si="1"/>
@@ -6832,7 +7336,7 @@
       </c>
       <c r="W40" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19.287016054356361</v>
       </c>
       <c r="X40" s="8">
         <f t="shared" si="1"/>
@@ -6844,11 +7348,11 @@
       </c>
       <c r="Z40" s="8">
         <f t="shared" si="1"/>
-        <v>40.415647749664984</v>
+        <v>0</v>
       </c>
       <c r="AA40" s="8">
         <f t="shared" si="1"/>
-        <v>257.0898552503939</v>
+        <v>278.85309999999998</v>
       </c>
       <c r="AB40" s="8">
         <f t="shared" si="1"/>
@@ -6872,17 +7376,17 @@
       </c>
       <c r="AG40" s="17">
         <f t="shared" si="1"/>
-        <v>29.070689999999999</v>
+        <v>58.141379999999998</v>
       </c>
       <c r="AH40" s="18">
         <f t="shared" si="3"/>
-        <v>56.208465760547128</v>
+        <v>94.024834408810534</v>
       </c>
       <c r="AJ40" s="19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK40" s="19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="2:37" x14ac:dyDescent="0.25">
@@ -6911,7 +7415,7 @@
       </c>
       <c r="H41" s="8">
         <f t="shared" si="1"/>
-        <v>-3.5903425480725377</v>
+        <v>0</v>
       </c>
       <c r="I41" s="8">
         <f t="shared" si="1"/>
@@ -6927,7 +7431,7 @@
       </c>
       <c r="L41" s="8">
         <f t="shared" si="1"/>
-        <v>10.950583902810845</v>
+        <v>0</v>
       </c>
       <c r="M41" s="8">
         <f t="shared" si="1"/>
@@ -6947,7 +7451,7 @@
       </c>
       <c r="Q41" s="8">
         <f t="shared" si="1"/>
-        <v>3.8438232140019135</v>
+        <v>0</v>
       </c>
       <c r="R41" s="8">
         <f t="shared" si="1"/>
@@ -6959,11 +7463,11 @@
       </c>
       <c r="T41" s="8">
         <f t="shared" si="1"/>
-        <v>2.0391821920809332</v>
+        <v>0</v>
       </c>
       <c r="U41" s="8">
         <f t="shared" si="1"/>
-        <v>-50.823499617873622</v>
+        <v>-17.968820611715174</v>
       </c>
       <c r="V41" s="8">
         <f t="shared" si="1"/>
@@ -6971,7 +7475,7 @@
       </c>
       <c r="W41" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.0832277831392165</v>
       </c>
       <c r="X41" s="8">
         <f t="shared" si="1"/>
@@ -6983,11 +7487,11 @@
       </c>
       <c r="Z41" s="8">
         <f t="shared" si="1"/>
-        <v>26.167942506223142</v>
+        <v>0</v>
       </c>
       <c r="AA41" s="8">
         <f t="shared" si="1"/>
-        <v>221.34125600812987</v>
+        <v>240.07829999999998</v>
       </c>
       <c r="AB41" s="8">
         <f t="shared" si="1"/>
@@ -7011,17 +7515,17 @@
       </c>
       <c r="AG41" s="17">
         <f t="shared" si="1"/>
-        <v>31.487380000000002</v>
+        <v>62.974760000000003</v>
       </c>
       <c r="AH41" s="18">
         <f t="shared" si="3"/>
-        <v>58.927795657300578</v>
+        <v>106.67893717142402</v>
       </c>
       <c r="AJ41" s="19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK41" s="19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="2:37" x14ac:dyDescent="0.25">
@@ -7050,7 +7554,7 @@
       </c>
       <c r="H42" s="8">
         <f t="shared" si="1"/>
-        <v>-2.0688995355019055</v>
+        <v>0</v>
       </c>
       <c r="I42" s="8">
         <f t="shared" si="1"/>
@@ -7066,7 +7570,7 @@
       </c>
       <c r="L42" s="8">
         <f t="shared" si="1"/>
-        <v>11.460675729838098</v>
+        <v>0</v>
       </c>
       <c r="M42" s="8">
         <f t="shared" si="1"/>
@@ -7086,7 +7590,7 @@
       </c>
       <c r="Q42" s="8">
         <f t="shared" si="1"/>
-        <v>1.1153507071768951</v>
+        <v>0</v>
       </c>
       <c r="R42" s="8">
         <f t="shared" si="1"/>
@@ -7098,11 +7602,11 @@
       </c>
       <c r="T42" s="8">
         <f t="shared" si="1"/>
-        <v>1.3489974501458482</v>
+        <v>0</v>
       </c>
       <c r="U42" s="8">
         <f t="shared" si="1"/>
-        <v>-62.922595115967681</v>
+        <v>-22.246496848178143</v>
       </c>
       <c r="V42" s="8">
         <f t="shared" si="1"/>
@@ -7110,7 +7614,7 @@
       </c>
       <c r="W42" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.0353334055377585</v>
       </c>
       <c r="X42" s="8">
         <f t="shared" si="1"/>
@@ -7122,11 +7626,11 @@
       </c>
       <c r="Z42" s="8">
         <f t="shared" si="1"/>
-        <v>27.267498071440293</v>
+        <v>0</v>
       </c>
       <c r="AA42" s="8">
         <f t="shared" si="1"/>
-        <v>237.52616630290754</v>
+        <v>257.63330000000002</v>
       </c>
       <c r="AB42" s="8">
         <f t="shared" si="1"/>
@@ -7150,17 +7654,17 @@
       </c>
       <c r="AG42" s="17">
         <f t="shared" si="1"/>
-        <v>28.875810000000001</v>
+        <v>57.751620000000003</v>
       </c>
       <c r="AH42" s="18">
         <f t="shared" si="3"/>
-        <v>60.800163610039078</v>
+        <v>117.37091655735964</v>
       </c>
       <c r="AJ42" s="19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AK42" s="19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="2:37" x14ac:dyDescent="0.25">
@@ -7189,7 +7693,7 @@
       </c>
       <c r="H43" s="8">
         <f t="shared" si="1"/>
-        <v>-2.938170961754949</v>
+        <v>0</v>
       </c>
       <c r="I43" s="8">
         <f t="shared" si="1"/>
@@ -7205,7 +7709,7 @@
       </c>
       <c r="L43" s="8">
         <f t="shared" si="1"/>
-        <v>6.5040509261536386</v>
+        <v>0</v>
       </c>
       <c r="M43" s="8">
         <f t="shared" si="1"/>
@@ -7225,7 +7729,7 @@
       </c>
       <c r="Q43" s="8">
         <f t="shared" si="1"/>
-        <v>19.09886033417963</v>
+        <v>0</v>
       </c>
       <c r="R43" s="8">
         <f t="shared" si="1"/>
@@ -7237,11 +7741,11 @@
       </c>
       <c r="T43" s="8">
         <f t="shared" si="1"/>
-        <v>15.712201218177547</v>
+        <v>0</v>
       </c>
       <c r="U43" s="8">
         <f t="shared" si="1"/>
-        <v>-65.581727154810437</v>
+        <v>-23.1866419965462</v>
       </c>
       <c r="V43" s="8">
         <f t="shared" si="1"/>
@@ -7249,7 +7753,7 @@
       </c>
       <c r="W43" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14.519882481652528</v>
       </c>
       <c r="X43" s="8">
         <f t="shared" si="1"/>
@@ -7261,11 +7765,11 @@
       </c>
       <c r="Z43" s="8">
         <f t="shared" si="1"/>
-        <v>35.969833210010862</v>
+        <v>0</v>
       </c>
       <c r="AA43" s="8">
         <f t="shared" si="1"/>
-        <v>247.51793980394331</v>
+        <v>268.47090000000003</v>
       </c>
       <c r="AB43" s="8">
         <f t="shared" si="1"/>
@@ -7289,17 +7793,17 @@
       </c>
       <c r="AG43" s="17">
         <f t="shared" si="1"/>
-        <v>29.00347</v>
+        <v>58.00694</v>
       </c>
       <c r="AH43" s="18">
         <f t="shared" si="3"/>
-        <v>72.411227375899557</v>
+        <v>104.93585048510637</v>
       </c>
       <c r="AJ43" s="19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AK43" s="19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="2:37" x14ac:dyDescent="0.25">
@@ -7328,7 +7832,7 @@
       </c>
       <c r="H44" s="8">
         <f t="shared" si="2"/>
-        <v>-3.8826860754508603</v>
+        <v>0</v>
       </c>
       <c r="I44" s="8">
         <f t="shared" si="2"/>
@@ -7344,7 +7848,7 @@
       </c>
       <c r="L44" s="8">
         <f t="shared" si="2"/>
-        <v>4.5433770807627232</v>
+        <v>0</v>
       </c>
       <c r="M44" s="8">
         <f t="shared" si="2"/>
@@ -7364,7 +7868,7 @@
       </c>
       <c r="Q44" s="8">
         <f t="shared" si="2"/>
-        <v>6.5713342115966071</v>
+        <v>0</v>
       </c>
       <c r="R44" s="8">
         <f t="shared" si="2"/>
@@ -7376,11 +7880,11 @@
       </c>
       <c r="T44" s="8">
         <f t="shared" si="4"/>
-        <v>11.49151110724782</v>
+        <v>0</v>
       </c>
       <c r="U44" s="8">
         <f t="shared" si="4"/>
-        <v>-56.058671409515227</v>
+        <v>-19.819733348988326</v>
       </c>
       <c r="V44" s="8">
         <f t="shared" si="4"/>
@@ -7388,7 +7892,7 @@
       </c>
       <c r="W44" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6.3393864025629485</v>
       </c>
       <c r="X44" s="8">
         <f t="shared" si="4"/>
@@ -7400,11 +7904,11 @@
       </c>
       <c r="Z44" s="8">
         <f t="shared" si="4"/>
-        <v>36.198940226490059</v>
+        <v>0</v>
       </c>
       <c r="AA44" s="8">
         <f t="shared" si="4"/>
-        <v>232.68857913072142</v>
+        <v>252.3862</v>
       </c>
       <c r="AB44" s="8">
         <f t="shared" si="4"/>
@@ -7428,17 +7932,17 @@
       </c>
       <c r="AG44" s="17">
         <f t="shared" si="4"/>
-        <v>26.906220000000001</v>
+        <v>53.812440000000002</v>
       </c>
       <c r="AH44" s="18">
         <f t="shared" si="3"/>
-        <v>65.454584271852539</v>
+        <v>99.71427305357463</v>
       </c>
       <c r="AJ44" s="19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AK44" s="19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="2:37" x14ac:dyDescent="0.25">
@@ -7467,7 +7971,7 @@
       </c>
       <c r="H45" s="8">
         <f t="shared" si="4"/>
-        <v>-2.9217358621203253</v>
+        <v>0</v>
       </c>
       <c r="I45" s="8">
         <f t="shared" si="4"/>
@@ -7483,7 +7987,7 @@
       </c>
       <c r="L45" s="8">
         <f t="shared" si="4"/>
-        <v>-11.317276690441036</v>
+        <v>0</v>
       </c>
       <c r="M45" s="8">
         <f t="shared" si="4"/>
@@ -7503,7 +8007,7 @@
       </c>
       <c r="Q45" s="8">
         <f t="shared" si="4"/>
-        <v>4.8462301276352946</v>
+        <v>0</v>
       </c>
       <c r="R45" s="8">
         <f t="shared" si="4"/>
@@ -7515,11 +8019,11 @@
       </c>
       <c r="T45" s="8">
         <f t="shared" si="4"/>
-        <v>10.0971438378385</v>
+        <v>0</v>
       </c>
       <c r="U45" s="8">
         <f t="shared" si="4"/>
-        <v>-52.0984161359249</v>
+        <v>-18.419571669395573</v>
       </c>
       <c r="V45" s="8">
         <f t="shared" si="4"/>
@@ -7527,7 +8031,7 @@
       </c>
       <c r="W45" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>19.497339141534162</v>
       </c>
       <c r="X45" s="8">
         <f t="shared" si="4"/>
@@ -7539,11 +8043,11 @@
       </c>
       <c r="Z45" s="8">
         <f t="shared" si="4"/>
-        <v>58.216235189859205</v>
+        <v>0</v>
       </c>
       <c r="AA45" s="8">
         <f t="shared" si="4"/>
-        <v>219.98930200891246</v>
+        <v>238.61189999999999</v>
       </c>
       <c r="AB45" s="8">
         <f t="shared" si="4"/>
@@ -7567,17 +8071,17 @@
       </c>
       <c r="AG45" s="17">
         <f t="shared" si="4"/>
-        <v>29.119959999999999</v>
+        <v>58.239919999999998</v>
       </c>
       <c r="AH45" s="18">
         <f t="shared" si="3"/>
-        <v>67.313652475759142</v>
+        <v>109.31179747213857</v>
       </c>
       <c r="AJ45" s="19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AK45" s="19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="2:37" x14ac:dyDescent="0.25">
@@ -7606,7 +8110,7 @@
       </c>
       <c r="H46" s="8">
         <f t="shared" si="4"/>
-        <v>-0.88485682005621691</v>
+        <v>0</v>
       </c>
       <c r="I46" s="8">
         <f t="shared" si="4"/>
@@ -7622,7 +8126,7 @@
       </c>
       <c r="L46" s="8">
         <f t="shared" si="4"/>
-        <v>0.15779931717216014</v>
+        <v>0</v>
       </c>
       <c r="M46" s="8">
         <f t="shared" si="4"/>
@@ -7642,7 +8146,7 @@
       </c>
       <c r="Q46" s="8">
         <f t="shared" si="4"/>
-        <v>1.2422028435404582</v>
+        <v>0</v>
       </c>
       <c r="R46" s="8">
         <f t="shared" si="4"/>
@@ -7654,11 +8158,11 @@
       </c>
       <c r="T46" s="8">
         <f t="shared" si="4"/>
-        <v>13.217308372282158</v>
+        <v>0</v>
       </c>
       <c r="U46" s="8">
         <f t="shared" si="4"/>
-        <v>-62.251059180964951</v>
+        <v>-22.009073041452702</v>
       </c>
       <c r="V46" s="8">
         <f t="shared" si="4"/>
@@ -7666,7 +8170,7 @@
       </c>
       <c r="W46" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8.5495338820312305</v>
       </c>
       <c r="X46" s="8">
         <f t="shared" si="4"/>
@@ -7678,11 +8182,11 @@
       </c>
       <c r="Z46" s="8">
         <f t="shared" si="4"/>
-        <v>38.487227586941103</v>
+        <v>0</v>
       </c>
       <c r="AA46" s="8">
         <f t="shared" si="4"/>
-        <v>230.62791874907188</v>
+        <v>250.15109999999999</v>
       </c>
       <c r="AB46" s="8">
         <f t="shared" si="4"/>
@@ -7706,17 +8210,17 @@
       </c>
       <c r="AG46" s="17">
         <f t="shared" si="4"/>
-        <v>28.841049999999999</v>
+        <v>57.682099999999998</v>
       </c>
       <c r="AH46" s="18">
         <f t="shared" si="3"/>
-        <v>65.837910867986608</v>
+        <v>110.7739808405785</v>
       </c>
       <c r="AJ46" s="19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AK46" s="19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="2:37" x14ac:dyDescent="0.25">
@@ -7745,7 +8249,7 @@
       </c>
       <c r="H47" s="8">
         <f t="shared" si="4"/>
-        <v>-4.0947100410773904</v>
+        <v>0</v>
       </c>
       <c r="I47" s="8">
         <f t="shared" si="4"/>
@@ -7761,7 +8265,7 @@
       </c>
       <c r="L47" s="8">
         <f t="shared" si="4"/>
-        <v>4.885070628404466</v>
+        <v>0</v>
       </c>
       <c r="M47" s="8">
         <f t="shared" si="4"/>
@@ -7781,7 +8285,7 @@
       </c>
       <c r="Q47" s="8">
         <f t="shared" si="4"/>
-        <v>2.8359379338236583</v>
+        <v>0</v>
       </c>
       <c r="R47" s="8">
         <f t="shared" si="4"/>
@@ -7793,11 +8297,11 @@
       </c>
       <c r="T47" s="8">
         <f t="shared" si="4"/>
-        <v>2.4759086287664172</v>
+        <v>0</v>
       </c>
       <c r="U47" s="8">
         <f t="shared" si="4"/>
-        <v>-23.200278579189519</v>
+        <v>-8.2025371543809538</v>
       </c>
       <c r="V47" s="8">
         <f t="shared" si="4"/>
@@ -7805,7 +8309,7 @@
       </c>
       <c r="W47" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3.4483689200838126</v>
       </c>
       <c r="X47" s="8">
         <f t="shared" si="4"/>
@@ -7817,11 +8321,11 @@
       </c>
       <c r="Z47" s="8">
         <f t="shared" si="4"/>
-        <v>42.224407325728095</v>
+        <v>0</v>
       </c>
       <c r="AA47" s="8">
         <f t="shared" si="4"/>
-        <v>237.7865262383815</v>
+        <v>257.91570000000002</v>
       </c>
       <c r="AB47" s="8">
         <f t="shared" si="4"/>
@@ -7845,17 +8349,17 @@
       </c>
       <c r="AG47" s="17">
         <f t="shared" si="4"/>
-        <v>29.397659999999998</v>
+        <v>58.795319999999997</v>
       </c>
       <c r="AH47" s="18">
         <f t="shared" si="3"/>
-        <v>61.22410213483721</v>
+        <v>80.870431765702875</v>
       </c>
       <c r="AJ47" s="19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK47" s="19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="2:37" x14ac:dyDescent="0.25">
@@ -7884,7 +8388,7 @@
       </c>
       <c r="H48" s="8">
         <f t="shared" si="4"/>
-        <v>-11.722049715728048</v>
+        <v>0</v>
       </c>
       <c r="I48" s="8">
         <f t="shared" si="4"/>
@@ -7900,7 +8404,7 @@
       </c>
       <c r="L48" s="8">
         <f t="shared" si="4"/>
-        <v>2.1397828903886489</v>
+        <v>0</v>
       </c>
       <c r="M48" s="8">
         <f t="shared" si="4"/>
@@ -7920,7 +8424,7 @@
       </c>
       <c r="Q48" s="8">
         <f t="shared" si="4"/>
-        <v>4.4535765907863318</v>
+        <v>0</v>
       </c>
       <c r="R48" s="8">
         <f t="shared" si="4"/>
@@ -7932,11 +8436,11 @@
       </c>
       <c r="T48" s="8">
         <f t="shared" si="4"/>
-        <v>3.4133130462938794</v>
+        <v>0</v>
       </c>
       <c r="U48" s="8">
         <f t="shared" si="4"/>
-        <v>-23.502147756151988</v>
+        <v>-8.3092640254116361</v>
       </c>
       <c r="V48" s="8">
         <f t="shared" si="4"/>
@@ -7944,7 +8448,7 @@
       </c>
       <c r="W48" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>7.3429984635705878</v>
       </c>
       <c r="X48" s="8">
         <f t="shared" si="4"/>
@@ -7956,11 +8460,11 @@
       </c>
       <c r="Z48" s="8">
         <f t="shared" si="4"/>
-        <v>46.836367933647459</v>
+        <v>0</v>
       </c>
       <c r="AA48" s="8">
         <f t="shared" si="4"/>
-        <v>236.00862928523713</v>
+        <v>255.9873</v>
       </c>
       <c r="AB48" s="8">
         <f t="shared" si="4"/>
@@ -7984,17 +8488,17 @@
       </c>
       <c r="AG48" s="17">
         <f t="shared" si="4"/>
-        <v>26.374680000000001</v>
+        <v>52.749360000000003</v>
       </c>
       <c r="AH48" s="18">
         <f t="shared" si="3"/>
-        <v>45.2151622744734</v>
+        <v>68.983404438158942</v>
       </c>
       <c r="AJ48" s="19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK48" s="19" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="2:94" x14ac:dyDescent="0.25">
@@ -8023,7 +8527,7 @@
       </c>
       <c r="H49" s="8">
         <f t="shared" si="4"/>
-        <v>-3.5681160323761896</v>
+        <v>0</v>
       </c>
       <c r="I49" s="8">
         <f t="shared" si="4"/>
@@ -8039,7 +8543,7 @@
       </c>
       <c r="L49" s="8">
         <f t="shared" si="4"/>
-        <v>-3.6403410280494328</v>
+        <v>0</v>
       </c>
       <c r="M49" s="8">
         <f t="shared" si="4"/>
@@ -8059,7 +8563,7 @@
       </c>
       <c r="Q49" s="8">
         <f t="shared" si="4"/>
-        <v>3.2988934478852148</v>
+        <v>0</v>
       </c>
       <c r="R49" s="8">
         <f t="shared" si="4"/>
@@ -8071,11 +8575,11 @@
       </c>
       <c r="T49" s="8">
         <f t="shared" si="4"/>
-        <v>3.682490909425304</v>
+        <v>0</v>
       </c>
       <c r="U49" s="8">
         <f t="shared" si="4"/>
-        <v>-12.842364493814994</v>
+        <v>-4.5404615100229631</v>
       </c>
       <c r="V49" s="8">
         <f t="shared" si="4"/>
@@ -8083,7 +8587,7 @@
       </c>
       <c r="W49" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4.3865218335259657</v>
       </c>
       <c r="X49" s="8">
         <f t="shared" si="4"/>
@@ -8095,11 +8599,11 @@
       </c>
       <c r="Z49" s="8">
         <f t="shared" si="4"/>
-        <v>44.351450148287149</v>
+        <v>0</v>
       </c>
       <c r="AA49" s="8">
         <f t="shared" si="4"/>
-        <v>207.88523867726636</v>
+        <v>225.48320000000001</v>
       </c>
       <c r="AB49" s="8">
         <f t="shared" si="4"/>
@@ -8123,17 +8627,17 @@
       </c>
       <c r="AG49" s="17">
         <f t="shared" si="4"/>
-        <v>28.966460000000001</v>
+        <v>57.932920000000003</v>
       </c>
       <c r="AH49" s="18">
         <f t="shared" si="3"/>
-        <v>62.989231628623415</v>
+        <v>78.117700323503016</v>
       </c>
       <c r="AJ49" s="19" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK49" s="19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="2:94" x14ac:dyDescent="0.25">
@@ -8162,7 +8666,7 @@
       </c>
       <c r="H50" s="8">
         <f t="shared" si="4"/>
-        <v>-22.019567605030307</v>
+        <v>0</v>
       </c>
       <c r="I50" s="8">
         <f t="shared" si="4"/>
@@ -8178,7 +8682,7 @@
       </c>
       <c r="L50" s="8">
         <f t="shared" si="4"/>
-        <v>-3.2089364331503982</v>
+        <v>0</v>
       </c>
       <c r="M50" s="8">
         <f t="shared" si="4"/>
@@ -8198,7 +8702,7 @@
       </c>
       <c r="Q50" s="8">
         <f t="shared" si="4"/>
-        <v>4.0919149561055157</v>
+        <v>0</v>
       </c>
       <c r="R50" s="8">
         <f t="shared" si="4"/>
@@ -8210,11 +8714,11 @@
       </c>
       <c r="T50" s="8">
         <f t="shared" si="4"/>
-        <v>3.6230338619035845</v>
+        <v>0</v>
       </c>
       <c r="U50" s="8">
         <f t="shared" si="4"/>
-        <v>-18.035140436603204</v>
+        <v>-6.3763850511869187</v>
       </c>
       <c r="V50" s="8">
         <f t="shared" si="4"/>
@@ -8222,7 +8726,7 @@
       </c>
       <c r="W50" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>7.489475164789587</v>
       </c>
       <c r="X50" s="8">
         <f t="shared" si="4"/>
@@ -8234,11 +8738,11 @@
       </c>
       <c r="Z50" s="8">
         <f t="shared" si="4"/>
-        <v>42.338027962057943</v>
+        <v>0</v>
       </c>
       <c r="AA50" s="8">
         <f t="shared" si="4"/>
-        <v>189.91809824344938</v>
+        <v>205.99509999999998</v>
       </c>
       <c r="AB50" s="8">
         <f t="shared" si="4"/>
@@ -8262,17 +8766,17 @@
       </c>
       <c r="AG50" s="17">
         <f t="shared" si="4"/>
-        <v>26.31617</v>
+        <v>52.632339999999999</v>
       </c>
       <c r="AH50" s="18">
         <f t="shared" si="3"/>
-        <v>16.065230548732501</v>
+        <v>52.782160113602629</v>
       </c>
       <c r="AJ50" s="19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK50" s="19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="2:94" x14ac:dyDescent="0.25">
@@ -8301,7 +8805,7 @@
       </c>
       <c r="H51" s="8">
         <f t="shared" si="4"/>
-        <v>-1.7945563553424562</v>
+        <v>0</v>
       </c>
       <c r="I51" s="8">
         <f t="shared" si="4"/>
@@ -8317,7 +8821,7 @@
       </c>
       <c r="L51" s="8">
         <f t="shared" si="4"/>
-        <v>2.6711397238819239</v>
+        <v>0</v>
       </c>
       <c r="M51" s="8">
         <f t="shared" si="4"/>
@@ -8337,7 +8841,7 @@
       </c>
       <c r="Q51" s="8">
         <f t="shared" si="4"/>
-        <v>2.3773203916384515</v>
+        <v>0</v>
       </c>
       <c r="R51" s="8">
         <f t="shared" si="4"/>
@@ -8349,11 +8853,11 @@
       </c>
       <c r="T51" s="8">
         <f t="shared" si="4"/>
-        <v>2.4939313366650659</v>
+        <v>0</v>
       </c>
       <c r="U51" s="8">
         <f t="shared" si="4"/>
-        <v>-39.419910703501095</v>
+        <v>-13.937043086106897</v>
       </c>
       <c r="V51" s="8">
         <f t="shared" si="4"/>
@@ -8361,7 +8865,7 @@
       </c>
       <c r="W51" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.5142882803482303</v>
       </c>
       <c r="X51" s="8">
         <f t="shared" si="4"/>
@@ -8373,11 +8877,11 @@
       </c>
       <c r="Z51" s="8">
         <f t="shared" si="4"/>
-        <v>43.623651944799398</v>
+        <v>0</v>
       </c>
       <c r="AA51" s="8">
         <f t="shared" si="4"/>
-        <v>248.04243968811869</v>
+        <v>269.03980000000001</v>
       </c>
       <c r="AB51" s="8">
         <f t="shared" si="4"/>
@@ -8401,17 +8905,17 @@
       </c>
       <c r="AG51" s="17">
         <f t="shared" si="4"/>
-        <v>27.472049999999999</v>
+        <v>54.944099999999999</v>
       </c>
       <c r="AH51" s="18">
         <f t="shared" si="3"/>
-        <v>71.652186026259983</v>
+        <v>97.747265194241322</v>
       </c>
       <c r="AJ51" s="19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK51" s="19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="2:94" x14ac:dyDescent="0.25">
@@ -8440,7 +8944,7 @@
       </c>
       <c r="H52" s="8">
         <f t="shared" si="4"/>
-        <v>-5.8790922871222229</v>
+        <v>0</v>
       </c>
       <c r="I52" s="8">
         <f t="shared" si="4"/>
@@ -8456,7 +8960,7 @@
       </c>
       <c r="L52" s="8">
         <f t="shared" si="4"/>
-        <v>1.0480227003743765</v>
+        <v>0</v>
       </c>
       <c r="M52" s="8">
         <f t="shared" si="4"/>
@@ -8476,7 +8980,7 @@
       </c>
       <c r="Q52" s="8">
         <f t="shared" si="4"/>
-        <v>0.1074877876784149</v>
+        <v>0</v>
       </c>
       <c r="R52" s="8">
         <f t="shared" si="4"/>
@@ -8488,11 +8992,11 @@
       </c>
       <c r="T52" s="8">
         <f t="shared" si="4"/>
-        <v>2.6085074598321549</v>
+        <v>0</v>
       </c>
       <c r="U52" s="8">
         <f t="shared" si="4"/>
-        <v>8.4789014425219023</v>
+        <v>2.9977443535098187</v>
       </c>
       <c r="V52" s="8">
         <f t="shared" si="4"/>
@@ -8500,7 +9004,7 @@
       </c>
       <c r="W52" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-1.6877075872318641</v>
       </c>
       <c r="X52" s="8">
         <f t="shared" si="4"/>
@@ -8512,11 +9016,11 @@
       </c>
       <c r="Z52" s="8">
         <f t="shared" si="4"/>
-        <v>35.104918647178209</v>
+        <v>0</v>
       </c>
       <c r="AA52" s="8">
         <f t="shared" si="4"/>
-        <v>236.10027155714263</v>
+        <v>256.08670000000001</v>
       </c>
       <c r="AB52" s="8">
         <f t="shared" si="4"/>
@@ -8540,17 +9044,17 @@
       </c>
       <c r="AG52" s="17">
         <f t="shared" si="4"/>
-        <v>28.924779999999998</v>
+        <v>57.849559999999997</v>
       </c>
       <c r="AH52" s="18">
         <f t="shared" si="3"/>
-        <v>92.460907307605481</v>
+        <v>101.21340676627796</v>
       </c>
       <c r="AJ52" s="19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK52" s="19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="2:94" x14ac:dyDescent="0.25">
@@ -8579,7 +9083,7 @@
       </c>
       <c r="H53" s="8">
         <f t="shared" si="5"/>
-        <v>-7.7813600369408435</v>
+        <v>0</v>
       </c>
       <c r="I53" s="8">
         <f t="shared" si="5"/>
@@ -8595,7 +9099,7 @@
       </c>
       <c r="L53" s="8">
         <f t="shared" si="5"/>
-        <v>-3.3164689421883633</v>
+        <v>0</v>
       </c>
       <c r="M53" s="8">
         <f t="shared" si="5"/>
@@ -8615,7 +9119,7 @@
       </c>
       <c r="Q53" s="8">
         <f t="shared" si="5"/>
-        <v>0.36774373957961543</v>
+        <v>0</v>
       </c>
       <c r="R53" s="8">
         <f t="shared" si="5"/>
@@ -8627,11 +9131,11 @@
       </c>
       <c r="T53" s="8">
         <f t="shared" si="6"/>
-        <v>2.9537563555581223</v>
+        <v>0</v>
       </c>
       <c r="U53" s="8">
         <f t="shared" si="6"/>
-        <v>-52.101278302936102</v>
+        <v>-18.420583598246829</v>
       </c>
       <c r="V53" s="8">
         <f t="shared" si="6"/>
@@ -8639,7 +9143,7 @@
       </c>
       <c r="W53" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2.5766238375051955</v>
       </c>
       <c r="X53" s="8">
         <f t="shared" si="6"/>
@@ -8651,11 +9155,11 @@
       </c>
       <c r="Z53" s="8">
         <f t="shared" si="6"/>
-        <v>42.085614959223307</v>
+        <v>0</v>
       </c>
       <c r="AA53" s="8">
         <f t="shared" si="6"/>
-        <v>237.09293990885936</v>
+        <v>257.16339999999997</v>
       </c>
       <c r="AB53" s="8">
         <f t="shared" si="6"/>
@@ -8679,17 +9183,17 @@
       </c>
       <c r="AG53" s="17">
         <f t="shared" si="6"/>
-        <v>32.584699999999998</v>
+        <v>65.169399999999996</v>
       </c>
       <c r="AH53" s="18">
         <f t="shared" si="3"/>
-        <v>42.476107681155128</v>
+        <v>97.079300239258345</v>
       </c>
       <c r="AJ53" s="19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK53" s="19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="2:94" x14ac:dyDescent="0.25">
@@ -8718,7 +9222,7 @@
       </c>
       <c r="H54" s="8">
         <f t="shared" si="6"/>
-        <v>-5.4801553992564846</v>
+        <v>0</v>
       </c>
       <c r="I54" s="8">
         <f t="shared" si="6"/>
@@ -8734,7 +9238,7 @@
       </c>
       <c r="L54" s="8">
         <f t="shared" si="6"/>
-        <v>-2.6047285049501805</v>
+        <v>0</v>
       </c>
       <c r="M54" s="8">
         <f t="shared" si="6"/>
@@ -8754,7 +9258,7 @@
       </c>
       <c r="Q54" s="8">
         <f t="shared" si="6"/>
-        <v>1.8947992827737719</v>
+        <v>0</v>
       </c>
       <c r="R54" s="8">
         <f t="shared" si="6"/>
@@ -8766,11 +9270,11 @@
       </c>
       <c r="T54" s="8">
         <f t="shared" si="6"/>
-        <v>5.5631582425812764</v>
+        <v>0</v>
       </c>
       <c r="U54" s="8">
         <f t="shared" si="6"/>
-        <v>26.019334199783057</v>
+        <v>9.1992238273128244</v>
       </c>
       <c r="V54" s="8">
         <f t="shared" si="6"/>
@@ -8778,7 +9282,7 @@
       </c>
       <c r="W54" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4.1491612723537274</v>
       </c>
       <c r="X54" s="8">
         <f t="shared" si="6"/>
@@ -8790,11 +9294,11 @@
       </c>
       <c r="Z54" s="8">
         <f t="shared" si="6"/>
-        <v>38.472617864151125</v>
+        <v>0</v>
       </c>
       <c r="AA54" s="8">
         <f t="shared" si="6"/>
-        <v>210.01744272390448</v>
+        <v>227.79589999999999</v>
       </c>
       <c r="AB54" s="8">
         <f t="shared" si="6"/>
@@ -8818,17 +9322,17 @@
       </c>
       <c r="AG54" s="17">
         <f t="shared" si="6"/>
-        <v>27.630839999999999</v>
+        <v>55.261679999999998</v>
       </c>
       <c r="AH54" s="18">
         <f t="shared" si="3"/>
-        <v>110.84018840898702</v>
+        <v>105.73284509966653</v>
       </c>
       <c r="AJ54" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AK54" s="19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="2:94" x14ac:dyDescent="0.25">
@@ -8857,7 +9361,7 @@
       </c>
       <c r="H55" s="8">
         <f t="shared" si="6"/>
-        <v>0.18467685426170763</v>
+        <v>0</v>
       </c>
       <c r="I55" s="8">
         <f t="shared" si="6"/>
@@ -8873,7 +9377,7 @@
       </c>
       <c r="L55" s="8">
         <f t="shared" si="6"/>
-        <v>-3.4055986117715049</v>
+        <v>0</v>
       </c>
       <c r="M55" s="8">
         <f t="shared" si="6"/>
@@ -8893,7 +9397,7 @@
       </c>
       <c r="Q55" s="8">
         <f t="shared" si="6"/>
-        <v>-1.5523231113399039</v>
+        <v>0</v>
       </c>
       <c r="R55" s="8">
         <f t="shared" si="6"/>
@@ -8905,11 +9409,11 @@
       </c>
       <c r="T55" s="8">
         <f t="shared" si="6"/>
-        <v>40.919932184847276</v>
+        <v>0</v>
       </c>
       <c r="U55" s="8">
         <f t="shared" si="6"/>
-        <v>-109.79675147198118</v>
+        <v>-38.819013759045973</v>
       </c>
       <c r="V55" s="8">
         <f t="shared" si="6"/>
@@ -8917,7 +9421,7 @@
       </c>
       <c r="W55" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>237.3055375409516</v>
       </c>
       <c r="X55" s="8">
         <f t="shared" si="6"/>
@@ -8929,11 +9433,11 @@
       </c>
       <c r="Z55" s="8">
         <f t="shared" si="6"/>
-        <v>34.005204968078047</v>
+        <v>0</v>
       </c>
       <c r="AA55" s="8">
         <f t="shared" si="6"/>
-        <v>290.20065062798187</v>
+        <v>314.76679999999999</v>
       </c>
       <c r="AB55" s="8">
         <f t="shared" si="6"/>
@@ -8957,17 +9461,17 @@
       </c>
       <c r="AG55" s="17">
         <f t="shared" si="6"/>
-        <v>32.284619999999997</v>
+        <v>64.569239999999994</v>
       </c>
       <c r="AH55" s="18">
         <f t="shared" si="3"/>
-        <v>-17.656448559923739</v>
+        <v>277.32570378190559</v>
       </c>
       <c r="AJ55" s="19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AK55" s="19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56" spans="2:94" x14ac:dyDescent="0.25">
@@ -8996,7 +9500,7 @@
       </c>
       <c r="H56" s="8">
         <f t="shared" si="6"/>
-        <v>-0.49227036524657874</v>
+        <v>0</v>
       </c>
       <c r="I56" s="8">
         <f t="shared" si="6"/>
@@ -9012,7 +9516,7 @@
       </c>
       <c r="L56" s="8">
         <f t="shared" si="6"/>
-        <v>-8.4597830613142797</v>
+        <v>0</v>
       </c>
       <c r="M56" s="8">
         <f t="shared" si="6"/>
@@ -9032,7 +9536,7 @@
       </c>
       <c r="Q56" s="8">
         <f t="shared" si="6"/>
-        <v>1.7632066822979091</v>
+        <v>0</v>
       </c>
       <c r="R56" s="8">
         <f t="shared" si="6"/>
@@ -9044,11 +9548,11 @@
       </c>
       <c r="T56" s="8">
         <f t="shared" si="6"/>
-        <v>29.134087449721161</v>
+        <v>0</v>
       </c>
       <c r="U56" s="8">
         <f t="shared" si="6"/>
-        <v>-80.222784729726257</v>
+        <v>-28.363037544029027</v>
       </c>
       <c r="V56" s="8">
         <f t="shared" si="6"/>
@@ -9056,7 +9560,7 @@
       </c>
       <c r="W56" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>264.56386500717741</v>
       </c>
       <c r="X56" s="8">
         <f t="shared" si="6"/>
@@ -9068,11 +9572,11 @@
       </c>
       <c r="Z56" s="8">
         <f t="shared" si="6"/>
-        <v>43.618370941106917</v>
+        <v>0</v>
       </c>
       <c r="AA56" s="8">
         <f t="shared" si="6"/>
-        <v>246.90142886608413</v>
+        <v>267.80219999999997</v>
       </c>
       <c r="AB56" s="8">
         <f t="shared" si="6"/>
@@ -9096,17 +9600,17 @@
       </c>
       <c r="AG56" s="17">
         <f t="shared" si="6"/>
-        <v>33.725740000000002</v>
+        <v>67.451480000000004</v>
       </c>
       <c r="AH56" s="18">
         <f t="shared" si="3"/>
-        <v>4.8082557829230552</v>
+        <v>310.29476746314833</v>
       </c>
       <c r="AJ56" s="19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AK56" s="19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="57" spans="2:94" x14ac:dyDescent="0.25">
@@ -9135,7 +9639,7 @@
       </c>
       <c r="H57" s="8">
         <f t="shared" si="6"/>
-        <v>2.2696089971622865E-2</v>
+        <v>0</v>
       </c>
       <c r="I57" s="8">
         <f t="shared" si="6"/>
@@ -9151,7 +9655,7 @@
       </c>
       <c r="L57" s="8">
         <f t="shared" si="6"/>
-        <v>2.1622777342422968E-2</v>
+        <v>0</v>
       </c>
       <c r="M57" s="8">
         <f t="shared" si="6"/>
@@ -9171,7 +9675,7 @@
       </c>
       <c r="Q57" s="8">
         <f t="shared" si="6"/>
-        <v>-1.9966745398286623</v>
+        <v>0</v>
       </c>
       <c r="R57" s="8">
         <f t="shared" si="6"/>
@@ -9183,11 +9687,11 @@
       </c>
       <c r="T57" s="8">
         <f t="shared" si="6"/>
-        <v>16.273633165968196</v>
+        <v>0</v>
       </c>
       <c r="U57" s="8">
         <f t="shared" si="6"/>
-        <v>-76.30707193024773</v>
+        <v>-26.97862400718391</v>
       </c>
       <c r="V57" s="8">
         <f t="shared" si="6"/>
@@ -9195,7 +9699,7 @@
       </c>
       <c r="W57" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>8.9969329253918531</v>
       </c>
       <c r="X57" s="8">
         <f t="shared" si="6"/>
@@ -9207,11 +9711,11 @@
       </c>
       <c r="Z57" s="8">
         <f t="shared" si="6"/>
-        <v>35.889701094102193</v>
+        <v>0</v>
       </c>
       <c r="AA57" s="8">
         <f t="shared" si="6"/>
-        <v>260.34389346659543</v>
+        <v>282.38260000000002</v>
       </c>
       <c r="AB57" s="8">
         <f t="shared" si="6"/>
@@ -9235,17 +9739,17 @@
       </c>
       <c r="AG57" s="17">
         <f t="shared" si="6"/>
-        <v>31.537240000000001</v>
+        <v>63.074480000000001</v>
       </c>
       <c r="AH57" s="18">
         <f t="shared" si="3"/>
-        <v>56.646690123903454</v>
+        <v>118.33703891820798</v>
       </c>
       <c r="AJ57" s="19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AK57" s="19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58" spans="2:94" x14ac:dyDescent="0.25">
@@ -9274,7 +9778,7 @@
       </c>
       <c r="H58" s="8">
         <f t="shared" si="6"/>
-        <v>-8.1057464184367378E-2</v>
+        <v>0</v>
       </c>
       <c r="I58" s="8">
         <f t="shared" si="6"/>
@@ -9290,7 +9794,7 @@
       </c>
       <c r="L58" s="8">
         <f t="shared" si="6"/>
-        <v>3.7654713920703209</v>
+        <v>0</v>
       </c>
       <c r="M58" s="8">
         <f t="shared" si="6"/>
@@ -9310,7 +9814,7 @@
       </c>
       <c r="Q58" s="8">
         <f t="shared" si="6"/>
-        <v>-2.4300692352276716</v>
+        <v>0</v>
       </c>
       <c r="R58" s="8">
         <f t="shared" si="6"/>
@@ -9322,11 +9826,11 @@
       </c>
       <c r="T58" s="8">
         <f t="shared" si="6"/>
-        <v>1.4660108874084121</v>
+        <v>0</v>
       </c>
       <c r="U58" s="8">
         <f t="shared" si="6"/>
-        <v>-65.579580529552032</v>
+        <v>-23.185883049907762</v>
       </c>
       <c r="V58" s="8">
         <f t="shared" si="6"/>
@@ -9334,7 +9838,7 @@
       </c>
       <c r="W58" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4.8485305996765655</v>
       </c>
       <c r="X58" s="8">
         <f t="shared" si="6"/>
@@ -9346,11 +9850,11 @@
       </c>
       <c r="Z58" s="8">
         <f t="shared" si="6"/>
-        <v>44.299588794660387</v>
+        <v>0</v>
       </c>
       <c r="AA58" s="8">
         <f t="shared" si="6"/>
-        <v>267.64595706766056</v>
+        <v>290.30279999999999</v>
       </c>
       <c r="AB58" s="8">
         <f t="shared" si="6"/>
@@ -9374,17 +9878,17 @@
       </c>
       <c r="AG58" s="17">
         <f t="shared" si="6"/>
-        <v>24.632960000000001</v>
+        <v>49.265920000000001</v>
       </c>
       <c r="AH58" s="18">
         <f t="shared" si="3"/>
-        <v>55.93473091283559</v>
+        <v>103.44681754976878</v>
       </c>
       <c r="AJ58" s="19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AK58" s="19" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="59" spans="2:94" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9413,7 +9917,7 @@
       </c>
       <c r="H59" s="21">
         <f t="shared" si="6"/>
-        <v>1.4780409331273612</v>
+        <v>0</v>
       </c>
       <c r="I59" s="21">
         <f t="shared" si="6"/>
@@ -9429,7 +9933,7 @@
       </c>
       <c r="L59" s="21">
         <f t="shared" si="6"/>
-        <v>-0.55349390647052299</v>
+        <v>0</v>
       </c>
       <c r="M59" s="21">
         <f t="shared" si="6"/>
@@ -9449,7 +9953,7 @@
       </c>
       <c r="Q59" s="21">
         <f t="shared" si="6"/>
-        <v>1.0899042535929475</v>
+        <v>0</v>
       </c>
       <c r="R59" s="21">
         <f t="shared" si="6"/>
@@ -9461,11 +9965,11 @@
       </c>
       <c r="T59" s="21">
         <f t="shared" si="6"/>
-        <v>2.777352952813164</v>
+        <v>0</v>
       </c>
       <c r="U59" s="21">
         <f t="shared" si="6"/>
-        <v>-38.907314480339039</v>
+        <v>-13.755812953402646</v>
       </c>
       <c r="V59" s="21">
         <f t="shared" si="6"/>
@@ -9473,7 +9977,7 @@
       </c>
       <c r="W59" s="21">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-4.1275312931581754</v>
       </c>
       <c r="X59" s="21">
         <f t="shared" si="6"/>
@@ -9485,11 +9989,11 @@
       </c>
       <c r="Z59" s="21">
         <f t="shared" si="6"/>
-        <v>54.74645765001604</v>
+        <v>0</v>
       </c>
       <c r="AA59" s="21">
         <f t="shared" si="6"/>
-        <v>245.25647774401392</v>
+        <v>266.01800000000003</v>
       </c>
       <c r="AB59" s="21">
         <f t="shared" si="6"/>
@@ -9513,138 +10017,138 @@
       </c>
       <c r="AG59" s="22">
         <f t="shared" si="6"/>
-        <v>25.153459999999999</v>
+        <v>50.306919999999998</v>
       </c>
       <c r="AH59" s="18">
         <f t="shared" si="3"/>
-        <v>53.169545146753933</v>
+        <v>60.570235753439199</v>
       </c>
       <c r="AJ59" s="19" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK59" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="2:94" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="BJ60" s="23" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="BK60" s="23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BL60" s="23" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="BM60" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BN60" s="23" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="BO60" s="23" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="BP60" s="23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="BQ60" s="23" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="BR60" s="23" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BS60" s="23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="BT60" s="23" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="BU60" s="23" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="BV60" s="23" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BW60" s="23" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BX60" s="23" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BY60" s="23" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="BZ60" s="23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="CA60" s="23" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="CB60" s="23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="CC60" s="23" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="CD60" s="23" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="CE60" s="23" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="CF60" s="23" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="CG60" s="23" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="CH60" s="23" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="CI60" s="23" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="CJ60" s="23" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CK60" s="23" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CL60" s="23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CM60" s="23" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="CN60" s="23" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="CO60" s="23" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="CP60" s="23" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="61" spans="2:94" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B61" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="C61" s="27"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="35" t="s">
+      <c r="B61" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="F61" s="36"/>
-      <c r="G61" s="35" t="s">
+      <c r="C61" s="51"/>
+      <c r="D61" s="52"/>
+      <c r="E61" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="H61" s="36"/>
-      <c r="I61" s="35" t="s">
+      <c r="F61" s="60"/>
+      <c r="G61" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="J61" s="36"/>
+      <c r="H61" s="60"/>
+      <c r="I61" s="59" t="s">
+        <v>155</v>
+      </c>
+      <c r="J61" s="60"/>
       <c r="BJ61" s="24">
         <v>1</v>
       </c>
@@ -9745,25 +10249,25 @@
         <v>30.567209999999999</v>
       </c>
     </row>
-    <row r="62" spans="2:94" x14ac:dyDescent="0.25">
-      <c r="B62" s="29"/>
-      <c r="C62" s="30"/>
-      <c r="D62" s="31"/>
-      <c r="E62" s="37">
+    <row r="62" spans="2:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="53"/>
+      <c r="C62" s="54"/>
+      <c r="D62" s="55"/>
+      <c r="E62" s="61">
         <f>MAX(AH35:AH59)</f>
-        <v>110.84018840898702</v>
-      </c>
-      <c r="F62" s="38"/>
-      <c r="G62" s="37">
+        <v>310.29476746314833</v>
+      </c>
+      <c r="F62" s="62"/>
+      <c r="G62" s="34">
         <f>_xlfn.XLOOKUP(MAX(AH35:AH59),AH35:AH59,B35:B59)</f>
-        <v>30</v>
-      </c>
-      <c r="H62" s="38"/>
-      <c r="I62" s="37" t="str">
+        <v>32</v>
+      </c>
+      <c r="H62" s="35"/>
+      <c r="I62" s="34" t="str">
         <f>_xlfn.XLOOKUP(MAX(AH35:AH59),AH35:AH59,AK35:AK59)</f>
-        <v>HeBy</v>
-      </c>
-      <c r="J62" s="38"/>
+        <v>CeSbL</v>
+      </c>
+      <c r="J62" s="35"/>
       <c r="BJ62" s="24">
         <v>2</v>
       </c>
@@ -9864,16 +10368,16 @@
         <v>26.47364</v>
       </c>
     </row>
-    <row r="63" spans="2:94" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="32"/>
-      <c r="C63" s="33"/>
-      <c r="D63" s="34"/>
-      <c r="E63" s="39"/>
-      <c r="F63" s="40"/>
-      <c r="G63" s="39"/>
-      <c r="H63" s="40"/>
-      <c r="I63" s="39"/>
-      <c r="J63" s="40"/>
+    <row r="63" spans="2:94" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="56"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="58"/>
+      <c r="E63" s="63"/>
+      <c r="F63" s="64"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="37"/>
+      <c r="I63" s="36"/>
+      <c r="J63" s="37"/>
       <c r="BJ63" s="24">
         <v>3</v>
       </c>
@@ -12197,14 +12701,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="5">
     <mergeCell ref="B61:D63"/>
     <mergeCell ref="E61:F61"/>
     <mergeCell ref="G61:H61"/>
     <mergeCell ref="I61:J61"/>
     <mergeCell ref="E62:F63"/>
-    <mergeCell ref="G62:H63"/>
-    <mergeCell ref="I62:J63"/>
   </mergeCells>
   <conditionalFormatting sqref="AH35:AH59">
     <cfRule type="top10" dxfId="0" priority="1" rank="1"/>
@@ -12212,2797 +12714,324 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D645A38E-D1BF-4EEC-AAFE-CB555AE94ECE}">
-  <dimension ref="A1:AF26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
-        <v>11</v>
-      </c>
-      <c r="B2" s="11">
-        <v>-199.04542000000001</v>
-      </c>
-      <c r="C2" s="11">
-        <v>5.0656100000000004</v>
-      </c>
-      <c r="D2" s="11">
-        <v>0.32518000000000002</v>
-      </c>
-      <c r="E2" s="11">
-        <v>4.1952400000000001</v>
-      </c>
-      <c r="F2" s="11">
-        <v>3.9370599999999998</v>
-      </c>
-      <c r="G2" s="11">
-        <v>-1.6262399999999999</v>
-      </c>
-      <c r="H2" s="11">
-        <v>2.41228</v>
-      </c>
-      <c r="I2" s="11">
-        <v>2.9743200000000001</v>
-      </c>
-      <c r="J2" s="11">
-        <v>-3.1050800000000001</v>
-      </c>
-      <c r="K2" s="11">
-        <v>1.75637</v>
-      </c>
-      <c r="L2" s="11">
-        <v>0.92815999999999999</v>
-      </c>
-      <c r="M2" s="11">
-        <v>2.0829300000000002</v>
-      </c>
-      <c r="N2" s="11">
-        <v>0.79296999999999995</v>
-      </c>
-      <c r="O2" s="11">
-        <v>8.3853600000000004</v>
-      </c>
-      <c r="P2" s="11">
-        <v>4.13293</v>
-      </c>
-      <c r="Q2" s="11">
-        <v>-0.98316999999999999</v>
-      </c>
-      <c r="R2" s="11">
-        <v>-1.84877</v>
-      </c>
-      <c r="S2" s="11">
-        <v>3.3904399999999999</v>
-      </c>
-      <c r="T2" s="11">
-        <v>-7.1082799999999997</v>
-      </c>
-      <c r="U2" s="11">
-        <v>-4.2235500000000004</v>
-      </c>
-      <c r="V2" s="11">
-        <v>0.98414000000000001</v>
-      </c>
-      <c r="W2" s="11">
-        <v>12.98085</v>
-      </c>
-      <c r="X2" s="11">
-        <v>11.028779999999999</v>
-      </c>
-      <c r="Y2" s="11">
-        <v>12.18927</v>
-      </c>
-      <c r="Z2" s="11">
-        <v>26.20391</v>
-      </c>
-      <c r="AA2" s="11">
-        <v>-2.58724</v>
-      </c>
-      <c r="AB2" s="11">
-        <v>-1.47929</v>
-      </c>
-      <c r="AC2" s="11">
-        <v>-7.2997199999999998</v>
-      </c>
-      <c r="AD2" s="11">
-        <v>21.560749999999999</v>
-      </c>
-      <c r="AE2" s="11">
-        <v>4.2558999999999996</v>
-      </c>
-      <c r="AF2" s="11">
-        <v>30.567209999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
-        <v>12</v>
-      </c>
-      <c r="B3" s="11">
-        <v>-600.70408999999995</v>
-      </c>
-      <c r="C3" s="11">
-        <v>3.7090100000000001</v>
-      </c>
-      <c r="D3" s="11">
-        <v>-0.45350000000000001</v>
-      </c>
-      <c r="E3" s="11">
-        <v>3.83012</v>
-      </c>
-      <c r="F3" s="11">
-        <v>3.8442400000000001</v>
-      </c>
-      <c r="G3" s="11">
-        <v>-2.7818200000000002</v>
-      </c>
-      <c r="H3" s="11">
-        <v>1.1506700000000001</v>
-      </c>
-      <c r="I3" s="11">
-        <v>2.8321499999999999</v>
-      </c>
-      <c r="J3" s="11">
-        <v>-3.5938699999999999</v>
-      </c>
-      <c r="K3" s="11">
-        <v>2.4906000000000001</v>
-      </c>
-      <c r="L3" s="11">
-        <v>2.3554900000000001</v>
-      </c>
-      <c r="M3" s="11">
-        <v>1.1270500000000001</v>
-      </c>
-      <c r="N3" s="11">
-        <v>-2.9401999999999999</v>
-      </c>
-      <c r="O3" s="11">
-        <v>8.4226100000000006</v>
-      </c>
-      <c r="P3" s="11">
-        <v>2.7275299999999998</v>
-      </c>
-      <c r="Q3" s="11">
-        <v>-3.7884099999999998</v>
-      </c>
-      <c r="R3" s="11">
-        <v>-2.8530500000000001</v>
-      </c>
-      <c r="S3" s="11">
-        <v>5.29894</v>
-      </c>
-      <c r="T3" s="11">
-        <v>-9.4124499999999998</v>
-      </c>
-      <c r="U3" s="11">
-        <v>-5.9268999999999998</v>
-      </c>
-      <c r="V3" s="11">
-        <v>0.52878999999999998</v>
-      </c>
-      <c r="W3" s="11">
-        <v>14.925879999999999</v>
-      </c>
-      <c r="X3" s="11">
-        <v>13.00121</v>
-      </c>
-      <c r="Y3" s="11">
-        <v>11.52773</v>
-      </c>
-      <c r="Z3" s="11">
-        <v>30.988019999999999</v>
-      </c>
-      <c r="AA3" s="11">
-        <v>774.40791999999999</v>
-      </c>
-      <c r="AB3" s="11">
-        <v>-1.29057</v>
-      </c>
-      <c r="AC3" s="11">
-        <v>-15.649319999999999</v>
-      </c>
-      <c r="AD3" s="11">
-        <v>21.40662</v>
-      </c>
-      <c r="AE3" s="11">
-        <v>3.0661299999999998</v>
-      </c>
-      <c r="AF3" s="11">
-        <v>26.47364</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
-        <v>13</v>
-      </c>
-      <c r="B4" s="11">
-        <v>-219.62533999999999</v>
-      </c>
-      <c r="C4" s="11">
-        <v>4.9818199999999999</v>
-      </c>
-      <c r="D4" s="11">
-        <v>3.0530000000000002E-2</v>
-      </c>
-      <c r="E4" s="11">
-        <v>4.3810399999999996</v>
-      </c>
-      <c r="F4" s="11">
-        <v>4.0442799999999997</v>
-      </c>
-      <c r="G4" s="11">
-        <v>-2.0258600000000002</v>
-      </c>
-      <c r="H4" s="11">
-        <v>2.2266599999999999</v>
-      </c>
-      <c r="I4" s="11">
-        <v>2.62683</v>
-      </c>
-      <c r="J4" s="11">
-        <v>-4.2830700000000004</v>
-      </c>
-      <c r="K4" s="11">
-        <v>-8.0269999999999994E-2</v>
-      </c>
-      <c r="L4" s="11">
-        <v>2.3990000000000001E-2</v>
-      </c>
-      <c r="M4" s="11">
-        <v>1.1250199999999999</v>
-      </c>
-      <c r="N4" s="11">
-        <v>0.86273</v>
-      </c>
-      <c r="O4" s="11">
-        <v>8.8948599999999995</v>
-      </c>
-      <c r="P4" s="11">
-        <v>7.3272500000000003</v>
-      </c>
-      <c r="Q4" s="11">
-        <v>-9.0300000000000005E-2</v>
-      </c>
-      <c r="R4" s="11">
-        <v>-1.5678300000000001</v>
-      </c>
-      <c r="S4" s="11">
-        <v>6.2168400000000004</v>
-      </c>
-      <c r="T4" s="11">
-        <v>-7.0441200000000004</v>
-      </c>
-      <c r="U4" s="11">
-        <v>-3.6407699999999998</v>
-      </c>
-      <c r="V4" s="11">
-        <v>1.9889399999999999</v>
-      </c>
-      <c r="W4" s="11">
-        <v>13.38245</v>
-      </c>
-      <c r="X4" s="11">
-        <v>11.57475</v>
-      </c>
-      <c r="Y4" s="11">
-        <v>12.175039999999999</v>
-      </c>
-      <c r="Z4" s="11">
-        <v>25.584479999999999</v>
-      </c>
-      <c r="AA4" s="11">
-        <v>16.820799999999998</v>
-      </c>
-      <c r="AB4" s="11">
-        <v>-0.94782999999999995</v>
-      </c>
-      <c r="AC4" s="11">
-        <v>-4.8452999999999999</v>
-      </c>
-      <c r="AD4" s="11">
-        <v>25.17371</v>
-      </c>
-      <c r="AE4" s="11">
-        <v>5.9454700000000003</v>
-      </c>
-      <c r="AF4" s="11">
-        <v>36.457509999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
-        <v>14</v>
-      </c>
-      <c r="B5" s="11">
-        <v>-221.56305</v>
-      </c>
-      <c r="C5" s="11">
-        <v>5.9856199999999999</v>
-      </c>
-      <c r="D5" s="11">
-        <v>-0.29380000000000001</v>
-      </c>
-      <c r="E5" s="11">
-        <v>4.7715899999999998</v>
-      </c>
-      <c r="F5" s="11">
-        <v>6.8207599999999999</v>
-      </c>
-      <c r="G5" s="11">
-        <v>-2.3496000000000001</v>
-      </c>
-      <c r="H5" s="11">
-        <v>2.2110300000000001</v>
-      </c>
-      <c r="I5" s="11">
-        <v>2.3235600000000001</v>
-      </c>
-      <c r="J5" s="11">
-        <v>-2.8488600000000002</v>
-      </c>
-      <c r="K5" s="11">
-        <v>1.61449</v>
-      </c>
-      <c r="L5" s="11">
-        <v>0.20136999999999999</v>
-      </c>
-      <c r="M5" s="11">
-        <v>2.0943100000000001</v>
-      </c>
-      <c r="N5" s="11">
-        <v>0.78517000000000003</v>
-      </c>
-      <c r="O5" s="11">
-        <v>6.13903</v>
-      </c>
-      <c r="P5" s="11">
-        <v>2.4243100000000002</v>
-      </c>
-      <c r="Q5" s="11">
-        <v>-0.88543000000000005</v>
-      </c>
-      <c r="R5" s="11">
-        <v>-0.90539999999999998</v>
-      </c>
-      <c r="S5" s="11">
-        <v>1.73125</v>
-      </c>
-      <c r="T5" s="11">
-        <v>-4.9524499999999998</v>
-      </c>
-      <c r="U5" s="11">
-        <v>-3.3210999999999999</v>
-      </c>
-      <c r="V5" s="11">
-        <v>0.68242000000000003</v>
-      </c>
-      <c r="W5" s="11">
-        <v>15.71813</v>
-      </c>
-      <c r="X5" s="11">
-        <v>13.256410000000001</v>
-      </c>
-      <c r="Y5" s="11">
-        <v>14.86633</v>
-      </c>
-      <c r="Z5" s="11">
-        <v>26.785270000000001</v>
-      </c>
-      <c r="AA5" s="11">
-        <v>4.2369599999999998</v>
-      </c>
-      <c r="AB5" s="11">
-        <v>-5.0216000000000003</v>
-      </c>
-      <c r="AC5" s="11">
-        <v>-7.7306600000000003</v>
-      </c>
-      <c r="AD5" s="11">
-        <v>25.575009999999999</v>
-      </c>
-      <c r="AE5" s="11">
-        <v>1.9442900000000001</v>
-      </c>
-      <c r="AF5" s="11">
-        <v>30.20553</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>15</v>
-      </c>
-      <c r="B6" s="11">
-        <v>-240.57162</v>
-      </c>
-      <c r="C6" s="11">
-        <v>5.0622199999999999</v>
-      </c>
-      <c r="D6" s="11">
-        <v>0.53464</v>
-      </c>
-      <c r="E6" s="11">
-        <v>3.9035600000000001</v>
-      </c>
-      <c r="F6" s="11">
-        <v>4.4669400000000001</v>
-      </c>
-      <c r="G6" s="11">
-        <v>-0.72643000000000002</v>
-      </c>
-      <c r="H6" s="11">
-        <v>2.5079699999999998</v>
-      </c>
-      <c r="I6" s="11">
-        <v>3.1749800000000001</v>
-      </c>
-      <c r="J6" s="11">
-        <v>-3.37121</v>
-      </c>
-      <c r="K6" s="11">
-        <v>-0.27488000000000001</v>
-      </c>
-      <c r="L6" s="11">
-        <v>0.68972999999999995</v>
-      </c>
-      <c r="M6" s="11">
-        <v>2.22051</v>
-      </c>
-      <c r="N6" s="11">
-        <v>-2.2273900000000002</v>
-      </c>
-      <c r="O6" s="11">
-        <v>6.0872099999999998</v>
-      </c>
-      <c r="P6" s="11">
-        <v>12.619759999999999</v>
-      </c>
-      <c r="Q6" s="11">
-        <v>-2.5652599999999999</v>
-      </c>
-      <c r="R6" s="11">
-        <v>-2.8286099999999998</v>
-      </c>
-      <c r="S6" s="11">
-        <v>9.5946800000000003</v>
-      </c>
-      <c r="T6" s="11">
-        <v>-9.6737199999999994</v>
-      </c>
-      <c r="U6" s="11">
-        <v>-5.13131</v>
-      </c>
-      <c r="V6" s="11">
-        <v>2.7301899999999999</v>
-      </c>
-      <c r="W6" s="11">
-        <v>12.15523</v>
-      </c>
-      <c r="X6" s="11">
-        <v>8.7467600000000001</v>
-      </c>
-      <c r="Y6" s="11">
-        <v>10.24357</v>
-      </c>
-      <c r="Z6" s="11">
-        <v>28.311640000000001</v>
-      </c>
-      <c r="AA6" s="11">
-        <v>23.420120000000001</v>
-      </c>
-      <c r="AB6" s="11">
-        <v>-25.30518</v>
-      </c>
-      <c r="AC6" s="11">
-        <v>-7.5010500000000002</v>
-      </c>
-      <c r="AD6" s="11">
-        <v>26.92174</v>
-      </c>
-      <c r="AE6" s="11">
-        <v>6.30877</v>
-      </c>
-      <c r="AF6" s="11">
-        <v>33.236789999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
-        <v>16</v>
-      </c>
-      <c r="B7" s="11">
-        <v>-235.78668999999999</v>
-      </c>
-      <c r="C7" s="11">
-        <v>4.4240399999999998</v>
-      </c>
-      <c r="D7" s="11">
-        <v>0.22251000000000001</v>
-      </c>
-      <c r="E7" s="11">
-        <v>3.4980099999999998</v>
-      </c>
-      <c r="F7" s="11">
-        <v>3.8290899999999999</v>
-      </c>
-      <c r="G7" s="11">
-        <v>-1.6177900000000001</v>
-      </c>
-      <c r="H7" s="11">
-        <v>1.7845</v>
-      </c>
-      <c r="I7" s="11">
-        <v>3.5015299999999998</v>
-      </c>
-      <c r="J7" s="11">
-        <v>-3.38889</v>
-      </c>
-      <c r="K7" s="11">
-        <v>-0.17669000000000001</v>
-      </c>
-      <c r="L7" s="11">
-        <v>0.23968999999999999</v>
-      </c>
-      <c r="M7" s="11">
-        <v>1.9065099999999999</v>
-      </c>
-      <c r="N7" s="11">
-        <v>-1.9139699999999999</v>
-      </c>
-      <c r="O7" s="11">
-        <v>6.9296300000000004</v>
-      </c>
-      <c r="P7" s="11">
-        <v>3.6228799999999999</v>
-      </c>
-      <c r="Q7" s="11">
-        <v>-1.7995699999999999</v>
-      </c>
-      <c r="R7" s="11">
-        <v>-2.8348</v>
-      </c>
-      <c r="S7" s="11">
-        <v>16.188649999999999</v>
-      </c>
-      <c r="T7" s="11">
-        <v>-8.3705400000000001</v>
-      </c>
-      <c r="U7" s="11">
-        <v>-3.7435999999999998</v>
-      </c>
-      <c r="V7" s="11">
-        <v>2.0330300000000001</v>
-      </c>
-      <c r="W7" s="11">
-        <v>13.542870000000001</v>
-      </c>
-      <c r="X7" s="11">
-        <v>10.671569999999999</v>
-      </c>
-      <c r="Y7" s="11">
-        <v>12.78055</v>
-      </c>
-      <c r="Z7" s="11">
-        <v>27.88531</v>
-      </c>
-      <c r="AA7" s="11">
-        <v>43.124940000000002</v>
-      </c>
-      <c r="AB7" s="11">
-        <v>-9.9437599999999993</v>
-      </c>
-      <c r="AC7" s="11">
-        <v>-8.9806000000000008</v>
-      </c>
-      <c r="AD7" s="11">
-        <v>23.592919999999999</v>
-      </c>
-      <c r="AE7" s="11">
-        <v>4.4901299999999997</v>
-      </c>
-      <c r="AF7" s="11">
-        <v>29.070689999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
-        <v>17</v>
-      </c>
-      <c r="B8" s="11">
-        <v>-182.48853</v>
-      </c>
-      <c r="C8" s="11">
-        <v>3.7483499999999998</v>
-      </c>
-      <c r="D8" s="11">
-        <v>-1.4948300000000001</v>
-      </c>
-      <c r="E8" s="11">
-        <v>2.2515499999999999</v>
-      </c>
-      <c r="F8" s="11">
-        <v>2.1310899999999999</v>
-      </c>
-      <c r="G8" s="11">
-        <v>-1.60565</v>
-      </c>
-      <c r="H8" s="11">
-        <v>1.95448</v>
-      </c>
-      <c r="I8" s="11">
-        <v>2.6282700000000001</v>
-      </c>
-      <c r="J8" s="11">
-        <v>-4.7482899999999999</v>
-      </c>
-      <c r="K8" s="11">
-        <v>4.8972499999999997</v>
-      </c>
-      <c r="L8" s="11">
-        <v>5.3153100000000002</v>
-      </c>
-      <c r="M8" s="11">
-        <v>0.96274000000000004</v>
-      </c>
-      <c r="N8" s="11">
-        <v>-0.57691999999999999</v>
-      </c>
-      <c r="O8" s="11">
-        <v>2.9636100000000001</v>
-      </c>
-      <c r="P8" s="11">
-        <v>1.7190099999999999</v>
-      </c>
-      <c r="Q8" s="11">
-        <v>-1.6637200000000001</v>
-      </c>
-      <c r="R8" s="11">
-        <v>-0.37502000000000002</v>
-      </c>
-      <c r="S8" s="11">
-        <v>0.91195000000000004</v>
-      </c>
-      <c r="T8" s="11">
-        <v>-5.6822400000000002</v>
-      </c>
-      <c r="U8" s="11">
-        <v>-3.2158899999999999</v>
-      </c>
-      <c r="V8" s="11">
-        <v>0.43041000000000001</v>
-      </c>
-      <c r="W8" s="11">
-        <v>15.50351</v>
-      </c>
-      <c r="X8" s="11">
-        <v>12.90302</v>
-      </c>
-      <c r="Y8" s="11">
-        <v>8.2750299999999992</v>
-      </c>
-      <c r="Z8" s="11">
-        <v>24.007829999999998</v>
-      </c>
-      <c r="AA8" s="11">
-        <v>17.092420000000001</v>
-      </c>
-      <c r="AB8" s="11">
-        <v>-4.3257899999999996</v>
-      </c>
-      <c r="AC8" s="11">
-        <v>-10.66103</v>
-      </c>
-      <c r="AD8" s="11">
-        <v>30.598649999999999</v>
-      </c>
-      <c r="AE8" s="11">
-        <v>-0.99436999999999998</v>
-      </c>
-      <c r="AF8" s="11">
-        <v>31.487380000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
-        <v>18</v>
-      </c>
-      <c r="B9" s="11">
-        <v>-181.80284</v>
-      </c>
-      <c r="C9" s="11">
-        <v>4.3573000000000004</v>
-      </c>
-      <c r="D9" s="11">
-        <v>7.4579999999999994E-2</v>
-      </c>
-      <c r="E9" s="11">
-        <v>3.6417700000000002</v>
-      </c>
-      <c r="F9" s="11">
-        <v>5.6306000000000003</v>
-      </c>
-      <c r="G9" s="11">
-        <v>-0.92523999999999995</v>
-      </c>
-      <c r="H9" s="11">
-        <v>3.39839</v>
-      </c>
-      <c r="I9" s="11">
-        <v>4.4072500000000003</v>
-      </c>
-      <c r="J9" s="11">
-        <v>-3.3072599999999999</v>
-      </c>
-      <c r="K9" s="11">
-        <v>5.1253700000000002</v>
-      </c>
-      <c r="L9" s="11">
-        <v>4.2107799999999997</v>
-      </c>
-      <c r="M9" s="11">
-        <v>4.8896600000000001</v>
-      </c>
-      <c r="N9" s="11">
-        <v>-1.5354000000000001</v>
-      </c>
-      <c r="O9" s="11">
-        <v>2.2166100000000002</v>
-      </c>
-      <c r="P9" s="11">
-        <v>0.49880000000000002</v>
-      </c>
-      <c r="Q9" s="11">
-        <v>0.72118000000000004</v>
-      </c>
-      <c r="R9" s="11">
-        <v>0.66325000000000001</v>
-      </c>
-      <c r="S9" s="11">
-        <v>0.60328999999999999</v>
-      </c>
-      <c r="T9" s="11">
-        <v>-7.0349599999999999</v>
-      </c>
-      <c r="U9" s="11">
-        <v>-4.4268400000000003</v>
-      </c>
-      <c r="V9" s="11">
-        <v>0.63617999999999997</v>
-      </c>
-      <c r="W9" s="11">
-        <v>13.078480000000001</v>
-      </c>
-      <c r="X9" s="11">
-        <v>8.26783</v>
-      </c>
-      <c r="Y9" s="11">
-        <v>8.6227400000000003</v>
-      </c>
-      <c r="Z9" s="11">
-        <v>25.76333</v>
-      </c>
-      <c r="AA9" s="11">
-        <v>14.09709</v>
-      </c>
-      <c r="AB9" s="11">
-        <v>-2.3980800000000002</v>
-      </c>
-      <c r="AC9" s="11">
-        <v>-11.52033</v>
-      </c>
-      <c r="AD9" s="11">
-        <v>30.979890000000001</v>
-      </c>
-      <c r="AE9" s="11">
-        <v>-4.8410399999999996</v>
-      </c>
-      <c r="AF9" s="11">
-        <v>28.875810000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
-        <v>19</v>
-      </c>
-      <c r="B10" s="11">
-        <v>-212.87522999999999</v>
-      </c>
-      <c r="C10" s="11">
-        <v>3.9321199999999998</v>
-      </c>
-      <c r="D10" s="11">
-        <v>-0.20765</v>
-      </c>
-      <c r="E10" s="11">
-        <v>3.31494</v>
-      </c>
-      <c r="F10" s="11">
-        <v>3.78911</v>
-      </c>
-      <c r="G10" s="11">
-        <v>-1.31399</v>
-      </c>
-      <c r="H10" s="11">
-        <v>2.2046700000000001</v>
-      </c>
-      <c r="I10" s="11">
-        <v>2.8678699999999999</v>
-      </c>
-      <c r="J10" s="11">
-        <v>-3.5040399999999998</v>
-      </c>
-      <c r="K10" s="11">
-        <v>2.9087000000000001</v>
-      </c>
-      <c r="L10" s="11">
-        <v>1.91164</v>
-      </c>
-      <c r="M10" s="11">
-        <v>2.0619000000000001</v>
-      </c>
-      <c r="N10" s="11">
-        <v>-1.53674</v>
-      </c>
-      <c r="O10" s="11">
-        <v>5.5956799999999998</v>
-      </c>
-      <c r="P10" s="11">
-        <v>8.5412700000000008</v>
-      </c>
-      <c r="Q10" s="11">
-        <v>0.54937000000000002</v>
-      </c>
-      <c r="R10" s="11">
-        <v>-0.71923000000000004</v>
-      </c>
-      <c r="S10" s="11">
-        <v>7.0267099999999996</v>
-      </c>
-      <c r="T10" s="11">
-        <v>-7.3322599999999998</v>
-      </c>
-      <c r="U10" s="11">
-        <v>-4.5166500000000003</v>
-      </c>
-      <c r="V10" s="11">
-        <v>1.5305299999999999</v>
-      </c>
-      <c r="W10" s="11">
-        <v>14.30818</v>
-      </c>
-      <c r="X10" s="11">
-        <v>11.25672</v>
-      </c>
-      <c r="Y10" s="11">
-        <v>11.37466</v>
-      </c>
-      <c r="Z10" s="11">
-        <v>26.847090000000001</v>
-      </c>
-      <c r="AA10" s="11">
-        <v>20.34177</v>
-      </c>
-      <c r="AB10" s="11">
-        <v>-21.98132</v>
-      </c>
-      <c r="AC10" s="11">
-        <v>-10.04575</v>
-      </c>
-      <c r="AD10" s="11">
-        <v>21.685009999999998</v>
-      </c>
-      <c r="AE10" s="11">
-        <v>1.02397</v>
-      </c>
-      <c r="AF10" s="11">
-        <v>29.00347</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
-        <v>20</v>
-      </c>
-      <c r="B11" s="11">
-        <v>-193.00402</v>
-      </c>
-      <c r="C11" s="11">
-        <v>4.7951800000000002</v>
-      </c>
-      <c r="D11" s="11">
-        <v>5.8630000000000002E-2</v>
-      </c>
-      <c r="E11" s="11">
-        <v>3.8117999999999999</v>
-      </c>
-      <c r="F11" s="11">
-        <v>3.59884</v>
-      </c>
-      <c r="G11" s="11">
-        <v>-1.7363900000000001</v>
-      </c>
-      <c r="H11" s="11">
-        <v>2.4425500000000002</v>
-      </c>
-      <c r="I11" s="11">
-        <v>3.04983</v>
-      </c>
-      <c r="J11" s="11">
-        <v>-3.3701599999999998</v>
-      </c>
-      <c r="K11" s="11">
-        <v>2.03186</v>
-      </c>
-      <c r="L11" s="11">
-        <v>2.2459699999999998</v>
-      </c>
-      <c r="M11" s="11">
-        <v>2.14906</v>
-      </c>
-      <c r="N11" s="11">
-        <v>0.93666000000000005</v>
-      </c>
-      <c r="O11" s="11">
-        <v>8.4045400000000008</v>
-      </c>
-      <c r="P11" s="11">
-        <v>2.93879</v>
-      </c>
-      <c r="Q11" s="11">
-        <v>1.5488999999999999</v>
-      </c>
-      <c r="R11" s="11">
-        <v>-2.1126800000000001</v>
-      </c>
-      <c r="S11" s="11">
-        <v>5.1391600000000004</v>
-      </c>
-      <c r="T11" s="11">
-        <v>-6.26755</v>
-      </c>
-      <c r="U11" s="11">
-        <v>-3.16629</v>
-      </c>
-      <c r="V11" s="11">
-        <v>0.66822999999999999</v>
-      </c>
-      <c r="W11" s="11">
-        <v>13.238759999999999</v>
-      </c>
-      <c r="X11" s="11">
-        <v>11.24344</v>
-      </c>
-      <c r="Y11" s="11">
-        <v>11.44711</v>
-      </c>
-      <c r="Z11" s="11">
-        <v>25.238620000000001</v>
-      </c>
-      <c r="AA11" s="11">
-        <v>-1.5033799999999999</v>
-      </c>
-      <c r="AB11" s="11">
-        <v>-1.5112099999999999</v>
-      </c>
-      <c r="AC11" s="11">
-        <v>-12.43591</v>
-      </c>
-      <c r="AD11" s="11">
-        <v>20.633420000000001</v>
-      </c>
-      <c r="AE11" s="11">
-        <v>2.87615</v>
-      </c>
-      <c r="AF11" s="11">
-        <v>26.906220000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
-        <v>21</v>
-      </c>
-      <c r="B12" s="11">
-        <v>-188.61779000000001</v>
-      </c>
-      <c r="C12" s="11">
-        <v>2.1564199999999998</v>
-      </c>
-      <c r="D12" s="11">
-        <v>-1.3485799999999999</v>
-      </c>
-      <c r="E12" s="11">
-        <v>2.63165</v>
-      </c>
-      <c r="F12" s="11">
-        <v>3.32667</v>
-      </c>
-      <c r="G12" s="11">
-        <v>-1.30664</v>
-      </c>
-      <c r="H12" s="11">
-        <v>1.4468399999999999</v>
-      </c>
-      <c r="I12" s="11">
-        <v>2.1715900000000001</v>
-      </c>
-      <c r="J12" s="11">
-        <v>-4.0507099999999996</v>
-      </c>
-      <c r="K12" s="11">
-        <v>-5.0612399999999997</v>
-      </c>
-      <c r="L12" s="11">
-        <v>-2.2572899999999998</v>
-      </c>
-      <c r="M12" s="11">
-        <v>1.9910300000000001</v>
-      </c>
-      <c r="N12" s="11">
-        <v>0.68669000000000002</v>
-      </c>
-      <c r="O12" s="11">
-        <v>5.3599699999999997</v>
-      </c>
-      <c r="P12" s="11">
-        <v>2.1673</v>
-      </c>
-      <c r="Q12" s="11">
-        <v>0.49164000000000002</v>
-      </c>
-      <c r="R12" s="11">
-        <v>0.76427999999999996</v>
-      </c>
-      <c r="S12" s="11">
-        <v>4.5155799999999999</v>
-      </c>
-      <c r="T12" s="11">
-        <v>-5.8247799999999996</v>
-      </c>
-      <c r="U12" s="11">
-        <v>4.8739999999999999E-2</v>
-      </c>
-      <c r="V12" s="11">
-        <v>2.0552000000000001</v>
-      </c>
-      <c r="W12" s="11">
-        <v>16.678750000000001</v>
-      </c>
-      <c r="X12" s="11">
-        <v>11.421279999999999</v>
-      </c>
-      <c r="Y12" s="11">
-        <v>18.409590000000001</v>
-      </c>
-      <c r="Z12" s="11">
-        <v>23.861190000000001</v>
-      </c>
-      <c r="AA12" s="11">
-        <v>9.7370900000000002</v>
-      </c>
-      <c r="AB12" s="11">
-        <v>-2.3134399999999999</v>
-      </c>
-      <c r="AC12" s="11">
-        <v>-10.640840000000001</v>
-      </c>
-      <c r="AD12" s="11">
-        <v>22.179110000000001</v>
-      </c>
-      <c r="AE12" s="11">
-        <v>1.58203</v>
-      </c>
-      <c r="AF12" s="11">
-        <v>29.119959999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
-        <v>22</v>
-      </c>
-      <c r="B13" s="11">
-        <v>-183.59968000000001</v>
-      </c>
-      <c r="C13" s="11">
-        <v>3.2949700000000002</v>
-      </c>
-      <c r="D13" s="11">
-        <v>-0.91178000000000003</v>
-      </c>
-      <c r="E13" s="11">
-        <v>3.1177000000000001</v>
-      </c>
-      <c r="F13" s="11">
-        <v>4.4360200000000001</v>
-      </c>
-      <c r="G13" s="11">
-        <v>-0.39572000000000002</v>
-      </c>
-      <c r="H13" s="11">
-        <v>2.0564800000000001</v>
-      </c>
-      <c r="I13" s="11">
-        <v>2.9148299999999998</v>
-      </c>
-      <c r="J13" s="11">
-        <v>-3.8960300000000001</v>
-      </c>
-      <c r="K13" s="11">
-        <v>7.0569999999999994E-2</v>
-      </c>
-      <c r="L13" s="11">
-        <v>1.3398399999999999</v>
-      </c>
-      <c r="M13" s="11">
-        <v>2.9913799999999999</v>
-      </c>
-      <c r="N13" s="11">
-        <v>-1.20543</v>
-      </c>
-      <c r="O13" s="11">
-        <v>2.3645200000000002</v>
-      </c>
-      <c r="P13" s="11">
-        <v>0.55552999999999997</v>
-      </c>
-      <c r="Q13" s="11">
-        <v>-0.63124000000000002</v>
-      </c>
-      <c r="R13" s="11">
-        <v>1.7458499999999999</v>
-      </c>
-      <c r="S13" s="11">
-        <v>5.9109600000000002</v>
-      </c>
-      <c r="T13" s="11">
-        <v>-6.9598800000000001</v>
-      </c>
-      <c r="U13" s="11">
-        <v>-8.1140000000000004E-2</v>
-      </c>
-      <c r="V13" s="11">
-        <v>0.9012</v>
-      </c>
-      <c r="W13" s="11">
-        <v>14.61355</v>
-      </c>
-      <c r="X13" s="11">
-        <v>9.5617300000000007</v>
-      </c>
-      <c r="Y13" s="11">
-        <v>12.170730000000001</v>
-      </c>
-      <c r="Z13" s="11">
-        <v>25.01511</v>
-      </c>
-      <c r="AA13" s="11">
-        <v>23.148440000000001</v>
-      </c>
-      <c r="AB13" s="11">
-        <v>-1.20583</v>
-      </c>
-      <c r="AC13" s="11">
-        <v>-6.3379099999999999</v>
-      </c>
-      <c r="AD13" s="11">
-        <v>22.08175</v>
-      </c>
-      <c r="AE13" s="11">
-        <v>-0.31688</v>
-      </c>
-      <c r="AF13" s="11">
-        <v>28.841049999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
-        <v>23</v>
-      </c>
-      <c r="B14" s="11">
-        <v>-231.08642</v>
-      </c>
-      <c r="C14" s="11">
-        <v>3.7069800000000002</v>
-      </c>
-      <c r="D14" s="11">
-        <v>-3.4363800000000002</v>
-      </c>
-      <c r="E14" s="11">
-        <v>5.0125099999999998</v>
-      </c>
-      <c r="F14" s="11">
-        <v>6.9231800000000003</v>
-      </c>
-      <c r="G14" s="11">
-        <v>-1.83121</v>
-      </c>
-      <c r="H14" s="11">
-        <v>4.3337199999999996</v>
-      </c>
-      <c r="I14" s="11">
-        <v>7.5474500000000004</v>
-      </c>
-      <c r="J14" s="11">
-        <v>5.5583</v>
-      </c>
-      <c r="K14" s="11">
-        <v>2.1846700000000001</v>
-      </c>
-      <c r="L14" s="11">
-        <v>1.58606</v>
-      </c>
-      <c r="M14" s="11">
-        <v>2.31115</v>
-      </c>
-      <c r="N14" s="11">
-        <v>-7.7670000000000003E-2</v>
-      </c>
-      <c r="O14" s="11">
-        <v>3.9295599999999999</v>
-      </c>
-      <c r="P14" s="11">
-        <v>1.26827</v>
-      </c>
-      <c r="Q14" s="11">
-        <v>-1.7149399999999999</v>
-      </c>
-      <c r="R14" s="11">
-        <v>-1.02102</v>
-      </c>
-      <c r="S14" s="11">
-        <v>1.1072599999999999</v>
-      </c>
-      <c r="T14" s="11">
-        <v>-2.5938699999999999</v>
-      </c>
-      <c r="U14" s="11">
-        <v>-2.9235699999999998</v>
-      </c>
-      <c r="V14" s="11">
-        <v>0.36348999999999998</v>
-      </c>
-      <c r="W14" s="11">
-        <v>20.592359999999999</v>
-      </c>
-      <c r="X14" s="11">
-        <v>12.317159999999999</v>
-      </c>
-      <c r="Y14" s="11">
-        <v>13.35253</v>
-      </c>
-      <c r="Z14" s="11">
-        <v>25.79157</v>
-      </c>
-      <c r="AA14" s="11">
-        <v>16.730139999999999</v>
-      </c>
-      <c r="AB14" s="11">
-        <v>-1.9749000000000001</v>
-      </c>
-      <c r="AC14" s="11">
-        <v>-15.50507</v>
-      </c>
-      <c r="AD14" s="11">
-        <v>21.60819</v>
-      </c>
-      <c r="AE14" s="11">
-        <v>18.498809999999999</v>
-      </c>
-      <c r="AF14" s="11">
-        <v>29.397659999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
-        <v>24</v>
-      </c>
-      <c r="B15" s="11">
-        <v>-238.78699</v>
-      </c>
-      <c r="C15" s="11">
-        <v>4.65456</v>
-      </c>
-      <c r="D15" s="11">
-        <v>-3.0946199999999999</v>
-      </c>
-      <c r="E15" s="11">
-        <v>4.9356299999999997</v>
-      </c>
-      <c r="F15" s="11">
-        <v>6.7483599999999999</v>
-      </c>
-      <c r="G15" s="11">
-        <v>-5.2422599999999999</v>
-      </c>
-      <c r="H15" s="11">
-        <v>7.0850099999999996</v>
-      </c>
-      <c r="I15" s="11">
-        <v>6.6412800000000001</v>
-      </c>
-      <c r="J15" s="11">
-        <v>2.8816799999999998</v>
-      </c>
-      <c r="K15" s="11">
-        <v>0.95694000000000001</v>
-      </c>
-      <c r="L15" s="11">
-        <v>0.67469000000000001</v>
-      </c>
-      <c r="M15" s="11">
-        <v>0.89739000000000002</v>
-      </c>
-      <c r="N15" s="11">
-        <v>0.40050000000000002</v>
-      </c>
-      <c r="O15" s="11">
-        <v>5.0840399999999999</v>
-      </c>
-      <c r="P15" s="11">
-        <v>1.9917</v>
-      </c>
-      <c r="Q15" s="11">
-        <v>-0.56503000000000003</v>
-      </c>
-      <c r="R15" s="11">
-        <v>-1.2640800000000001</v>
-      </c>
-      <c r="S15" s="11">
-        <v>1.5264800000000001</v>
-      </c>
-      <c r="T15" s="11">
-        <v>-2.6276199999999998</v>
-      </c>
-      <c r="U15" s="11">
-        <v>-1.9858100000000001</v>
-      </c>
-      <c r="V15" s="11">
-        <v>0.77402000000000004</v>
-      </c>
-      <c r="W15" s="11">
-        <v>20.606729999999999</v>
-      </c>
-      <c r="X15" s="11">
-        <v>14.8163</v>
-      </c>
-      <c r="Y15" s="11">
-        <v>14.81096</v>
-      </c>
-      <c r="Z15" s="11">
-        <v>25.59873</v>
-      </c>
-      <c r="AA15" s="11">
-        <v>13.05411</v>
-      </c>
-      <c r="AB15" s="11">
-        <v>-3.69563</v>
-      </c>
-      <c r="AC15" s="11">
-        <v>-17.651389999999999</v>
-      </c>
-      <c r="AD15" s="11">
-        <v>24.62651</v>
-      </c>
-      <c r="AE15" s="11">
-        <v>3.9291200000000002</v>
-      </c>
-      <c r="AF15" s="11">
-        <v>26.374680000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
-        <v>25</v>
-      </c>
-      <c r="B16" s="11">
-        <v>-205.14447999999999</v>
-      </c>
-      <c r="C16" s="11">
-        <v>4.8384600000000004</v>
-      </c>
-      <c r="D16" s="11">
-        <v>-3.8927499999999999</v>
-      </c>
-      <c r="E16" s="11">
-        <v>6.5521599999999998</v>
-      </c>
-      <c r="F16" s="11">
-        <v>6.5386600000000001</v>
-      </c>
-      <c r="G16" s="11">
-        <v>-1.59571</v>
-      </c>
-      <c r="H16" s="11">
-        <v>6.8567499999999999</v>
-      </c>
-      <c r="I16" s="11">
-        <v>9.7293599999999998</v>
-      </c>
-      <c r="J16" s="11">
-        <v>-1.7201200000000001</v>
-      </c>
-      <c r="K16" s="11">
-        <v>-1.62801</v>
-      </c>
-      <c r="L16" s="11">
-        <v>-1.10866</v>
-      </c>
-      <c r="M16" s="11">
-        <v>2.4445299999999999</v>
-      </c>
-      <c r="N16" s="11">
-        <v>0.23507</v>
-      </c>
-      <c r="O16" s="11">
-        <v>3.0819899999999998</v>
-      </c>
-      <c r="P16" s="11">
-        <v>1.4753099999999999</v>
-      </c>
-      <c r="Q16" s="11">
-        <v>-0.86368999999999996</v>
-      </c>
-      <c r="R16" s="11">
-        <v>-1.44556</v>
-      </c>
-      <c r="S16" s="11">
-        <v>1.64686</v>
-      </c>
-      <c r="T16" s="11">
-        <v>-1.4358200000000001</v>
-      </c>
-      <c r="U16" s="11">
-        <v>-2.3094899999999998</v>
-      </c>
-      <c r="V16" s="11">
-        <v>0.46238000000000001</v>
-      </c>
-      <c r="W16" s="11">
-        <v>20.376149999999999</v>
-      </c>
-      <c r="X16" s="11">
-        <v>10.22827</v>
-      </c>
-      <c r="Y16" s="11">
-        <v>14.02516</v>
-      </c>
-      <c r="Z16" s="11">
-        <v>22.54832</v>
-      </c>
-      <c r="AA16" s="11">
-        <v>14.99672</v>
-      </c>
-      <c r="AB16" s="11">
-        <v>-1.27919</v>
-      </c>
-      <c r="AC16" s="11">
-        <v>-13.459709999999999</v>
-      </c>
-      <c r="AD16" s="11">
-        <v>24.070270000000001</v>
-      </c>
-      <c r="AE16" s="11">
-        <v>4.04392</v>
-      </c>
-      <c r="AF16" s="11">
-        <v>28.966460000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
-        <v>26</v>
-      </c>
-      <c r="B17" s="11">
-        <v>-206.95837</v>
-      </c>
-      <c r="C17" s="11">
-        <v>5.0258799999999999</v>
-      </c>
-      <c r="D17" s="11">
-        <v>-3.19177</v>
-      </c>
-      <c r="E17" s="11">
-        <v>0.24829000000000001</v>
-      </c>
-      <c r="F17" s="11">
-        <v>-3.5150800000000002</v>
-      </c>
-      <c r="G17" s="11">
-        <v>-9.8474500000000003</v>
-      </c>
-      <c r="H17" s="11">
-        <v>8.0316399999999994</v>
-      </c>
-      <c r="I17" s="11">
-        <v>5.57599</v>
-      </c>
-      <c r="J17" s="11">
-        <v>2.6524899999999998</v>
-      </c>
-      <c r="K17" s="11">
-        <v>-1.4350799999999999</v>
-      </c>
-      <c r="L17" s="11">
-        <v>-0.71852000000000005</v>
-      </c>
-      <c r="M17" s="11">
-        <v>-3.2879299999999998</v>
-      </c>
-      <c r="N17" s="11">
-        <v>0.54373000000000005</v>
-      </c>
-      <c r="O17" s="11">
-        <v>3.5720499999999999</v>
-      </c>
-      <c r="P17" s="11">
-        <v>1.82996</v>
-      </c>
-      <c r="Q17" s="11">
-        <v>-0.64825999999999995</v>
-      </c>
-      <c r="R17" s="11">
-        <v>-0.99766999999999995</v>
-      </c>
-      <c r="S17" s="11">
-        <v>1.6202700000000001</v>
-      </c>
-      <c r="T17" s="11">
-        <v>-2.0163899999999999</v>
-      </c>
-      <c r="U17" s="11">
-        <v>-1.94129</v>
-      </c>
-      <c r="V17" s="11">
-        <v>0.78946000000000005</v>
-      </c>
-      <c r="W17" s="11">
-        <v>19.27637</v>
-      </c>
-      <c r="X17" s="11">
-        <v>20.013739999999999</v>
-      </c>
-      <c r="Y17" s="11">
-        <v>13.38846</v>
-      </c>
-      <c r="Z17" s="11">
-        <v>20.599509999999999</v>
-      </c>
-      <c r="AA17" s="11">
-        <v>12.723240000000001</v>
-      </c>
-      <c r="AB17" s="11">
-        <v>-2.4009800000000001</v>
-      </c>
-      <c r="AC17" s="11">
-        <v>-8.34511</v>
-      </c>
-      <c r="AD17" s="11">
-        <v>21.689029999999999</v>
-      </c>
-      <c r="AE17" s="11">
-        <v>10.57109</v>
-      </c>
-      <c r="AF17" s="11">
-        <v>26.31617</v>
-      </c>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
-        <v>27</v>
-      </c>
-      <c r="B18" s="11">
-        <v>-213.81388000000001</v>
-      </c>
-      <c r="C18" s="11">
-        <v>8.5133100000000006</v>
-      </c>
-      <c r="D18" s="11">
-        <v>1.44333</v>
-      </c>
-      <c r="E18" s="11">
-        <v>4.2114200000000004</v>
-      </c>
-      <c r="F18" s="11">
-        <v>4.3228299999999997</v>
-      </c>
-      <c r="G18" s="11">
-        <v>-0.80254999999999999</v>
-      </c>
-      <c r="H18" s="11">
-        <v>3.0410300000000001</v>
-      </c>
-      <c r="I18" s="11">
-        <v>3.9335100000000001</v>
-      </c>
-      <c r="J18" s="11">
-        <v>-2.3654899999999999</v>
-      </c>
-      <c r="K18" s="11">
-        <v>1.1945699999999999</v>
-      </c>
-      <c r="L18" s="11">
-        <v>2.1389100000000001</v>
-      </c>
-      <c r="M18" s="11">
-        <v>3.2950400000000002</v>
-      </c>
-      <c r="N18" s="11">
-        <v>2.3900000000000002E-3</v>
-      </c>
-      <c r="O18" s="11">
-        <v>2.8688799999999999</v>
-      </c>
-      <c r="P18" s="11">
-        <v>1.0631699999999999</v>
-      </c>
-      <c r="Q18" s="11">
-        <v>-0.64093</v>
-      </c>
-      <c r="R18" s="11">
-        <v>-0.40083999999999997</v>
-      </c>
-      <c r="S18" s="11">
-        <v>1.1153200000000001</v>
-      </c>
-      <c r="T18" s="11">
-        <v>-4.4072800000000001</v>
-      </c>
-      <c r="U18" s="11">
-        <v>-2.7641200000000001</v>
-      </c>
-      <c r="V18" s="11">
-        <v>0.15962000000000001</v>
-      </c>
-      <c r="W18" s="11">
-        <v>15.5661</v>
-      </c>
-      <c r="X18" s="11">
-        <v>12.07743</v>
-      </c>
-      <c r="Y18" s="11">
-        <v>13.79501</v>
-      </c>
-      <c r="Z18" s="11">
-        <v>26.903980000000001</v>
-      </c>
-      <c r="AA18" s="11">
-        <v>17.2134</v>
-      </c>
-      <c r="AB18" s="11">
-        <v>-1.3295999999999999</v>
-      </c>
-      <c r="AC18" s="11">
-        <v>-11.474489999999999</v>
-      </c>
-      <c r="AD18" s="11">
-        <v>24.885280000000002</v>
-      </c>
-      <c r="AE18" s="11">
-        <v>7.0375899999999998</v>
-      </c>
-      <c r="AF18" s="11">
-        <v>27.472049999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
-        <v>28</v>
-      </c>
-      <c r="B19" s="11">
-        <v>-214.03289000000001</v>
-      </c>
-      <c r="C19" s="11">
-        <v>13.071949999999999</v>
-      </c>
-      <c r="D19" s="11">
-        <v>5.4270300000000002</v>
-      </c>
-      <c r="E19" s="11">
-        <v>8.0186399999999995</v>
-      </c>
-      <c r="F19" s="11">
-        <v>1.5392600000000001</v>
-      </c>
-      <c r="G19" s="11">
-        <v>-2.62921</v>
-      </c>
-      <c r="H19" s="11">
-        <v>0.12280000000000001</v>
-      </c>
-      <c r="I19" s="11">
-        <v>3.7151700000000001</v>
-      </c>
-      <c r="J19" s="11">
-        <v>-4.0275400000000001</v>
-      </c>
-      <c r="K19" s="11">
-        <v>0.46869</v>
-      </c>
-      <c r="L19" s="11">
-        <v>2.4309999999999998E-2</v>
-      </c>
-      <c r="M19" s="11">
-        <v>1.6684300000000001</v>
-      </c>
-      <c r="N19" s="11">
-        <v>-1.4475100000000001</v>
-      </c>
-      <c r="O19" s="11">
-        <v>1.7459199999999999</v>
-      </c>
-      <c r="P19" s="11">
-        <v>4.8070000000000002E-2</v>
-      </c>
-      <c r="Q19" s="11">
-        <v>-1.64723</v>
-      </c>
-      <c r="R19" s="11">
-        <v>-1.94252</v>
-      </c>
-      <c r="S19" s="11">
-        <v>1.16656</v>
-      </c>
-      <c r="T19" s="11">
-        <v>0.94796999999999998</v>
-      </c>
-      <c r="U19" s="11">
-        <v>-3.05796</v>
-      </c>
-      <c r="V19" s="11">
-        <v>-0.1779</v>
-      </c>
-      <c r="W19" s="11">
-        <v>11.51408</v>
-      </c>
-      <c r="X19" s="11">
-        <v>13.23959</v>
-      </c>
-      <c r="Y19" s="11">
-        <v>11.101150000000001</v>
-      </c>
-      <c r="Z19" s="11">
-        <v>25.60867</v>
-      </c>
-      <c r="AA19" s="11">
-        <v>14.899940000000001</v>
-      </c>
-      <c r="AB19" s="11">
-        <v>1.2214</v>
-      </c>
-      <c r="AC19" s="11">
-        <v>-9.8694699999999997</v>
-      </c>
-      <c r="AD19" s="11">
-        <v>25.26793</v>
-      </c>
-      <c r="AE19" s="11">
-        <v>10.31584</v>
-      </c>
-      <c r="AF19" s="11">
-        <v>28.924779999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
-        <v>29</v>
-      </c>
-      <c r="B20" s="11">
-        <v>-209.40953999999999</v>
-      </c>
-      <c r="C20" s="11">
-        <v>13.719290000000001</v>
-      </c>
-      <c r="D20" s="11">
-        <v>6.4076000000000004</v>
-      </c>
-      <c r="E20" s="11">
-        <v>4.07599</v>
-      </c>
-      <c r="F20" s="11">
-        <v>1.3171900000000001</v>
-      </c>
-      <c r="G20" s="11">
-        <v>-3.47993</v>
-      </c>
-      <c r="H20" s="11">
-        <v>-0.11129</v>
-      </c>
-      <c r="I20" s="11">
-        <v>1.08111</v>
-      </c>
-      <c r="J20" s="11">
-        <v>-7.1151099999999996</v>
-      </c>
-      <c r="K20" s="11">
-        <v>-1.4831700000000001</v>
-      </c>
-      <c r="L20" s="11">
-        <v>-0.86429</v>
-      </c>
-      <c r="M20" s="11">
-        <v>0.96675999999999995</v>
-      </c>
-      <c r="N20" s="11">
-        <v>-1.6748000000000001</v>
-      </c>
-      <c r="O20" s="11">
-        <v>2.0182799999999999</v>
-      </c>
-      <c r="P20" s="11">
-        <v>0.16446</v>
-      </c>
-      <c r="Q20" s="11">
-        <v>-0.78549000000000002</v>
-      </c>
-      <c r="R20" s="11">
-        <v>-1.71469</v>
-      </c>
-      <c r="S20" s="11">
-        <v>1.3209599999999999</v>
-      </c>
-      <c r="T20" s="11">
-        <v>-5.8250999999999999</v>
-      </c>
-      <c r="U20" s="11">
-        <v>-1.26461</v>
-      </c>
-      <c r="V20" s="11">
-        <v>0.27160000000000001</v>
-      </c>
-      <c r="W20" s="11">
-        <v>11.53317</v>
-      </c>
-      <c r="X20" s="11">
-        <v>13.34075</v>
-      </c>
-      <c r="Y20" s="11">
-        <v>13.30864</v>
-      </c>
-      <c r="Z20" s="11">
-        <v>25.716339999999999</v>
-      </c>
-      <c r="AA20" s="11">
-        <v>11.45444</v>
-      </c>
-      <c r="AB20" s="11">
-        <v>0.32700000000000001</v>
-      </c>
-      <c r="AC20" s="11">
-        <v>-8.8127099999999992</v>
-      </c>
-      <c r="AD20" s="11">
-        <v>24.010090000000002</v>
-      </c>
-      <c r="AE20" s="11">
-        <v>7.5750400000000004</v>
-      </c>
-      <c r="AF20" s="11">
-        <v>32.584699999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
-        <v>30</v>
-      </c>
-      <c r="B21" s="11">
-        <v>-190.67312000000001</v>
-      </c>
-      <c r="C21" s="11">
-        <v>4.4744999999999999</v>
-      </c>
-      <c r="D21" s="11">
-        <v>1.3982300000000001</v>
-      </c>
-      <c r="E21" s="11">
-        <v>3.60961</v>
-      </c>
-      <c r="F21" s="11">
-        <v>1.62954</v>
-      </c>
-      <c r="G21" s="11">
-        <v>-2.4508000000000001</v>
-      </c>
-      <c r="H21" s="11">
-        <v>1.0096700000000001</v>
-      </c>
-      <c r="I21" s="11">
-        <v>2.2568199999999998</v>
-      </c>
-      <c r="J21" s="11">
-        <v>-5.39018</v>
-      </c>
-      <c r="K21" s="11">
-        <v>-1.1648700000000001</v>
-      </c>
-      <c r="L21" s="11">
-        <v>-1.0197099999999999</v>
-      </c>
-      <c r="M21" s="11">
-        <v>0.96281000000000005</v>
-      </c>
-      <c r="N21" s="11">
-        <v>-0.69238999999999995</v>
-      </c>
-      <c r="O21" s="11">
-        <v>2.3091400000000002</v>
-      </c>
-      <c r="P21" s="11">
-        <v>0.84738000000000002</v>
-      </c>
-      <c r="Q21" s="11">
-        <v>0.40022000000000002</v>
-      </c>
-      <c r="R21" s="11">
-        <v>-0.14729999999999999</v>
-      </c>
-      <c r="S21" s="11">
-        <v>2.4879199999999999</v>
-      </c>
-      <c r="T21" s="11">
-        <v>2.9090500000000001</v>
-      </c>
-      <c r="U21" s="11">
-        <v>-1.06576</v>
-      </c>
-      <c r="V21" s="11">
-        <v>0.43736000000000003</v>
-      </c>
-      <c r="W21" s="11">
-        <v>16.642040000000001</v>
-      </c>
-      <c r="X21" s="11">
-        <v>12.72819</v>
-      </c>
-      <c r="Y21" s="11">
-        <v>12.16611</v>
-      </c>
-      <c r="Z21" s="11">
-        <v>22.779589999999999</v>
-      </c>
-      <c r="AA21" s="11">
-        <v>14.736599999999999</v>
-      </c>
-      <c r="AB21" s="11">
-        <v>-0.21859000000000001</v>
-      </c>
-      <c r="AC21" s="11">
-        <v>-9.8631700000000002</v>
-      </c>
-      <c r="AD21" s="11">
-        <v>25.101489999999998</v>
-      </c>
-      <c r="AE21" s="11">
-        <v>7.31684</v>
-      </c>
-      <c r="AF21" s="11">
-        <v>27.630839999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
-        <v>31</v>
-      </c>
-      <c r="B22" s="11">
-        <v>-300.49686000000003</v>
-      </c>
-      <c r="C22" s="11">
-        <v>4.0916800000000002</v>
-      </c>
-      <c r="D22" s="11">
-        <v>0.54705000000000004</v>
-      </c>
-      <c r="E22" s="11">
-        <v>3.3019699999999998</v>
-      </c>
-      <c r="F22" s="11">
-        <v>4.87479</v>
-      </c>
-      <c r="G22" s="11">
-        <v>8.2589999999999997E-2</v>
-      </c>
-      <c r="H22" s="11">
-        <v>2.43241</v>
-      </c>
-      <c r="I22" s="11">
-        <v>2.3904000000000001</v>
-      </c>
-      <c r="J22" s="11">
-        <v>-3.2682500000000001</v>
-      </c>
-      <c r="K22" s="11">
-        <v>-1.5230300000000001</v>
-      </c>
-      <c r="L22" s="11">
-        <v>-1.19346</v>
-      </c>
-      <c r="M22" s="11">
-        <v>2.23312</v>
-      </c>
-      <c r="N22" s="11">
-        <v>-5.7777399999999997</v>
-      </c>
-      <c r="O22" s="11">
-        <v>1.3843000000000001</v>
-      </c>
-      <c r="P22" s="11">
-        <v>-0.69421999999999995</v>
-      </c>
-      <c r="Q22" s="11">
-        <v>-5.2562300000000004</v>
-      </c>
-      <c r="R22" s="11">
-        <v>-5.5831900000000001</v>
-      </c>
-      <c r="S22" s="11">
-        <v>18.299949999999999</v>
-      </c>
-      <c r="T22" s="11">
-        <v>-12.275650000000001</v>
-      </c>
-      <c r="U22" s="11">
-        <v>-5.2279499999999999</v>
-      </c>
-      <c r="V22" s="11">
-        <v>25.014199999999999</v>
-      </c>
-      <c r="W22" s="11">
-        <v>12.298730000000001</v>
-      </c>
-      <c r="X22" s="11">
-        <v>7.0439299999999996</v>
-      </c>
-      <c r="Y22" s="11">
-        <v>10.75339</v>
-      </c>
-      <c r="Z22" s="11">
-        <v>31.476680000000002</v>
-      </c>
-      <c r="AA22" s="11">
-        <v>43.446440000000003</v>
-      </c>
-      <c r="AB22" s="11">
-        <v>-1.8587800000000001</v>
-      </c>
-      <c r="AC22" s="11">
-        <v>-6.6738799999999996</v>
-      </c>
-      <c r="AD22" s="11">
-        <v>27.973800000000001</v>
-      </c>
-      <c r="AE22" s="11">
-        <v>5.6674699999999998</v>
-      </c>
-      <c r="AF22" s="11">
-        <v>32.284619999999997</v>
-      </c>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
-        <v>32</v>
-      </c>
-      <c r="B23" s="11">
-        <v>-261.15974</v>
-      </c>
-      <c r="C23" s="11">
-        <v>3.3696999999999999</v>
-      </c>
-      <c r="D23" s="11">
-        <v>-0.48103000000000001</v>
-      </c>
-      <c r="E23" s="11">
-        <v>3.1672099999999999</v>
-      </c>
-      <c r="F23" s="11">
-        <v>4.5004600000000003</v>
-      </c>
-      <c r="G23" s="11">
-        <v>-0.22015000000000001</v>
-      </c>
-      <c r="H23" s="11">
-        <v>1.97631</v>
-      </c>
-      <c r="I23" s="11">
-        <v>2.0379299999999998</v>
-      </c>
-      <c r="J23" s="11">
-        <v>-4.1591699999999996</v>
-      </c>
-      <c r="K23" s="11">
-        <v>-3.7833299999999999</v>
-      </c>
-      <c r="L23" s="11">
-        <v>-2.6114199999999999</v>
-      </c>
-      <c r="M23" s="11">
-        <v>2.6085099999999999</v>
-      </c>
-      <c r="N23" s="11">
-        <v>-2.9048600000000002</v>
-      </c>
-      <c r="O23" s="11">
-        <v>2.3190900000000001</v>
-      </c>
-      <c r="P23" s="11">
-        <v>0.78852999999999995</v>
-      </c>
-      <c r="Q23" s="11">
-        <v>-3.9268800000000001</v>
-      </c>
-      <c r="R23" s="11">
-        <v>-1.86948</v>
-      </c>
-      <c r="S23" s="11">
-        <v>13.029159999999999</v>
-      </c>
-      <c r="T23" s="11">
-        <v>-8.9691799999999997</v>
-      </c>
-      <c r="U23" s="11">
-        <v>0.59014</v>
-      </c>
-      <c r="V23" s="11">
-        <v>27.88748</v>
-      </c>
-      <c r="W23" s="11">
-        <v>13.981</v>
-      </c>
-      <c r="X23" s="11">
-        <v>8.3143899999999995</v>
-      </c>
-      <c r="Y23" s="11">
-        <v>13.793340000000001</v>
-      </c>
-      <c r="Z23" s="11">
-        <v>26.78022</v>
-      </c>
-      <c r="AA23" s="11">
-        <v>33.201189999999997</v>
-      </c>
-      <c r="AB23" s="11">
-        <v>-2.7328000000000001</v>
-      </c>
-      <c r="AC23" s="11">
-        <v>-7.4546799999999998</v>
-      </c>
-      <c r="AD23" s="11">
-        <v>27.726040000000001</v>
-      </c>
-      <c r="AE23" s="11">
-        <v>4.2411099999999999</v>
-      </c>
-      <c r="AF23" s="11">
-        <v>33.725740000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
-        <v>33</v>
-      </c>
-      <c r="B24" s="11">
-        <v>-209.13835</v>
-      </c>
-      <c r="C24" s="11">
-        <v>1.65211</v>
-      </c>
-      <c r="D24" s="11">
-        <v>-1.2057899999999999</v>
-      </c>
-      <c r="E24" s="11">
-        <v>2.5405000000000002</v>
-      </c>
-      <c r="F24" s="11">
-        <v>4.1161500000000002</v>
-      </c>
-      <c r="G24" s="11">
-        <v>1.0149999999999999E-2</v>
-      </c>
-      <c r="H24" s="11">
-        <v>1.5062800000000001</v>
-      </c>
-      <c r="I24" s="11">
-        <v>2.4677699999999998</v>
-      </c>
-      <c r="J24" s="11">
-        <v>-4.8549100000000003</v>
-      </c>
-      <c r="K24" s="11">
-        <v>9.6699999999999998E-3</v>
-      </c>
-      <c r="L24" s="11">
-        <v>-7.4000000000000003E-3</v>
-      </c>
-      <c r="M24" s="11">
-        <v>5.7676499999999997</v>
-      </c>
-      <c r="N24" s="11">
-        <v>-3.3548900000000001</v>
-      </c>
-      <c r="O24" s="11">
-        <v>1.5770200000000001</v>
-      </c>
-      <c r="P24" s="11">
-        <v>-0.89293999999999996</v>
-      </c>
-      <c r="Q24" s="11">
-        <v>-2.6478999999999999</v>
-      </c>
-      <c r="R24" s="11">
-        <v>-1.0258100000000001</v>
-      </c>
-      <c r="S24" s="11">
-        <v>7.2777900000000004</v>
-      </c>
-      <c r="T24" s="11">
-        <v>-8.53139</v>
-      </c>
-      <c r="U24" s="11">
-        <v>0.89190000000000003</v>
-      </c>
-      <c r="V24" s="11">
-        <v>0.94835999999999998</v>
-      </c>
-      <c r="W24" s="11">
-        <v>17.79813</v>
-      </c>
-      <c r="X24" s="11">
-        <v>9.9678000000000004</v>
-      </c>
-      <c r="Y24" s="11">
-        <v>11.349320000000001</v>
-      </c>
-      <c r="Z24" s="11">
-        <v>28.23826</v>
-      </c>
-      <c r="AA24" s="11">
-        <v>25.775680000000001</v>
-      </c>
-      <c r="AB24" s="11">
-        <v>1.9282300000000001</v>
-      </c>
-      <c r="AC24" s="11">
-        <v>-9.4360199999999992</v>
-      </c>
-      <c r="AD24" s="11">
-        <v>26.882110000000001</v>
-      </c>
-      <c r="AE24" s="11">
-        <v>2.5265300000000002</v>
-      </c>
-      <c r="AF24" s="11">
-        <v>31.537240000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A25" s="11">
-        <v>34</v>
-      </c>
-      <c r="B25" s="11">
-        <v>-217.78455</v>
-      </c>
-      <c r="C25" s="11">
-        <v>1.1278600000000001</v>
-      </c>
-      <c r="D25" s="11">
-        <v>-1.07748</v>
-      </c>
-      <c r="E25" s="11">
-        <v>2.21889</v>
-      </c>
-      <c r="F25" s="11">
-        <v>4.5467399999999998</v>
-      </c>
-      <c r="G25" s="11">
-        <v>-3.6249999999999998E-2</v>
-      </c>
-      <c r="H25" s="11">
-        <v>2.6413600000000002</v>
-      </c>
-      <c r="I25" s="11">
-        <v>3.1198800000000002</v>
-      </c>
-      <c r="J25" s="11">
-        <v>-3.5422500000000001</v>
-      </c>
-      <c r="K25" s="11">
-        <v>1.68397</v>
-      </c>
-      <c r="L25" s="11">
-        <v>-0.14502999999999999</v>
-      </c>
-      <c r="M25" s="11">
-        <v>12.55401</v>
-      </c>
-      <c r="N25" s="11">
-        <v>-2.8531399999999998</v>
-      </c>
-      <c r="O25" s="11">
-        <v>1.6633</v>
-      </c>
-      <c r="P25" s="11">
-        <v>-1.0867599999999999</v>
-      </c>
-      <c r="Q25" s="11">
-        <v>-1.32039</v>
-      </c>
-      <c r="R25" s="11">
-        <v>-1.80742</v>
-      </c>
-      <c r="S25" s="11">
-        <v>0.65561999999999998</v>
-      </c>
-      <c r="T25" s="11">
-        <v>-7.33202</v>
-      </c>
-      <c r="U25" s="11">
-        <v>-0.14272000000000001</v>
-      </c>
-      <c r="V25" s="11">
-        <v>0.51107999999999998</v>
-      </c>
-      <c r="W25" s="11">
-        <v>19.766539999999999</v>
-      </c>
-      <c r="X25" s="11">
-        <v>10.805110000000001</v>
-      </c>
-      <c r="Y25" s="11">
-        <v>14.008760000000001</v>
-      </c>
-      <c r="Z25" s="11">
-        <v>29.030280000000001</v>
-      </c>
-      <c r="AA25" s="11">
-        <v>16.746320000000001</v>
-      </c>
-      <c r="AB25" s="11">
-        <v>2.8140200000000002</v>
-      </c>
-      <c r="AC25" s="11">
-        <v>-12.71382</v>
-      </c>
-      <c r="AD25" s="11">
-        <v>25.02908</v>
-      </c>
-      <c r="AE25" s="11">
-        <v>-0.85257000000000005</v>
-      </c>
-      <c r="AF25" s="11">
-        <v>24.632960000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
-        <v>35</v>
-      </c>
-      <c r="B26" s="11">
-        <v>-237.87134</v>
-      </c>
-      <c r="C26" s="11">
-        <v>8.1273599999999995</v>
-      </c>
-      <c r="D26" s="11">
-        <v>2.0770900000000001</v>
-      </c>
-      <c r="E26" s="11">
-        <v>3.9188000000000001</v>
-      </c>
-      <c r="F26" s="11">
-        <v>5.2875699999999997</v>
-      </c>
-      <c r="G26" s="11">
-        <v>0.66100000000000003</v>
-      </c>
-      <c r="H26" s="11">
-        <v>4.4154</v>
-      </c>
-      <c r="I26" s="11">
-        <v>3.5265</v>
-      </c>
-      <c r="J26" s="11">
-        <v>-5.0542299999999996</v>
-      </c>
-      <c r="K26" s="11">
-        <v>-0.24753</v>
-      </c>
-      <c r="L26" s="11">
-        <v>-2.84273</v>
-      </c>
-      <c r="M26" s="11">
-        <v>18.44313</v>
-      </c>
-      <c r="N26" s="11">
-        <v>-0.61956999999999995</v>
-      </c>
-      <c r="O26" s="11">
-        <v>2.8444699999999998</v>
-      </c>
-      <c r="P26" s="11">
-        <v>0.48742000000000002</v>
-      </c>
-      <c r="Q26" s="11">
-        <v>0.12584999999999999</v>
-      </c>
-      <c r="R26" s="11">
-        <v>-0.18773000000000001</v>
-      </c>
-      <c r="S26" s="11">
-        <v>1.24207</v>
-      </c>
-      <c r="T26" s="11">
-        <v>-4.3499699999999999</v>
-      </c>
-      <c r="U26" s="11">
-        <v>-1.9362699999999999</v>
-      </c>
-      <c r="V26" s="11">
-        <v>-0.43508000000000002</v>
-      </c>
-      <c r="W26" s="11">
-        <v>15.03195</v>
-      </c>
-      <c r="X26" s="11">
-        <v>10.388389999999999</v>
-      </c>
-      <c r="Y26" s="11">
-        <v>17.312349999999999</v>
-      </c>
-      <c r="Z26" s="11">
-        <v>26.601800000000001</v>
-      </c>
-      <c r="AA26" s="11">
-        <v>14.872199999999999</v>
-      </c>
-      <c r="AB26" s="11">
-        <v>-0.21748999999999999</v>
-      </c>
-      <c r="AC26" s="11">
-        <v>-12.717460000000001</v>
-      </c>
-      <c r="AD26" s="11">
-        <v>26.05349</v>
-      </c>
-      <c r="AE26" s="11">
-        <v>0.5756</v>
-      </c>
-      <c r="AF26" s="11">
-        <v>25.153459999999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010005EDA4EBA40014468BD70616C7A96D14" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="50721e4afd631f278bee133812e5fef0">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="051e4247-5afa-41d6-9ecb-95bb5262d825" xmlns:ns3="1bccae83-48d9-4882-b875-c21b283dc0ec" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="879b5544f3aba6c4b909f13333d8de76" ns2:_="" ns3:_="">
+    <xsd:import namespace="051e4247-5afa-41d6-9ecb-95bb5262d825"/>
+    <xsd:import namespace="1bccae83-48d9-4882-b875-c21b283dc0ec"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:ToPerson" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:Comments" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="051e4247-5afa-41d6-9ecb-95bb5262d825" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="ToPerson" ma:index="10" nillable="true" ma:displayName="To Person" ma:description="The file was intended for this individual" ma:format="Dropdown" ma:list="UserInfo" ma:SharePointGroup="0" ma:internalName="ToPerson">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:User">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="11" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="12" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Comments" ma:index="13" nillable="true" ma:displayName="Comments" ma:description="comments, description, purpose, etc" ma:format="Dropdown" ma:internalName="Comments">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="16" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="17" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="19" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="c03f8475-640f-4944-9dcc-2d3788384b7c" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="21" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="22" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="23" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="25" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="26" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1bccae83-48d9-4882-b875-c21b283dc0ec" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="14" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="15" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="20" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{f515cb03-89b1-45a4-9671-02e9b54e5b85}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="1bccae83-48d9-4882-b875-c21b283dc0ec">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48A2E703-BCA7-40A7-82C2-5D45342204F1}">
-  <dimension ref="A1:B26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="16">
-        <v>11</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
-        <v>12</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
-        <v>13</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
-        <v>14</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
-        <v>15</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
-        <v>16</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
-        <v>17</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
-        <v>18</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
-        <v>19</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
-        <v>20</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
-        <v>21</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
-        <v>22</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
-        <v>23</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="16">
-        <v>24</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="16">
-        <v>25</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="16">
-        <v>26</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="16">
-        <v>27</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="16">
-        <v>28</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="16">
-        <v>29</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="16">
-        <v>30</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="16">
-        <v>31</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="16">
-        <v>32</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="16">
-        <v>33</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="16">
-        <v>34</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="20">
-        <v>35</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>117</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Comments xmlns="051e4247-5afa-41d6-9ecb-95bb5262d825" xsi:nil="true"/>
+    <TaxCatchAll xmlns="1bccae83-48d9-4882-b875-c21b283dc0ec" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="051e4247-5afa-41d6-9ecb-95bb5262d825">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <ToPerson xmlns="051e4247-5afa-41d6-9ecb-95bb5262d825">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </ToPerson>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AEE72F18-86F8-48BA-A940-13F2294F8271}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31881EA9-49CB-48AE-9101-8BED38825D25}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E39570D2-4AFB-48ED-BB95-E5C2EA11C35C}"/>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>

--- a/Misc/FEC_EcositePredictor/reference/FEC_EcositePredictor.xlsx
+++ b/Misc/FEC_EcositePredictor/reference/FEC_EcositePredictor.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ontariogov-my.sharepoint.com/personal/glen_watt_ontario_ca/Documents/Laptop_Feb2024/OLD_GROWTH/Dawn_B/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\MNR_SR_External\GI_MGMT\GISupport\OldGrowthAnalysis\Documents_GWatt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="344" documentId="8_{A14C0133-3C12-4172-A6DC-864A58E6BE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D75E0097-21C7-46F8-9E7F-D193925BABD2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D49DB22-8E40-4DB3-B13C-5C8D86E14300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{81CC09A0-CCBA-490A-882D-74783881A46D}"/>
   </bookViews>
@@ -3138,7 +3138,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3BAB770-D548-4A89-9CE4-B3603514F2DA}">
   <dimension ref="B1:Z9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3270,13 +3270,13 @@
         <v>0</v>
       </c>
       <c r="H4" s="30">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I4" s="30">
         <v>0</v>
       </c>
       <c r="J4" s="30">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="K4" s="30">
         <v>0</v>
@@ -3321,7 +3321,7 @@
         <v>0</v>
       </c>
       <c r="Z4" s="38">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
@@ -3409,12 +3409,12 @@
     <row r="9" spans="2:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K9" s="44">
         <f>'Central Ontario FEC'!G62</f>
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="L9" s="45"/>
       <c r="M9" s="46" t="str">
         <f>'Central Ontario FEC'!I62</f>
-        <v>CeSbL</v>
+        <v>PoBw</v>
       </c>
       <c r="N9" s="45"/>
     </row>
@@ -3439,9 +3439,7 @@
   </sheetPr>
   <dimension ref="B2:CP85"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W5" sqref="W5"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3727,7 +3725,7 @@
       </c>
       <c r="U4" s="6">
         <f>'User Entry'!H4</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V4" s="6">
         <f>'User Entry'!I4</f>
@@ -3735,14 +3733,14 @@
       </c>
       <c r="W4" s="6">
         <f>'User Entry'!J4</f>
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="X4" s="6">
         <f>D4+E4+F4</f>
         <v>0</v>
       </c>
       <c r="Y4" s="6">
-        <f>G4+H4+I4+J4+K4+N4</f>
+        <f>G4+H4+I4+J4+K4+N4+'User Entry'!X4</f>
         <v>0</v>
       </c>
       <c r="Z4" s="6">
@@ -3751,7 +3749,7 @@
       </c>
       <c r="AA4" s="6">
         <f>O4+P4+Q4+R4+S4+T4+U4+V4+W4</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
@@ -3760,11 +3758,11 @@
       <c r="AF4" s="6"/>
       <c r="AG4" s="6">
         <f>'User Entry'!Z4</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP4" s="25">
         <f>SUM(D4:M4,O4:V4)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:42" x14ac:dyDescent="0.25">
@@ -3816,7 +3814,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="8">
-        <f>IF(AND(O4&lt;30,P4&lt;20,G4&lt;20, K4&lt;20),N4^0.5,0)</f>
+        <f>IF(AND(O4&lt;30,P4&lt;20,Q4&lt;20,G4&lt;20, F4&lt;20,K4&lt;20),N4^0.5,0)</f>
         <v>0</v>
       </c>
       <c r="O5" s="8">
@@ -3845,7 +3843,7 @@
       </c>
       <c r="U5" s="8">
         <f t="shared" si="0"/>
-        <v>3.1622776601683795</v>
+        <v>0</v>
       </c>
       <c r="V5" s="8">
         <f t="shared" si="0"/>
@@ -3853,7 +3851,7 @@
       </c>
       <c r="W5" s="8">
         <f>IF(OR(O4&gt;10,P4&gt;10,Q4&gt;10,G4&gt;10,K4&gt;10),0,W4^0.5)</f>
-        <v>9.4868329805051381</v>
+        <v>0</v>
       </c>
       <c r="X5" s="8">
         <f t="shared" si="0"/>
@@ -3869,7 +3867,7 @@
       </c>
       <c r="AA5" s="8">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AB5" s="8">
         <f>IF(P4&gt;=50,1,0)</f>
@@ -3893,7 +3891,7 @@
       </c>
       <c r="AG5" s="8">
         <f>IF(AG4&lt;=1,1,IF(AG4=2,2,IF(AG4&gt;=3,3)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:42" x14ac:dyDescent="0.25">
@@ -6633,7 +6631,7 @@
       </c>
       <c r="U35" s="8">
         <f t="shared" si="1"/>
-        <v>-22.478355046221687</v>
+        <v>0</v>
       </c>
       <c r="V35" s="8">
         <f t="shared" si="1"/>
@@ -6641,7 +6639,7 @@
       </c>
       <c r="W35" s="8">
         <f t="shared" si="1"/>
-        <v>9.3363718094343273</v>
+        <v>0</v>
       </c>
       <c r="X35" s="8">
         <f t="shared" si="1"/>
@@ -6657,7 +6655,7 @@
       </c>
       <c r="AA35" s="8">
         <f t="shared" si="1"/>
-        <v>262.03910000000002</v>
+        <v>0</v>
       </c>
       <c r="AB35" s="8">
         <f t="shared" si="1"/>
@@ -6681,11 +6679,11 @@
       </c>
       <c r="AG35" s="17">
         <f t="shared" si="1"/>
-        <v>61.134419999999999</v>
+        <v>30.567209999999999</v>
       </c>
       <c r="AH35" s="18">
         <f>SUM(C35:AG35)</f>
-        <v>110.98611676321266</v>
+        <v>-168.47821000000002</v>
       </c>
       <c r="AJ35" s="19" t="s">
         <v>69</v>
@@ -6772,7 +6770,7 @@
       </c>
       <c r="U36" s="8">
         <f t="shared" si="1"/>
-        <v>-29.764780362451862</v>
+        <v>0</v>
       </c>
       <c r="V36" s="8">
         <f t="shared" si="1"/>
@@ -6780,7 +6778,7 @@
       </c>
       <c r="W36" s="8">
         <f t="shared" si="1"/>
-        <v>5.0165424117613115</v>
+        <v>0</v>
       </c>
       <c r="X36" s="8">
         <f t="shared" si="1"/>
@@ -6796,7 +6794,7 @@
       </c>
       <c r="AA36" s="8">
         <f t="shared" si="1"/>
-        <v>309.8802</v>
+        <v>0</v>
       </c>
       <c r="AB36" s="8">
         <f t="shared" si="1"/>
@@ -6820,11 +6818,11 @@
       </c>
       <c r="AG36" s="17">
         <f t="shared" si="1"/>
-        <v>52.947279999999999</v>
+        <v>26.47364</v>
       </c>
       <c r="AH36" s="18">
         <f t="shared" ref="AH36:AH59" si="3">SUM(C36:AG36)</f>
-        <v>-262.62484795069059</v>
+        <v>-574.23044999999991</v>
       </c>
       <c r="AJ36" s="19" t="s">
         <v>71</v>
@@ -6911,7 +6909,7 @@
       </c>
       <c r="U37" s="8">
         <f t="shared" si="1"/>
-        <v>-22.275463311545288</v>
+        <v>0</v>
       </c>
       <c r="V37" s="8">
         <f t="shared" si="1"/>
@@ -6919,7 +6917,7 @@
       </c>
       <c r="W37" s="8">
         <f t="shared" si="1"/>
-        <v>18.868741588245889</v>
+        <v>0</v>
       </c>
       <c r="X37" s="8">
         <f t="shared" si="1"/>
@@ -6935,7 +6933,7 @@
       </c>
       <c r="AA37" s="8">
         <f t="shared" si="1"/>
-        <v>255.84479999999999</v>
+        <v>0</v>
       </c>
       <c r="AB37" s="8">
         <f t="shared" si="1"/>
@@ -6959,11 +6957,11 @@
       </c>
       <c r="AG37" s="17">
         <f t="shared" si="1"/>
-        <v>72.915019999999998</v>
+        <v>36.457509999999999</v>
       </c>
       <c r="AH37" s="18">
         <f t="shared" si="3"/>
-        <v>105.7277582767006</v>
+        <v>-183.16782999999998</v>
       </c>
       <c r="AJ37" s="19" t="s">
         <v>73</v>
@@ -7050,7 +7048,7 @@
       </c>
       <c r="U38" s="8">
         <f t="shared" si="1"/>
-        <v>-15.661021998100891</v>
+        <v>0</v>
       </c>
       <c r="V38" s="8">
         <f t="shared" si="1"/>
@@ -7058,7 +7056,7 @@
       </c>
       <c r="W38" s="8">
         <f t="shared" si="1"/>
-        <v>6.474004562556317</v>
+        <v>0</v>
       </c>
       <c r="X38" s="8">
         <f t="shared" si="1"/>
@@ -7074,7 +7072,7 @@
       </c>
       <c r="AA38" s="8">
         <f t="shared" si="1"/>
-        <v>267.85270000000003</v>
+        <v>0</v>
       </c>
       <c r="AB38" s="8">
         <f t="shared" si="1"/>
@@ -7098,11 +7096,11 @@
       </c>
       <c r="AG38" s="17">
         <f t="shared" si="1"/>
-        <v>60.411059999999999</v>
+        <v>30.20553</v>
       </c>
       <c r="AH38" s="18">
         <f t="shared" si="3"/>
-        <v>97.513692564455454</v>
+        <v>-191.35751999999999</v>
       </c>
       <c r="AJ38" s="19" t="s">
         <v>75</v>
@@ -7189,7 +7187,7 @@
       </c>
       <c r="U39" s="8">
         <f t="shared" si="1"/>
-        <v>-30.590988646724053</v>
+        <v>0</v>
       </c>
       <c r="V39" s="8">
         <f t="shared" si="1"/>
@@ -7197,7 +7195,7 @@
       </c>
       <c r="W39" s="8">
         <f t="shared" si="1"/>
-        <v>25.900856535045321</v>
+        <v>0</v>
       </c>
       <c r="X39" s="8">
         <f t="shared" si="1"/>
@@ -7213,7 +7211,7 @@
       </c>
       <c r="AA39" s="8">
         <f t="shared" si="1"/>
-        <v>283.1164</v>
+        <v>0</v>
       </c>
       <c r="AB39" s="8">
         <f t="shared" si="1"/>
@@ -7237,11 +7235,11 @@
       </c>
       <c r="AG39" s="17">
         <f t="shared" si="1"/>
-        <v>66.473579999999998</v>
+        <v>33.236789999999999</v>
       </c>
       <c r="AH39" s="18">
         <f t="shared" si="3"/>
-        <v>104.32822788832127</v>
+        <v>-207.33483000000001</v>
       </c>
       <c r="AJ39" s="19" t="s">
         <v>77</v>
@@ -7328,7 +7326,7 @@
       </c>
       <c r="U40" s="8">
         <f t="shared" si="1"/>
-        <v>-26.469971645545829</v>
+        <v>0</v>
       </c>
       <c r="V40" s="8">
         <f t="shared" si="1"/>
@@ -7336,7 +7334,7 @@
       </c>
       <c r="W40" s="8">
         <f t="shared" si="1"/>
-        <v>19.287016054356361</v>
+        <v>0</v>
       </c>
       <c r="X40" s="8">
         <f t="shared" si="1"/>
@@ -7352,7 +7350,7 @@
       </c>
       <c r="AA40" s="8">
         <f t="shared" si="1"/>
-        <v>278.85309999999998</v>
+        <v>0</v>
       </c>
       <c r="AB40" s="8">
         <f t="shared" si="1"/>
@@ -7376,11 +7374,11 @@
       </c>
       <c r="AG40" s="17">
         <f t="shared" si="1"/>
-        <v>58.141379999999998</v>
+        <v>29.070689999999999</v>
       </c>
       <c r="AH40" s="18">
         <f t="shared" si="3"/>
-        <v>94.024834408810534</v>
+        <v>-206.71600000000001</v>
       </c>
       <c r="AJ40" s="19" t="s">
         <v>79</v>
@@ -7467,7 +7465,7 @@
       </c>
       <c r="U41" s="8">
         <f t="shared" si="1"/>
-        <v>-17.968820611715174</v>
+        <v>0</v>
       </c>
       <c r="V41" s="8">
         <f t="shared" si="1"/>
@@ -7475,7 +7473,7 @@
       </c>
       <c r="W41" s="8">
         <f t="shared" si="1"/>
-        <v>4.0832277831392165</v>
+        <v>0</v>
       </c>
       <c r="X41" s="8">
         <f t="shared" si="1"/>
@@ -7491,7 +7489,7 @@
       </c>
       <c r="AA41" s="8">
         <f t="shared" si="1"/>
-        <v>240.07829999999998</v>
+        <v>0</v>
       </c>
       <c r="AB41" s="8">
         <f t="shared" si="1"/>
@@ -7515,11 +7513,11 @@
       </c>
       <c r="AG41" s="17">
         <f t="shared" si="1"/>
-        <v>62.974760000000003</v>
+        <v>31.487380000000002</v>
       </c>
       <c r="AH41" s="18">
         <f t="shared" si="3"/>
-        <v>106.67893717142402</v>
+        <v>-151.00115</v>
       </c>
       <c r="AJ41" s="19" t="s">
         <v>81</v>
@@ -7606,7 +7604,7 @@
       </c>
       <c r="U42" s="8">
         <f t="shared" si="1"/>
-        <v>-22.246496848178143</v>
+        <v>0</v>
       </c>
       <c r="V42" s="8">
         <f t="shared" si="1"/>
@@ -7614,7 +7612,7 @@
       </c>
       <c r="W42" s="8">
         <f t="shared" si="1"/>
-        <v>6.0353334055377585</v>
+        <v>0</v>
       </c>
       <c r="X42" s="8">
         <f t="shared" si="1"/>
@@ -7630,7 +7628,7 @@
       </c>
       <c r="AA42" s="8">
         <f t="shared" si="1"/>
-        <v>257.63330000000002</v>
+        <v>0</v>
       </c>
       <c r="AB42" s="8">
         <f t="shared" si="1"/>
@@ -7654,11 +7652,11 @@
       </c>
       <c r="AG42" s="17">
         <f t="shared" si="1"/>
-        <v>57.751620000000003</v>
+        <v>28.875810000000001</v>
       </c>
       <c r="AH42" s="18">
         <f t="shared" si="3"/>
-        <v>117.37091655735964</v>
+        <v>-152.92703</v>
       </c>
       <c r="AJ42" s="19" t="s">
         <v>83</v>
@@ -7745,7 +7743,7 @@
       </c>
       <c r="U43" s="8">
         <f t="shared" si="1"/>
-        <v>-23.1866419965462</v>
+        <v>0</v>
       </c>
       <c r="V43" s="8">
         <f t="shared" si="1"/>
@@ -7753,7 +7751,7 @@
       </c>
       <c r="W43" s="8">
         <f t="shared" si="1"/>
-        <v>14.519882481652528</v>
+        <v>0</v>
       </c>
       <c r="X43" s="8">
         <f t="shared" si="1"/>
@@ -7769,7 +7767,7 @@
       </c>
       <c r="AA43" s="8">
         <f t="shared" si="1"/>
-        <v>268.47090000000003</v>
+        <v>0</v>
       </c>
       <c r="AB43" s="8">
         <f t="shared" si="1"/>
@@ -7793,11 +7791,11 @@
       </c>
       <c r="AG43" s="17">
         <f t="shared" si="1"/>
-        <v>58.00694</v>
+        <v>29.00347</v>
       </c>
       <c r="AH43" s="18">
         <f t="shared" si="3"/>
-        <v>104.93585048510637</v>
+        <v>-183.87175999999999</v>
       </c>
       <c r="AJ43" s="19" t="s">
         <v>85</v>
@@ -7884,7 +7882,7 @@
       </c>
       <c r="U44" s="8">
         <f t="shared" si="4"/>
-        <v>-19.819733348988326</v>
+        <v>0</v>
       </c>
       <c r="V44" s="8">
         <f t="shared" si="4"/>
@@ -7892,7 +7890,7 @@
       </c>
       <c r="W44" s="8">
         <f t="shared" si="4"/>
-        <v>6.3393864025629485</v>
+        <v>0</v>
       </c>
       <c r="X44" s="8">
         <f t="shared" si="4"/>
@@ -7908,7 +7906,7 @@
       </c>
       <c r="AA44" s="8">
         <f t="shared" si="4"/>
-        <v>252.3862</v>
+        <v>0</v>
       </c>
       <c r="AB44" s="8">
         <f t="shared" si="4"/>
@@ -7932,11 +7930,11 @@
       </c>
       <c r="AG44" s="17">
         <f t="shared" si="4"/>
-        <v>53.812440000000002</v>
+        <v>26.906220000000001</v>
       </c>
       <c r="AH44" s="18">
         <f t="shared" si="3"/>
-        <v>99.71427305357463</v>
+        <v>-166.09780000000001</v>
       </c>
       <c r="AJ44" s="19" t="s">
         <v>87</v>
@@ -8023,7 +8021,7 @@
       </c>
       <c r="U45" s="8">
         <f t="shared" si="4"/>
-        <v>-18.419571669395573</v>
+        <v>0</v>
       </c>
       <c r="V45" s="8">
         <f t="shared" si="4"/>
@@ -8031,7 +8029,7 @@
       </c>
       <c r="W45" s="8">
         <f t="shared" si="4"/>
-        <v>19.497339141534162</v>
+        <v>0</v>
       </c>
       <c r="X45" s="8">
         <f t="shared" si="4"/>
@@ -8047,7 +8045,7 @@
       </c>
       <c r="AA45" s="8">
         <f t="shared" si="4"/>
-        <v>238.61189999999999</v>
+        <v>0</v>
       </c>
       <c r="AB45" s="8">
         <f t="shared" si="4"/>
@@ -8071,11 +8069,11 @@
       </c>
       <c r="AG45" s="17">
         <f t="shared" si="4"/>
-        <v>58.239919999999998</v>
+        <v>29.119959999999999</v>
       </c>
       <c r="AH45" s="18">
         <f t="shared" si="3"/>
-        <v>109.31179747213857</v>
+        <v>-159.49783000000002</v>
       </c>
       <c r="AJ45" s="19" t="s">
         <v>89</v>
@@ -8162,7 +8160,7 @@
       </c>
       <c r="U46" s="8">
         <f t="shared" si="4"/>
-        <v>-22.009073041452702</v>
+        <v>0</v>
       </c>
       <c r="V46" s="8">
         <f t="shared" si="4"/>
@@ -8170,7 +8168,7 @@
       </c>
       <c r="W46" s="8">
         <f t="shared" si="4"/>
-        <v>8.5495338820312305</v>
+        <v>0</v>
       </c>
       <c r="X46" s="8">
         <f t="shared" si="4"/>
@@ -8186,7 +8184,7 @@
       </c>
       <c r="AA46" s="8">
         <f t="shared" si="4"/>
-        <v>250.15109999999999</v>
+        <v>0</v>
       </c>
       <c r="AB46" s="8">
         <f t="shared" si="4"/>
@@ -8210,11 +8208,11 @@
       </c>
       <c r="AG46" s="17">
         <f t="shared" si="4"/>
-        <v>57.682099999999998</v>
+        <v>28.841049999999999</v>
       </c>
       <c r="AH46" s="18">
         <f t="shared" si="3"/>
-        <v>110.7739808405785</v>
+        <v>-154.75863000000001</v>
       </c>
       <c r="AJ46" s="19" t="s">
         <v>91</v>
@@ -8301,7 +8299,7 @@
       </c>
       <c r="U47" s="8">
         <f t="shared" si="4"/>
-        <v>-8.2025371543809538</v>
+        <v>0</v>
       </c>
       <c r="V47" s="8">
         <f t="shared" si="4"/>
@@ -8309,7 +8307,7 @@
       </c>
       <c r="W47" s="8">
         <f t="shared" si="4"/>
-        <v>3.4483689200838126</v>
+        <v>0</v>
       </c>
       <c r="X47" s="8">
         <f t="shared" si="4"/>
@@ -8325,7 +8323,7 @@
       </c>
       <c r="AA47" s="8">
         <f t="shared" si="4"/>
-        <v>257.91570000000002</v>
+        <v>0</v>
       </c>
       <c r="AB47" s="8">
         <f t="shared" si="4"/>
@@ -8349,11 +8347,11 @@
       </c>
       <c r="AG47" s="17">
         <f t="shared" si="4"/>
-        <v>58.795319999999997</v>
+        <v>29.397659999999998</v>
       </c>
       <c r="AH47" s="18">
         <f t="shared" si="3"/>
-        <v>80.870431765702875</v>
+        <v>-201.68876</v>
       </c>
       <c r="AJ47" s="19" t="s">
         <v>93</v>
@@ -8440,7 +8438,7 @@
       </c>
       <c r="U48" s="8">
         <f t="shared" si="4"/>
-        <v>-8.3092640254116361</v>
+        <v>0</v>
       </c>
       <c r="V48" s="8">
         <f t="shared" si="4"/>
@@ -8448,7 +8446,7 @@
       </c>
       <c r="W48" s="8">
         <f t="shared" si="4"/>
-        <v>7.3429984635705878</v>
+        <v>0</v>
       </c>
       <c r="X48" s="8">
         <f t="shared" si="4"/>
@@ -8464,7 +8462,7 @@
       </c>
       <c r="AA48" s="8">
         <f t="shared" si="4"/>
-        <v>255.9873</v>
+        <v>0</v>
       </c>
       <c r="AB48" s="8">
         <f t="shared" si="4"/>
@@ -8488,11 +8486,11 @@
       </c>
       <c r="AG48" s="17">
         <f t="shared" si="4"/>
-        <v>52.749360000000003</v>
+        <v>26.374680000000001</v>
       </c>
       <c r="AH48" s="18">
         <f t="shared" si="3"/>
-        <v>68.983404438158942</v>
+        <v>-212.41230999999999</v>
       </c>
       <c r="AJ48" s="19" t="s">
         <v>95</v>
@@ -8579,7 +8577,7 @@
       </c>
       <c r="U49" s="8">
         <f t="shared" si="4"/>
-        <v>-4.5404615100229631</v>
+        <v>0</v>
       </c>
       <c r="V49" s="8">
         <f t="shared" si="4"/>
@@ -8587,7 +8585,7 @@
       </c>
       <c r="W49" s="8">
         <f t="shared" si="4"/>
-        <v>4.3865218335259657</v>
+        <v>0</v>
       </c>
       <c r="X49" s="8">
         <f t="shared" si="4"/>
@@ -8603,7 +8601,7 @@
       </c>
       <c r="AA49" s="8">
         <f t="shared" si="4"/>
-        <v>225.48320000000001</v>
+        <v>0</v>
       </c>
       <c r="AB49" s="8">
         <f t="shared" si="4"/>
@@ -8627,11 +8625,11 @@
       </c>
       <c r="AG49" s="17">
         <f t="shared" si="4"/>
-        <v>57.932920000000003</v>
+        <v>28.966460000000001</v>
       </c>
       <c r="AH49" s="18">
         <f t="shared" si="3"/>
-        <v>78.117700323503016</v>
+        <v>-176.17801999999998</v>
       </c>
       <c r="AJ49" s="19" t="s">
         <v>97</v>
@@ -8718,7 +8716,7 @@
       </c>
       <c r="U50" s="8">
         <f t="shared" si="4"/>
-        <v>-6.3763850511869187</v>
+        <v>0</v>
       </c>
       <c r="V50" s="8">
         <f t="shared" si="4"/>
@@ -8726,7 +8724,7 @@
       </c>
       <c r="W50" s="8">
         <f t="shared" si="4"/>
-        <v>7.489475164789587</v>
+        <v>0</v>
       </c>
       <c r="X50" s="8">
         <f t="shared" si="4"/>
@@ -8742,7 +8740,7 @@
       </c>
       <c r="AA50" s="8">
         <f t="shared" si="4"/>
-        <v>205.99509999999998</v>
+        <v>0</v>
       </c>
       <c r="AB50" s="8">
         <f t="shared" si="4"/>
@@ -8766,11 +8764,11 @@
       </c>
       <c r="AG50" s="17">
         <f t="shared" si="4"/>
-        <v>52.632339999999999</v>
+        <v>26.31617</v>
       </c>
       <c r="AH50" s="18">
         <f t="shared" si="3"/>
-        <v>52.782160113602629</v>
+        <v>-180.6422</v>
       </c>
       <c r="AJ50" s="19" t="s">
         <v>99</v>
@@ -8857,7 +8855,7 @@
       </c>
       <c r="U51" s="8">
         <f t="shared" si="4"/>
-        <v>-13.937043086106897</v>
+        <v>0</v>
       </c>
       <c r="V51" s="8">
         <f t="shared" si="4"/>
@@ -8865,7 +8863,7 @@
       </c>
       <c r="W51" s="8">
         <f t="shared" si="4"/>
-        <v>1.5142882803482303</v>
+        <v>0</v>
       </c>
       <c r="X51" s="8">
         <f t="shared" si="4"/>
@@ -8881,7 +8879,7 @@
       </c>
       <c r="AA51" s="8">
         <f t="shared" si="4"/>
-        <v>269.03980000000001</v>
+        <v>0</v>
       </c>
       <c r="AB51" s="8">
         <f t="shared" si="4"/>
@@ -8905,11 +8903,11 @@
       </c>
       <c r="AG51" s="17">
         <f t="shared" si="4"/>
-        <v>54.944099999999999</v>
+        <v>27.472049999999999</v>
       </c>
       <c r="AH51" s="18">
         <f t="shared" si="3"/>
-        <v>97.747265194241322</v>
+        <v>-186.34183000000002</v>
       </c>
       <c r="AJ51" s="19" t="s">
         <v>101</v>
@@ -8996,7 +8994,7 @@
       </c>
       <c r="U52" s="8">
         <f t="shared" si="4"/>
-        <v>2.9977443535098187</v>
+        <v>0</v>
       </c>
       <c r="V52" s="8">
         <f t="shared" si="4"/>
@@ -9004,7 +9002,7 @@
       </c>
       <c r="W52" s="8">
         <f t="shared" si="4"/>
-        <v>-1.6877075872318641</v>
+        <v>0</v>
       </c>
       <c r="X52" s="8">
         <f t="shared" si="4"/>
@@ -9020,7 +9018,7 @@
       </c>
       <c r="AA52" s="8">
         <f t="shared" si="4"/>
-        <v>256.08670000000001</v>
+        <v>0</v>
       </c>
       <c r="AB52" s="8">
         <f t="shared" si="4"/>
@@ -9044,11 +9042,11 @@
       </c>
       <c r="AG52" s="17">
         <f t="shared" si="4"/>
-        <v>57.849559999999997</v>
+        <v>28.924779999999998</v>
       </c>
       <c r="AH52" s="18">
         <f t="shared" si="3"/>
-        <v>101.21340676627796</v>
+        <v>-185.10811000000001</v>
       </c>
       <c r="AJ52" s="19" t="s">
         <v>103</v>
@@ -9135,7 +9133,7 @@
       </c>
       <c r="U53" s="8">
         <f t="shared" si="6"/>
-        <v>-18.420583598246829</v>
+        <v>0</v>
       </c>
       <c r="V53" s="8">
         <f t="shared" si="6"/>
@@ -9143,7 +9141,7 @@
       </c>
       <c r="W53" s="8">
         <f t="shared" si="6"/>
-        <v>2.5766238375051955</v>
+        <v>0</v>
       </c>
       <c r="X53" s="8">
         <f t="shared" si="6"/>
@@ -9159,7 +9157,7 @@
       </c>
       <c r="AA53" s="8">
         <f t="shared" si="6"/>
-        <v>257.16339999999997</v>
+        <v>0</v>
       </c>
       <c r="AB53" s="8">
         <f t="shared" si="6"/>
@@ -9183,11 +9181,11 @@
       </c>
       <c r="AG53" s="17">
         <f t="shared" si="6"/>
-        <v>65.169399999999996</v>
+        <v>32.584699999999998</v>
       </c>
       <c r="AH53" s="18">
         <f t="shared" si="3"/>
-        <v>97.079300239258345</v>
+        <v>-176.82483999999999</v>
       </c>
       <c r="AJ53" s="19" t="s">
         <v>105</v>
@@ -9274,7 +9272,7 @@
       </c>
       <c r="U54" s="8">
         <f t="shared" si="6"/>
-        <v>9.1992238273128244</v>
+        <v>0</v>
       </c>
       <c r="V54" s="8">
         <f t="shared" si="6"/>
@@ -9282,7 +9280,7 @@
       </c>
       <c r="W54" s="8">
         <f t="shared" si="6"/>
-        <v>4.1491612723537274</v>
+        <v>0</v>
       </c>
       <c r="X54" s="8">
         <f t="shared" si="6"/>
@@ -9298,7 +9296,7 @@
       </c>
       <c r="AA54" s="8">
         <f t="shared" si="6"/>
-        <v>227.79589999999999</v>
+        <v>0</v>
       </c>
       <c r="AB54" s="8">
         <f t="shared" si="6"/>
@@ -9322,11 +9320,11 @@
       </c>
       <c r="AG54" s="17">
         <f t="shared" si="6"/>
-        <v>55.261679999999998</v>
+        <v>27.630839999999999</v>
       </c>
       <c r="AH54" s="18">
         <f t="shared" si="3"/>
-        <v>105.73284509966653</v>
+        <v>-163.04228000000001</v>
       </c>
       <c r="AJ54" s="19" t="s">
         <v>107</v>
@@ -9413,7 +9411,7 @@
       </c>
       <c r="U55" s="8">
         <f t="shared" si="6"/>
-        <v>-38.819013759045973</v>
+        <v>0</v>
       </c>
       <c r="V55" s="8">
         <f t="shared" si="6"/>
@@ -9421,7 +9419,7 @@
       </c>
       <c r="W55" s="8">
         <f t="shared" si="6"/>
-        <v>237.3055375409516</v>
+        <v>0</v>
       </c>
       <c r="X55" s="8">
         <f t="shared" si="6"/>
@@ -9437,7 +9435,7 @@
       </c>
       <c r="AA55" s="8">
         <f t="shared" si="6"/>
-        <v>314.76679999999999</v>
+        <v>0</v>
       </c>
       <c r="AB55" s="8">
         <f t="shared" si="6"/>
@@ -9461,11 +9459,11 @@
       </c>
       <c r="AG55" s="17">
         <f t="shared" si="6"/>
-        <v>64.569239999999994</v>
+        <v>32.284619999999997</v>
       </c>
       <c r="AH55" s="18">
         <f t="shared" si="3"/>
-        <v>277.32570378190559</v>
+        <v>-268.21224000000001</v>
       </c>
       <c r="AJ55" s="19" t="s">
         <v>109</v>
@@ -9552,7 +9550,7 @@
       </c>
       <c r="U56" s="8">
         <f t="shared" si="6"/>
-        <v>-28.363037544029027</v>
+        <v>0</v>
       </c>
       <c r="V56" s="8">
         <f t="shared" si="6"/>
@@ -9560,7 +9558,7 @@
       </c>
       <c r="W56" s="8">
         <f t="shared" si="6"/>
-        <v>264.56386500717741</v>
+        <v>0</v>
       </c>
       <c r="X56" s="8">
         <f t="shared" si="6"/>
@@ -9576,7 +9574,7 @@
       </c>
       <c r="AA56" s="8">
         <f t="shared" si="6"/>
-        <v>267.80219999999997</v>
+        <v>0</v>
       </c>
       <c r="AB56" s="8">
         <f t="shared" si="6"/>
@@ -9600,11 +9598,11 @@
       </c>
       <c r="AG56" s="17">
         <f t="shared" si="6"/>
-        <v>67.451480000000004</v>
+        <v>33.725740000000002</v>
       </c>
       <c r="AH56" s="18">
         <f t="shared" si="3"/>
-        <v>310.29476746314833</v>
+        <v>-227.434</v>
       </c>
       <c r="AJ56" s="19" t="s">
         <v>111</v>
@@ -9691,7 +9689,7 @@
       </c>
       <c r="U57" s="8">
         <f t="shared" si="6"/>
-        <v>-26.97862400718391</v>
+        <v>0</v>
       </c>
       <c r="V57" s="8">
         <f t="shared" si="6"/>
@@ -9699,7 +9697,7 @@
       </c>
       <c r="W57" s="8">
         <f t="shared" si="6"/>
-        <v>8.9969329253918531</v>
+        <v>0</v>
       </c>
       <c r="X57" s="8">
         <f t="shared" si="6"/>
@@ -9715,7 +9713,7 @@
       </c>
       <c r="AA57" s="8">
         <f t="shared" si="6"/>
-        <v>282.38260000000002</v>
+        <v>0</v>
       </c>
       <c r="AB57" s="8">
         <f t="shared" si="6"/>
@@ -9739,11 +9737,11 @@
       </c>
       <c r="AG57" s="17">
         <f t="shared" si="6"/>
-        <v>63.074480000000001</v>
+        <v>31.537240000000001</v>
       </c>
       <c r="AH57" s="18">
         <f t="shared" si="3"/>
-        <v>118.33703891820798</v>
+        <v>-177.60111000000001</v>
       </c>
       <c r="AJ57" s="19" t="s">
         <v>113</v>
@@ -9830,7 +9828,7 @@
       </c>
       <c r="U58" s="8">
         <f t="shared" si="6"/>
-        <v>-23.185883049907762</v>
+        <v>0</v>
       </c>
       <c r="V58" s="8">
         <f t="shared" si="6"/>
@@ -9838,7 +9836,7 @@
       </c>
       <c r="W58" s="8">
         <f t="shared" si="6"/>
-        <v>4.8485305996765655</v>
+        <v>0</v>
       </c>
       <c r="X58" s="8">
         <f t="shared" si="6"/>
@@ -9854,7 +9852,7 @@
       </c>
       <c r="AA58" s="8">
         <f t="shared" si="6"/>
-        <v>290.30279999999999</v>
+        <v>0</v>
       </c>
       <c r="AB58" s="8">
         <f t="shared" si="6"/>
@@ -9878,11 +9876,11 @@
       </c>
       <c r="AG58" s="17">
         <f t="shared" si="6"/>
-        <v>49.265920000000001</v>
+        <v>24.632960000000001</v>
       </c>
       <c r="AH58" s="18">
         <f t="shared" si="3"/>
-        <v>103.44681754976878</v>
+        <v>-193.15159</v>
       </c>
       <c r="AJ58" s="19" t="s">
         <v>115</v>
@@ -9969,7 +9967,7 @@
       </c>
       <c r="U59" s="21">
         <f t="shared" si="6"/>
-        <v>-13.755812953402646</v>
+        <v>0</v>
       </c>
       <c r="V59" s="21">
         <f t="shared" si="6"/>
@@ -9977,7 +9975,7 @@
       </c>
       <c r="W59" s="21">
         <f t="shared" si="6"/>
-        <v>-4.1275312931581754</v>
+        <v>0</v>
       </c>
       <c r="X59" s="21">
         <f t="shared" si="6"/>
@@ -9993,7 +9991,7 @@
       </c>
       <c r="AA59" s="21">
         <f t="shared" si="6"/>
-        <v>266.01800000000003</v>
+        <v>0</v>
       </c>
       <c r="AB59" s="21">
         <f t="shared" si="6"/>
@@ -10017,11 +10015,11 @@
       </c>
       <c r="AG59" s="22">
         <f t="shared" si="6"/>
-        <v>50.306919999999998</v>
+        <v>25.153459999999999</v>
       </c>
       <c r="AH59" s="18">
         <f t="shared" si="3"/>
-        <v>60.570235753439199</v>
+        <v>-212.71788000000001</v>
       </c>
       <c r="AJ59" s="19" t="s">
         <v>117</v>
@@ -10255,17 +10253,17 @@
       <c r="D62" s="55"/>
       <c r="E62" s="61">
         <f>MAX(AH35:AH59)</f>
-        <v>310.29476746314833</v>
+        <v>-151.00115</v>
       </c>
       <c r="F62" s="62"/>
       <c r="G62" s="34">
         <f>_xlfn.XLOOKUP(MAX(AH35:AH59),AH35:AH59,B35:B59)</f>
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H62" s="35"/>
       <c r="I62" s="34" t="str">
         <f>_xlfn.XLOOKUP(MAX(AH35:AH59),AH35:AH59,AK35:AK59)</f>
-        <v>CeSbL</v>
+        <v>PoBw</v>
       </c>
       <c r="J62" s="35"/>
       <c r="BJ62" s="24">
@@ -12713,325 +12711,11 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="N5 W5" formula="1"/>
+  </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010005EDA4EBA40014468BD70616C7A96D14" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="50721e4afd631f278bee133812e5fef0">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="051e4247-5afa-41d6-9ecb-95bb5262d825" xmlns:ns3="1bccae83-48d9-4882-b875-c21b283dc0ec" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="879b5544f3aba6c4b909f13333d8de76" ns2:_="" ns3:_="">
-    <xsd:import namespace="051e4247-5afa-41d6-9ecb-95bb5262d825"/>
-    <xsd:import namespace="1bccae83-48d9-4882-b875-c21b283dc0ec"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:ToPerson" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:Comments" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="051e4247-5afa-41d6-9ecb-95bb5262d825" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="ToPerson" ma:index="10" nillable="true" ma:displayName="To Person" ma:description="The file was intended for this individual" ma:format="Dropdown" ma:list="UserInfo" ma:SharePointGroup="0" ma:internalName="ToPerson">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:User">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="11" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="12" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="Comments" ma:index="13" nillable="true" ma:displayName="Comments" ma:description="comments, description, purpose, etc" ma:format="Dropdown" ma:internalName="Comments">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="16" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="17" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="19" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="c03f8475-640f-4944-9dcc-2d3788384b7c" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="21" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="22" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="23" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="25" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="26" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1bccae83-48d9-4882-b875-c21b283dc0ec" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="14" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="15" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="20" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{f515cb03-89b1-45a4-9671-02e9b54e5b85}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="1bccae83-48d9-4882-b875-c21b283dc0ec">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Comments xmlns="051e4247-5afa-41d6-9ecb-95bb5262d825" xsi:nil="true"/>
-    <TaxCatchAll xmlns="1bccae83-48d9-4882-b875-c21b283dc0ec" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="051e4247-5afa-41d6-9ecb-95bb5262d825">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <ToPerson xmlns="051e4247-5afa-41d6-9ecb-95bb5262d825">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </ToPerson>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AEE72F18-86F8-48BA-A940-13F2294F8271}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31881EA9-49CB-48AE-9101-8BED38825D25}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E39570D2-4AFB-48ED-BB95-E5C2EA11C35C}"/>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>

--- a/Misc/FEC_EcositePredictor/reference/FEC_EcositePredictor.xlsx
+++ b/Misc/FEC_EcositePredictor/reference/FEC_EcositePredictor.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\MNR_SR_External\GI_MGMT\GISupport\OldGrowthAnalysis\Documents_GWatt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ontariogov-my.sharepoint.com/personal/glen_watt_ontario_ca/Documents/Laptop_Feb2024/SR_RIAU_toolbox/p2t_ArcMap10_Tools-master/p2t_ArcMap10_Tools-master/Misc/FEC_EcositePredictor/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D49DB22-8E40-4DB3-B13C-5C8D86E14300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{5D49DB22-8E40-4DB3-B13C-5C8D86E14300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B8DAAA8-9437-4E37-A7B5-B7378D660AB1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{81CC09A0-CCBA-490A-882D-74783881A46D}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="166">
   <si>
     <t>Ecosite_Num</t>
   </si>
@@ -534,6 +534,9 @@
   </si>
   <si>
     <t>SITE CLASS</t>
+  </si>
+  <si>
+    <t>OC</t>
   </si>
 </sst>
 </file>
@@ -3136,19 +3139,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3BAB770-D548-4A89-9CE4-B3603514F2DA}">
-  <dimension ref="B1:Z9"/>
+  <dimension ref="B1:AA9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="25" max="25" width="3.42578125" customWidth="1"/>
-    <col min="26" max="26" width="12" customWidth="1"/>
+    <col min="26" max="26" width="3.42578125" customWidth="1"/>
+    <col min="27" max="27" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="47" t="s">
         <v>163</v>
       </c>
@@ -3173,12 +3176,13 @@
       <c r="U2" s="48"/>
       <c r="V2" s="48"/>
       <c r="W2" s="48"/>
-      <c r="X2" s="49"/>
-      <c r="Z2" s="39" t="s">
+      <c r="X2" s="48"/>
+      <c r="Y2" s="49"/>
+      <c r="AA2" s="39" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="26" t="s">
         <v>44</v>
       </c>
@@ -3207,50 +3211,53 @@
         <v>156</v>
       </c>
       <c r="K3" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="L3" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="L3" s="27" t="s">
+      <c r="M3" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="27" t="s">
+      <c r="N3" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="27" t="s">
+      <c r="O3" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="O3" s="27" t="s">
+      <c r="P3" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="P3" s="27" t="s">
+      <c r="Q3" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="Q3" s="27" t="s">
+      <c r="R3" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="R3" s="27" t="s">
+      <c r="S3" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="S3" s="27" t="s">
+      <c r="T3" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="T3" s="27" t="s">
+      <c r="U3" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="U3" s="27" t="s">
+      <c r="V3" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="V3" s="27" t="s">
+      <c r="W3" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="W3" s="32" t="s">
+      <c r="X3" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="X3" s="28" t="s">
+      <c r="Y3" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="Z3" s="40"/>
+      <c r="AA3" s="40"/>
     </row>
-    <row r="4" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="29">
         <v>0</v>
       </c>
@@ -3314,17 +3321,20 @@
       <c r="V4" s="30">
         <v>0</v>
       </c>
-      <c r="W4" s="33">
-        <v>0</v>
-      </c>
-      <c r="X4" s="31">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="38">
-        <v>1</v>
+      <c r="W4" s="30">
+        <v>0</v>
+      </c>
+      <c r="X4" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="38">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>0</v>
       </c>
@@ -3394,38 +3404,41 @@
       <c r="X5">
         <v>0</v>
       </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="2:26" ht="22.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="K8" s="41" t="s">
+    <row r="7" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="2:27" ht="22.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L8" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="L8" s="42"/>
-      <c r="M8" s="43" t="s">
+      <c r="M8" s="42"/>
+      <c r="N8" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
     </row>
-    <row r="9" spans="2:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K9" s="44">
+    <row r="9" spans="2:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L9" s="44">
         <f>'Central Ontario FEC'!G62</f>
         <v>17</v>
       </c>
-      <c r="L9" s="45"/>
-      <c r="M9" s="46" t="str">
+      <c r="M9" s="45"/>
+      <c r="N9" s="46" t="str">
         <f>'Central Ontario FEC'!I62</f>
         <v>PoBw</v>
       </c>
-      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="B2:X2"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="B2:Y2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3656,47 +3669,47 @@
         <v>1</v>
       </c>
       <c r="D4" s="6">
+        <f>'User Entry'!N4</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <f>'User Entry'!Q4</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <f>'User Entry'!P4</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <f>'User Entry'!W4</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <f>'User Entry'!O4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <f>'User Entry'!R4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <f>'User Entry'!T4+'User Entry'!V4</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
+        <f>'User Entry'!X4</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="6">
+        <f>'User Entry'!L4</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
         <f>'User Entry'!M4</f>
         <v>0</v>
       </c>
-      <c r="E4" s="6">
-        <f>'User Entry'!P4</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="6">
-        <f>'User Entry'!O4</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="6">
-        <f>'User Entry'!V4</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="6">
-        <f>'User Entry'!N4</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="6">
-        <f>'User Entry'!Q4</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="6">
+      <c r="N4" s="6">
         <f>'User Entry'!S4+'User Entry'!U4</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="6">
-        <f>'User Entry'!W4</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="6">
-        <f>'User Entry'!K4</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="6">
-        <f>'User Entry'!L4</f>
-        <v>0</v>
-      </c>
-      <c r="N4" s="6">
-        <f>'User Entry'!R4+'User Entry'!T4</f>
         <v>0</v>
       </c>
       <c r="O4" s="6">
@@ -3740,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="Y4" s="6">
-        <f>G4+H4+I4+J4+K4+N4+'User Entry'!X4</f>
+        <f>G4+H4+I4+J4+K4+N4+'User Entry'!Y4</f>
         <v>0</v>
       </c>
       <c r="Z4" s="6">
@@ -3748,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="AA4" s="6">
-        <f>O4+P4+Q4+R4+S4+T4+U4+V4+W4</f>
+        <f>O4+P4+Q4+R4+S4+T4+U4+V4+W4+'User Entry'!K4</f>
         <v>0</v>
       </c>
       <c r="AB4" s="6"/>
@@ -3757,8 +3770,8 @@
       <c r="AE4" s="6"/>
       <c r="AF4" s="6"/>
       <c r="AG4" s="6">
-        <f>'User Entry'!Z4</f>
-        <v>1</v>
+        <f>'User Entry'!AA4</f>
+        <v>0</v>
       </c>
       <c r="AP4" s="25">
         <f>SUM(D4:M4,O4:V4)</f>
